--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C176334-3E7F-4B7E-A749-0FFE51C54EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A51F1-142A-468D-84F5-F7F58647BE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -9383,15 +9383,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>11783</v>
+        <v>15850</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>4717</v>
+        <v>6107</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>16500</v>
+        <v>21957</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9400,15 +9400,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>7730</v>
+        <v>10329</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>1777</v>
+        <v>2301</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>9507</v>
+        <v>12630</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9417,15 +9417,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>21688</v>
+        <v>29038</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>3251</v>
+        <v>4380</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>24939</v>
+        <v>33418</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9434,15 +9434,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>341</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9451,15 +9451,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>13372</v>
+        <v>18181</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>3070</v>
+        <v>4202</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>16442</v>
+        <v>22383</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9468,15 +9468,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1408</v>
+        <v>1845</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>633</v>
+        <v>844</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>2041</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9485,15 +9485,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1646</v>
+        <v>2065</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>533</v>
+        <v>650</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>2179</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9502,15 +9502,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>694</v>
+        <v>914</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>820</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9553,15 +9553,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>431</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9570,15 +9570,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>596</v>
+        <v>740</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>803</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9587,15 +9587,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1421</v>
+        <v>1882</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>480</v>
+        <v>734</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>1901</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9604,15 +9604,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>704</v>
+        <v>1005</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>853</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9621,15 +9621,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>636</v>
+        <v>889</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>796</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9638,15 +9638,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>4097</v>
+        <v>5572</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>1821</v>
+        <v>2441</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>5918</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>337</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9672,15 +9672,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>4514</v>
+        <v>6089</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>1249</v>
+        <v>1806</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>5763</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9689,15 +9689,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9706,15 +9706,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>4784</v>
+        <v>6464</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>1449</v>
+        <v>1956</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>6233</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9723,15 +9723,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>612</v>
+        <v>810</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>761</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9740,15 +9740,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>5840</v>
+        <v>7844</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>1893</v>
+        <v>2509</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>7733</v>
+        <v>10353</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9757,15 +9757,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>25069</v>
+        <v>33536</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>4400</v>
+        <v>6110</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>29469</v>
+        <v>39646</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9774,15 +9774,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1519</v>
+        <v>2082</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>451</v>
+        <v>654</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>1970</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9808,15 +9808,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>797</v>
+        <v>1050</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>547</v>
+        <v>748</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>1344</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9825,15 +9825,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>652</v>
+        <v>907</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>1020</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9842,15 +9842,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>4648</v>
+        <v>6078</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>2359</v>
+        <v>2930</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>7007</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9859,15 +9859,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>142</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9876,15 +9876,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>829</v>
+        <v>1097</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>976</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9893,15 +9893,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>3503</v>
+        <v>4780</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>1156</v>
+        <v>1527</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>4659</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9910,15 +9910,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>2815</v>
+        <v>3673</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>1227</v>
+        <v>1670</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>4042</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9927,15 +9927,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1509</v>
+        <v>2023</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>568</v>
+        <v>761</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>2077</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9944,15 +9944,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>17971</v>
+        <v>23740</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>2548</v>
+        <v>3335</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>20519</v>
+        <v>27075</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9961,15 +9961,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>2317</v>
+        <v>3002</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>471</v>
+        <v>643</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>2788</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9978,15 +9978,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>8318</v>
+        <v>11452</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>1508</v>
+        <v>1993</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>9826</v>
+        <v>13445</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9995,15 +9995,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>371</v>
+        <v>543</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>429</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10012,15 +10012,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>368</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10029,15 +10029,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>848</v>
+        <v>1232</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>946</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10046,15 +10046,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>5791</v>
+        <v>8015</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>294</v>
+        <v>366</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>6085</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10063,15 +10063,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10080,15 +10080,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>420</v>
+        <v>562</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>471</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10097,15 +10097,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>934</v>
+        <v>1277</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>1061</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10114,15 +10114,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>3635</v>
+        <v>4999</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>1690</v>
+        <v>2296</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>5325</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>7398</v>
+        <v>9833</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>3164</v>
+        <v>4286</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>10562</v>
+        <v>14119</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10148,15 +10148,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>4109</v>
+        <v>5587</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>659</v>
+        <v>892</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>4768</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10165,15 +10165,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>3126</v>
+        <v>4015</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>2135</v>
+        <v>2793</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>5261</v>
+        <v>6808</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10182,15 +10182,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>8510</v>
+        <v>11137</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>2485</v>
+        <v>3099</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>10995</v>
+        <v>14236</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10199,15 +10199,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>1183</v>
+        <v>1666</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>636</v>
+        <v>799</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>1819</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10216,15 +10216,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>2997</v>
+        <v>3878</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1179</v>
+        <v>1550</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>4176</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10233,15 +10233,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>572</v>
+        <v>735</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>907</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10250,15 +10250,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>510</v>
+        <v>684</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>593</v>
+        <v>818</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10267,15 +10267,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>738</v>
+        <v>1099</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>1082</v>
+        <v>1447</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>1820</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10284,15 +10284,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>3041</v>
+        <v>4022</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>947</v>
+        <v>1354</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>3988</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10301,15 +10301,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>7120</v>
+        <v>9901</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>464</v>
+        <v>569</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>7584</v>
+        <v>10470</v>
       </c>
     </row>
   </sheetData>
@@ -13828,15 +13828,15 @@
       </c>
       <c r="B2" s="2">
         <f>AprilRaw!B2</f>
-        <v>0</v>
+        <v>4067</v>
       </c>
       <c r="C2" s="2">
         <f>AprilRaw!C2</f>
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="D2" s="2">
         <f>AprilRaw!D2</f>
-        <v>0</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13845,15 +13845,15 @@
       </c>
       <c r="B3" s="3">
         <f>AprilRaw!B3</f>
-        <v>0</v>
+        <v>2599</v>
       </c>
       <c r="C3" s="3">
         <f>AprilRaw!C3</f>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D3" s="3">
         <f>AprilRaw!D3</f>
-        <v>0</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13862,15 +13862,15 @@
       </c>
       <c r="B4" s="2">
         <f>AprilRaw!B4</f>
-        <v>0</v>
+        <v>7350</v>
       </c>
       <c r="C4" s="2">
         <f>AprilRaw!C4</f>
-        <v>0</v>
+        <v>1129</v>
       </c>
       <c r="D4" s="2">
         <f>AprilRaw!D4</f>
-        <v>0</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13879,15 +13879,15 @@
       </c>
       <c r="B5" s="3">
         <f>AprilRaw!B5</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3">
         <f>AprilRaw!C5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3">
         <f>AprilRaw!D5</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13896,15 +13896,15 @@
       </c>
       <c r="B6" s="2">
         <f>AprilRaw!B6</f>
-        <v>0</v>
+        <v>4809</v>
       </c>
       <c r="C6" s="2">
         <f>AprilRaw!C6</f>
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="D6" s="2">
         <f>AprilRaw!D6</f>
-        <v>0</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13913,15 +13913,15 @@
       </c>
       <c r="B7" s="3">
         <f>AprilRaw!B7</f>
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="C7" s="3">
         <f>AprilRaw!C7</f>
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D7" s="3">
         <f>AprilRaw!D7</f>
-        <v>0</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13930,15 +13930,15 @@
       </c>
       <c r="B8" s="2">
         <f>AprilRaw!B8</f>
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="C8" s="2">
         <f>AprilRaw!C8</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2">
         <f>AprilRaw!D8</f>
-        <v>0</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13947,15 +13947,15 @@
       </c>
       <c r="B9" s="3">
         <f>AprilRaw!B9</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="C9" s="3">
         <f>AprilRaw!C9</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3">
         <f>AprilRaw!D9</f>
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="B10" s="2">
         <f>AprilRaw!B10</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <f>AprilRaw!C10</f>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="D10" s="2">
         <f>AprilRaw!D10</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13998,15 +13998,15 @@
       </c>
       <c r="B12" s="5">
         <f>AprilRaw!B12</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5">
         <f>AprilRaw!C12</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5">
         <f>AprilRaw!D12</f>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14015,15 +14015,15 @@
       </c>
       <c r="B13" s="4">
         <f>AprilRaw!B13</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4">
         <f>AprilRaw!C13</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4">
         <f>AprilRaw!D13</f>
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14032,15 +14032,15 @@
       </c>
       <c r="B14" s="5">
         <f>AprilRaw!B14</f>
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="C14" s="5">
         <f>AprilRaw!C14</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="D14" s="5">
         <f>AprilRaw!D14</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14049,15 +14049,15 @@
       </c>
       <c r="B15" s="4">
         <f>AprilRaw!B15</f>
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="C15" s="4">
         <f>AprilRaw!C15</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4">
         <f>AprilRaw!D15</f>
-        <v>0</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14066,15 +14066,15 @@
       </c>
       <c r="B16" s="2">
         <f>AprilRaw!B16</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C16" s="2">
         <f>AprilRaw!C16</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2">
         <f>AprilRaw!D16</f>
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14083,15 +14083,15 @@
       </c>
       <c r="B17" s="3">
         <f>AprilRaw!B17</f>
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="C17" s="3">
         <f>AprilRaw!C17</f>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="D17" s="3">
         <f>AprilRaw!D17</f>
-        <v>0</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14100,15 +14100,15 @@
       </c>
       <c r="B18" s="2">
         <f>AprilRaw!B18</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2">
         <f>AprilRaw!C18</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2">
         <f>AprilRaw!D18</f>
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14117,15 +14117,15 @@
       </c>
       <c r="B19" s="3">
         <f>AprilRaw!B19</f>
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="C19" s="3">
         <f>AprilRaw!C19</f>
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="D19" s="3">
         <f>AprilRaw!D19</f>
-        <v>0</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14134,15 +14134,15 @@
       </c>
       <c r="B20" s="2">
         <f>AprilRaw!B20</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <f>AprilRaw!C20</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <f>AprilRaw!D20</f>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14151,15 +14151,15 @@
       </c>
       <c r="B21" s="3">
         <f>AprilRaw!B21</f>
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="C21" s="3">
         <f>AprilRaw!C21</f>
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="D21" s="3">
         <f>AprilRaw!D21</f>
-        <v>0</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14168,15 +14168,15 @@
       </c>
       <c r="B22" s="2">
         <f>AprilRaw!B22</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2">
         <f>AprilRaw!C22</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
         <f>AprilRaw!D22</f>
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14185,15 +14185,15 @@
       </c>
       <c r="B23" s="3">
         <f>AprilRaw!B23</f>
-        <v>0</v>
+        <v>2004</v>
       </c>
       <c r="C23" s="3">
         <f>AprilRaw!C23</f>
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="D23" s="3">
         <f>AprilRaw!D23</f>
-        <v>0</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14202,15 +14202,15 @@
       </c>
       <c r="B24" s="2">
         <f>AprilRaw!B24</f>
-        <v>0</v>
+        <v>8467</v>
       </c>
       <c r="C24" s="2">
         <f>AprilRaw!C24</f>
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="D24" s="2">
         <f>AprilRaw!D24</f>
-        <v>0</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14219,15 +14219,15 @@
       </c>
       <c r="B25" s="3">
         <f>AprilRaw!B25</f>
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="C25" s="3">
         <f>AprilRaw!C25</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D25" s="3">
         <f>AprilRaw!D25</f>
-        <v>0</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14253,15 +14253,15 @@
       </c>
       <c r="B27" s="3">
         <f>AprilRaw!B27</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C27" s="3">
         <f>AprilRaw!C27</f>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D27" s="3">
         <f>AprilRaw!D27</f>
-        <v>0</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14270,15 +14270,15 @@
       </c>
       <c r="B28" s="2">
         <f>AprilRaw!B28</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2">
         <f>AprilRaw!C28</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2">
         <f>AprilRaw!D28</f>
-        <v>0</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14287,15 +14287,15 @@
       </c>
       <c r="B29" s="3">
         <f>AprilRaw!B29</f>
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="C29" s="3">
         <f>AprilRaw!C29</f>
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="D29" s="3">
         <f>AprilRaw!D29</f>
-        <v>0</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14304,15 +14304,15 @@
       </c>
       <c r="B30" s="2">
         <f>AprilRaw!B30</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
         <f>AprilRaw!C30</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <f>AprilRaw!D30</f>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14321,15 +14321,15 @@
       </c>
       <c r="B31" s="3">
         <f>AprilRaw!B31</f>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="C31" s="3">
         <f>AprilRaw!C31</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3">
         <f>AprilRaw!D31</f>
-        <v>0</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14338,15 +14338,15 @@
       </c>
       <c r="B32" s="2">
         <f>AprilRaw!B32</f>
-        <v>0</v>
+        <v>1277</v>
       </c>
       <c r="C32" s="2">
         <f>AprilRaw!C32</f>
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D32" s="2">
         <f>AprilRaw!D32</f>
-        <v>0</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14355,15 +14355,15 @@
       </c>
       <c r="B33" s="3">
         <f>AprilRaw!B33</f>
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="C33" s="3">
         <f>AprilRaw!C33</f>
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="D33" s="3">
         <f>AprilRaw!D33</f>
-        <v>0</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14372,15 +14372,15 @@
       </c>
       <c r="B34" s="2">
         <f>AprilRaw!B34</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="C34" s="2">
         <f>AprilRaw!C34</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D34" s="2">
         <f>AprilRaw!D34</f>
-        <v>0</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14389,15 +14389,15 @@
       </c>
       <c r="B35" s="3">
         <f>AprilRaw!B35</f>
-        <v>0</v>
+        <v>5769</v>
       </c>
       <c r="C35" s="3">
         <f>AprilRaw!C35</f>
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="D35" s="3">
         <f>AprilRaw!D35</f>
-        <v>0</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14406,15 +14406,15 @@
       </c>
       <c r="B36" s="2">
         <f>AprilRaw!B36</f>
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="C36" s="2">
         <f>AprilRaw!C36</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2">
         <f>AprilRaw!D36</f>
-        <v>0</v>
+        <v>857</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14423,15 +14423,15 @@
       </c>
       <c r="B37" s="3">
         <f>AprilRaw!B37</f>
-        <v>0</v>
+        <v>3134</v>
       </c>
       <c r="C37" s="3">
         <f>AprilRaw!C37</f>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="D37" s="3">
         <f>AprilRaw!D37</f>
-        <v>0</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14440,15 +14440,15 @@
       </c>
       <c r="B38" s="2">
         <f>AprilRaw!B38</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C38" s="2">
         <f>AprilRaw!C38</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
         <f>AprilRaw!D38</f>
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14457,15 +14457,15 @@
       </c>
       <c r="B39" s="3">
         <f>AprilRaw!B39</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C39" s="3">
         <f>AprilRaw!C39</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3">
         <f>AprilRaw!D39</f>
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14474,15 +14474,15 @@
       </c>
       <c r="B40" s="6">
         <f>AprilRaw!B40</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="C40" s="6">
         <f>AprilRaw!C40</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D40" s="6">
         <f>AprilRaw!D40</f>
-        <v>0</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14491,15 +14491,15 @@
       </c>
       <c r="B41" s="7">
         <f>AprilRaw!B41</f>
-        <v>0</v>
+        <v>2224</v>
       </c>
       <c r="C41" s="7">
         <f>AprilRaw!C41</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D41" s="7">
         <f>AprilRaw!D41</f>
-        <v>0</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14508,15 +14508,15 @@
       </c>
       <c r="B42" s="6">
         <f>AprilRaw!B42</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C42" s="6">
         <f>AprilRaw!C42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42" s="6">
         <f>AprilRaw!D42</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14525,15 +14525,15 @@
       </c>
       <c r="B43" s="7">
         <f>AprilRaw!B43</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C43" s="7">
         <f>AprilRaw!C43</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D43" s="7">
         <f>AprilRaw!D43</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14542,15 +14542,15 @@
       </c>
       <c r="B44" s="2">
         <f>AprilRaw!B44</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2">
         <f>AprilRaw!C44</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2">
         <f>AprilRaw!D44</f>
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14559,15 +14559,15 @@
       </c>
       <c r="B45" s="3">
         <f>AprilRaw!B45</f>
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="C45" s="3">
         <f>AprilRaw!C45</f>
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="D45" s="3">
         <f>AprilRaw!D45</f>
-        <v>0</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14576,15 +14576,15 @@
       </c>
       <c r="B46" s="2">
         <f>AprilRaw!B46</f>
-        <v>0</v>
+        <v>2435</v>
       </c>
       <c r="C46" s="2">
         <f>AprilRaw!C46</f>
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="D46" s="2">
         <f>AprilRaw!D46</f>
-        <v>0</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14593,15 +14593,15 @@
       </c>
       <c r="B47" s="3">
         <f>AprilRaw!B47</f>
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="C47" s="3">
         <f>AprilRaw!C47</f>
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D47" s="3">
         <f>AprilRaw!D47</f>
-        <v>0</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14610,15 +14610,15 @@
       </c>
       <c r="B48" s="2">
         <f>AprilRaw!B48</f>
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="C48" s="2">
         <f>AprilRaw!C48</f>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="D48" s="2">
         <f>AprilRaw!D48</f>
-        <v>0</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14627,15 +14627,15 @@
       </c>
       <c r="B49" s="3">
         <f>AprilRaw!B49</f>
-        <v>0</v>
+        <v>2627</v>
       </c>
       <c r="C49" s="3">
         <f>AprilRaw!C49</f>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="D49" s="3">
         <f>AprilRaw!D49</f>
-        <v>0</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14644,15 +14644,15 @@
       </c>
       <c r="B50" s="2">
         <f>AprilRaw!B50</f>
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="C50" s="2">
         <f>AprilRaw!C50</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D50" s="2">
         <f>AprilRaw!D50</f>
-        <v>0</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14661,15 +14661,15 @@
       </c>
       <c r="B51" s="3">
         <f>AprilRaw!B51</f>
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="C51" s="3">
         <f>AprilRaw!C51</f>
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D51" s="3">
         <f>AprilRaw!D51</f>
-        <v>0</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14678,15 +14678,15 @@
       </c>
       <c r="B52" s="2">
         <f>AprilRaw!B52</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C52" s="2">
         <f>AprilRaw!C52</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D52" s="2">
         <f>AprilRaw!D52</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14695,15 +14695,15 @@
       </c>
       <c r="B53" s="3">
         <f>AprilRaw!B53</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C53" s="3">
         <f>AprilRaw!C53</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3">
         <f>AprilRaw!D53</f>
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14712,15 +14712,15 @@
       </c>
       <c r="B54" s="2">
         <f>AprilRaw!B54</f>
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2">
         <f>AprilRaw!C54</f>
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="D54" s="2">
         <f>AprilRaw!D54</f>
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14729,15 +14729,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14746,15 +14746,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>0</v>
+        <v>2781</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>0</v>
+        <v>2886</v>
       </c>
     </row>
   </sheetData>
@@ -14766,12 +14766,748 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8F93A-FD16-4201-B60D-E1607F24DB6B}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4067</v>
+      </c>
+      <c r="C2">
+        <v>1390</v>
+      </c>
+      <c r="D2">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2599</v>
+      </c>
+      <c r="C3">
+        <v>524</v>
+      </c>
+      <c r="D3">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7350</v>
+      </c>
+      <c r="C4">
+        <v>1129</v>
+      </c>
+      <c r="D4">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4809</v>
+      </c>
+      <c r="C6">
+        <v>1132</v>
+      </c>
+      <c r="D6">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>437</v>
+      </c>
+      <c r="C7">
+        <v>211</v>
+      </c>
+      <c r="D7">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>419</v>
+      </c>
+      <c r="C8">
+        <v>117</v>
+      </c>
+      <c r="D8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>144</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>461</v>
+      </c>
+      <c r="C14">
+        <v>254</v>
+      </c>
+      <c r="D14">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>301</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>253</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1475</v>
+      </c>
+      <c r="C17">
+        <v>620</v>
+      </c>
+      <c r="D17">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1575</v>
+      </c>
+      <c r="C19">
+        <v>557</v>
+      </c>
+      <c r="D19">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1680</v>
+      </c>
+      <c r="C21">
+        <v>507</v>
+      </c>
+      <c r="D21">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>198</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2004</v>
+      </c>
+      <c r="C23">
+        <v>616</v>
+      </c>
+      <c r="D23">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8467</v>
+      </c>
+      <c r="C24">
+        <v>1710</v>
+      </c>
+      <c r="D24">
+        <v>10177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>563</v>
+      </c>
+      <c r="C25">
+        <v>203</v>
+      </c>
+      <c r="D25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>253</v>
+      </c>
+      <c r="C27">
+        <v>201</v>
+      </c>
+      <c r="D27">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>255</v>
+      </c>
+      <c r="C28">
+        <v>94</v>
+      </c>
+      <c r="D28">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1430</v>
+      </c>
+      <c r="C29">
+        <v>571</v>
+      </c>
+      <c r="D29">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>268</v>
+      </c>
+      <c r="C31">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1277</v>
+      </c>
+      <c r="C32">
+        <v>371</v>
+      </c>
+      <c r="D32">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>858</v>
+      </c>
+      <c r="C33">
+        <v>443</v>
+      </c>
+      <c r="D33">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>514</v>
+      </c>
+      <c r="C34">
+        <v>193</v>
+      </c>
+      <c r="D34">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5769</v>
+      </c>
+      <c r="C35">
+        <v>787</v>
+      </c>
+      <c r="D35">
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>685</v>
+      </c>
+      <c r="C36">
+        <v>172</v>
+      </c>
+      <c r="D36">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3134</v>
+      </c>
+      <c r="C37">
+        <v>485</v>
+      </c>
+      <c r="D37">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>172</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>384</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2224</v>
+      </c>
+      <c r="C41">
+        <v>72</v>
+      </c>
+      <c r="D41">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>142</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>343</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1364</v>
+      </c>
+      <c r="C45">
+        <v>606</v>
+      </c>
+      <c r="D45">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2435</v>
+      </c>
+      <c r="C46">
+        <v>1122</v>
+      </c>
+      <c r="D46">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1478</v>
+      </c>
+      <c r="C47">
+        <v>233</v>
+      </c>
+      <c r="D47">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>889</v>
+      </c>
+      <c r="C48">
+        <v>658</v>
+      </c>
+      <c r="D48">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2627</v>
+      </c>
+      <c r="C49">
+        <v>614</v>
+      </c>
+      <c r="D49">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>483</v>
+      </c>
+      <c r="C50">
+        <v>163</v>
+      </c>
+      <c r="D50">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>881</v>
+      </c>
+      <c r="C51">
+        <v>371</v>
+      </c>
+      <c r="D51">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>87</v>
+      </c>
+      <c r="C52">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>174</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>361</v>
+      </c>
+      <c r="C54">
+        <v>365</v>
+      </c>
+      <c r="D54">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A51F1-142A-468D-84F5-F7F58647BE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202EB81-132F-4783-86F6-44274C870B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" activeTab="8" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -717,7 +717,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight" activeCell="A19" sqref="A19"/>
@@ -1689,12 +1689,748 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284CB9D0-7A01-4B30-8E43-182276E1F8BB}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4067</v>
+      </c>
+      <c r="C2">
+        <v>1390</v>
+      </c>
+      <c r="D2">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2599</v>
+      </c>
+      <c r="C3">
+        <v>524</v>
+      </c>
+      <c r="D3">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7350</v>
+      </c>
+      <c r="C4">
+        <v>1129</v>
+      </c>
+      <c r="D4">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4809</v>
+      </c>
+      <c r="C6">
+        <v>1132</v>
+      </c>
+      <c r="D6">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>437</v>
+      </c>
+      <c r="C7">
+        <v>211</v>
+      </c>
+      <c r="D7">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>419</v>
+      </c>
+      <c r="C8">
+        <v>117</v>
+      </c>
+      <c r="D8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>144</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>461</v>
+      </c>
+      <c r="C14">
+        <v>254</v>
+      </c>
+      <c r="D14">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>301</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>253</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1475</v>
+      </c>
+      <c r="C17">
+        <v>620</v>
+      </c>
+      <c r="D17">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1575</v>
+      </c>
+      <c r="C19">
+        <v>557</v>
+      </c>
+      <c r="D19">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1680</v>
+      </c>
+      <c r="C21">
+        <v>507</v>
+      </c>
+      <c r="D21">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>198</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2004</v>
+      </c>
+      <c r="C23">
+        <v>616</v>
+      </c>
+      <c r="D23">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8467</v>
+      </c>
+      <c r="C24">
+        <v>1710</v>
+      </c>
+      <c r="D24">
+        <v>10177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>563</v>
+      </c>
+      <c r="C25">
+        <v>203</v>
+      </c>
+      <c r="D25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>253</v>
+      </c>
+      <c r="C27">
+        <v>201</v>
+      </c>
+      <c r="D27">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>255</v>
+      </c>
+      <c r="C28">
+        <v>94</v>
+      </c>
+      <c r="D28">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1430</v>
+      </c>
+      <c r="C29">
+        <v>571</v>
+      </c>
+      <c r="D29">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>268</v>
+      </c>
+      <c r="C31">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1277</v>
+      </c>
+      <c r="C32">
+        <v>371</v>
+      </c>
+      <c r="D32">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>858</v>
+      </c>
+      <c r="C33">
+        <v>443</v>
+      </c>
+      <c r="D33">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>514</v>
+      </c>
+      <c r="C34">
+        <v>193</v>
+      </c>
+      <c r="D34">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5769</v>
+      </c>
+      <c r="C35">
+        <v>787</v>
+      </c>
+      <c r="D35">
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>685</v>
+      </c>
+      <c r="C36">
+        <v>172</v>
+      </c>
+      <c r="D36">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3134</v>
+      </c>
+      <c r="C37">
+        <v>485</v>
+      </c>
+      <c r="D37">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>172</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>384</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2224</v>
+      </c>
+      <c r="C41">
+        <v>72</v>
+      </c>
+      <c r="D41">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>142</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>343</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1364</v>
+      </c>
+      <c r="C45">
+        <v>606</v>
+      </c>
+      <c r="D45">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2435</v>
+      </c>
+      <c r="C46">
+        <v>1122</v>
+      </c>
+      <c r="D46">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1478</v>
+      </c>
+      <c r="C47">
+        <v>233</v>
+      </c>
+      <c r="D47">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>889</v>
+      </c>
+      <c r="C48">
+        <v>658</v>
+      </c>
+      <c r="D48">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2627</v>
+      </c>
+      <c r="C49">
+        <v>614</v>
+      </c>
+      <c r="D49">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>483</v>
+      </c>
+      <c r="C50">
+        <v>163</v>
+      </c>
+      <c r="D50">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>881</v>
+      </c>
+      <c r="C51">
+        <v>371</v>
+      </c>
+      <c r="D51">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>87</v>
+      </c>
+      <c r="C52">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>174</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>361</v>
+      </c>
+      <c r="C54">
+        <v>365</v>
+      </c>
+      <c r="D54">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9383,15 +10119,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>15850</v>
+        <v>19917</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>6107</v>
+        <v>7497</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>21957</v>
+        <v>27414</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9400,15 +10136,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>10329</v>
+        <v>12928</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>2301</v>
+        <v>2825</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>12630</v>
+        <v>15753</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9417,15 +10153,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>29038</v>
+        <v>36388</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>4380</v>
+        <v>5509</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>33418</v>
+        <v>41897</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9434,15 +10170,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>350</v>
+        <v>438</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>459</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9451,15 +10187,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>18181</v>
+        <v>22990</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>4202</v>
+        <v>5334</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>22383</v>
+        <v>28324</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9468,15 +10204,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1845</v>
+        <v>2282</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>844</v>
+        <v>1055</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>2689</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9485,15 +10221,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>2065</v>
+        <v>2484</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>650</v>
+        <v>767</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>2715</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9502,15 +10238,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>914</v>
+        <v>1134</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>1086</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9519,7 +10255,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -9527,7 +10263,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9553,15 +10289,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>526</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9570,15 +10306,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>740</v>
+        <v>884</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>1024</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9587,15 +10323,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1882</v>
+        <v>2343</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>734</v>
+        <v>988</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>2616</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9604,15 +10340,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1005</v>
+        <v>1306</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>1210</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9621,15 +10357,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>889</v>
+        <v>1142</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>1115</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9638,15 +10374,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>5572</v>
+        <v>7047</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>2441</v>
+        <v>3061</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>8013</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9655,15 +10391,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>486</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9672,15 +10408,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>6089</v>
+        <v>7664</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>1806</v>
+        <v>2363</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>7895</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9689,15 +10425,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9706,15 +10442,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>6464</v>
+        <v>8144</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>1956</v>
+        <v>2463</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>8420</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9723,15 +10459,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>810</v>
+        <v>1008</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>1049</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9740,15 +10476,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>7844</v>
+        <v>9848</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>2509</v>
+        <v>3125</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>10353</v>
+        <v>12973</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9757,15 +10493,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>33536</v>
+        <v>42003</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>6110</v>
+        <v>7820</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>39646</v>
+        <v>49823</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9774,15 +10510,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>2082</v>
+        <v>2645</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>654</v>
+        <v>857</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>2736</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9808,15 +10544,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1050</v>
+        <v>1303</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>748</v>
+        <v>949</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>1798</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9825,15 +10561,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>907</v>
+        <v>1162</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>462</v>
+        <v>556</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>1369</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9842,15 +10578,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>6078</v>
+        <v>7508</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>2930</v>
+        <v>3501</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>9008</v>
+        <v>11009</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9859,15 +10595,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>194</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9876,15 +10612,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>1097</v>
+        <v>1365</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>1322</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9893,15 +10629,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>4780</v>
+        <v>6057</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>1527</v>
+        <v>1898</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>6307</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9910,15 +10646,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>3673</v>
+        <v>4531</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>1670</v>
+        <v>2113</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>5343</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9927,15 +10663,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>2023</v>
+        <v>2537</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>761</v>
+        <v>954</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>2784</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9944,15 +10680,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>23740</v>
+        <v>29509</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>3335</v>
+        <v>4122</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>27075</v>
+        <v>33631</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9961,15 +10697,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>3002</v>
+        <v>3687</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>643</v>
+        <v>815</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>3645</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9978,15 +10714,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>11452</v>
+        <v>14586</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>1993</v>
+        <v>2478</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>13445</v>
+        <v>17064</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9995,15 +10731,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>543</v>
+        <v>715</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>617</v>
+        <v>805</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10012,15 +10748,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>495</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10029,15 +10765,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>1232</v>
+        <v>1616</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>1345</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10046,15 +10782,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>8015</v>
+        <v>10239</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>366</v>
+        <v>438</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>8381</v>
+        <v>10677</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10063,15 +10799,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10080,15 +10816,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>562</v>
+        <v>704</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>621</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10097,15 +10833,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>1277</v>
+        <v>1620</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>1479</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10114,15 +10850,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>4999</v>
+        <v>6363</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>2296</v>
+        <v>2902</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>7295</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10131,15 +10867,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>9833</v>
+        <v>12268</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>4286</v>
+        <v>5408</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>14119</v>
+        <v>17676</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10148,15 +10884,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>5587</v>
+        <v>7065</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>892</v>
+        <v>1125</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>6479</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10165,15 +10901,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>4015</v>
+        <v>4904</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>2793</v>
+        <v>3451</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>6808</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10182,15 +10918,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>11137</v>
+        <v>13764</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>3099</v>
+        <v>3713</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>14236</v>
+        <v>17477</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10199,15 +10935,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>1666</v>
+        <v>2149</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>799</v>
+        <v>962</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>2465</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10216,15 +10952,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>3878</v>
+        <v>4759</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1550</v>
+        <v>1921</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>5428</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10233,15 +10969,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>422</v>
+        <v>509</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>735</v>
+        <v>898</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>1157</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10250,15 +10986,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>684</v>
+        <v>858</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>818</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10267,15 +11003,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>1099</v>
+        <v>1460</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>1447</v>
+        <v>1812</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>2546</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10284,15 +11020,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>4022</v>
+        <v>5003</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>1354</v>
+        <v>1761</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>5376</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10301,15 +11037,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>9901</v>
+        <v>12682</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>569</v>
+        <v>674</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>10470</v>
+        <v>13356</v>
       </c>
     </row>
   </sheetData>
@@ -15517,11 +16253,11 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15550,15 +16286,15 @@
       </c>
       <c r="B2" s="2">
         <f>MayRaw!B2</f>
-        <v>0</v>
+        <v>4067</v>
       </c>
       <c r="C2" s="2">
         <f>MayRaw!C2</f>
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="D2" s="2">
         <f>MayRaw!D2</f>
-        <v>0</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15567,15 +16303,15 @@
       </c>
       <c r="B3" s="3">
         <f>MayRaw!B3</f>
-        <v>0</v>
+        <v>2599</v>
       </c>
       <c r="C3" s="3">
         <f>MayRaw!C3</f>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D3" s="3">
         <f>MayRaw!D3</f>
-        <v>0</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15584,15 +16320,15 @@
       </c>
       <c r="B4" s="2">
         <f>MayRaw!B4</f>
-        <v>0</v>
+        <v>7350</v>
       </c>
       <c r="C4" s="2">
         <f>MayRaw!C4</f>
-        <v>0</v>
+        <v>1129</v>
       </c>
       <c r="D4" s="2">
         <f>MayRaw!D4</f>
-        <v>0</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15601,15 +16337,15 @@
       </c>
       <c r="B5" s="3">
         <f>MayRaw!B5</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3">
         <f>MayRaw!C5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3">
         <f>MayRaw!D5</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15618,15 +16354,15 @@
       </c>
       <c r="B6" s="2">
         <f>MayRaw!B6</f>
-        <v>0</v>
+        <v>4809</v>
       </c>
       <c r="C6" s="2">
         <f>MayRaw!C6</f>
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="D6" s="2">
         <f>MayRaw!D6</f>
-        <v>0</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15635,15 +16371,15 @@
       </c>
       <c r="B7" s="3">
         <f>MayRaw!B7</f>
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="C7" s="3">
         <f>MayRaw!C7</f>
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D7" s="3">
         <f>MayRaw!D7</f>
-        <v>0</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15652,15 +16388,15 @@
       </c>
       <c r="B8" s="2">
         <f>MayRaw!B8</f>
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="C8" s="2">
         <f>MayRaw!C8</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2">
         <f>MayRaw!D8</f>
-        <v>0</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15669,15 +16405,15 @@
       </c>
       <c r="B9" s="3">
         <f>MayRaw!B9</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="C9" s="3">
         <f>MayRaw!C9</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3">
         <f>MayRaw!D9</f>
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15686,7 +16422,7 @@
       </c>
       <c r="B10" s="2">
         <f>MayRaw!B10</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <f>MayRaw!C10</f>
@@ -15694,7 +16430,7 @@
       </c>
       <c r="D10" s="2">
         <f>MayRaw!D10</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15720,15 +16456,15 @@
       </c>
       <c r="B12" s="5">
         <f>MayRaw!B12</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5">
         <f>MayRaw!C12</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5">
         <f>MayRaw!D12</f>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15737,15 +16473,15 @@
       </c>
       <c r="B13" s="4">
         <f>MayRaw!B13</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4">
         <f>MayRaw!C13</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4">
         <f>MayRaw!D13</f>
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15754,15 +16490,15 @@
       </c>
       <c r="B14" s="5">
         <f>MayRaw!B14</f>
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="C14" s="5">
         <f>MayRaw!C14</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="D14" s="5">
         <f>MayRaw!D14</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15771,15 +16507,15 @@
       </c>
       <c r="B15" s="4">
         <f>MayRaw!B15</f>
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="C15" s="4">
         <f>MayRaw!C15</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4">
         <f>MayRaw!D15</f>
-        <v>0</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15788,15 +16524,15 @@
       </c>
       <c r="B16" s="2">
         <f>MayRaw!B16</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C16" s="2">
         <f>MayRaw!C16</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2">
         <f>MayRaw!D16</f>
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15805,15 +16541,15 @@
       </c>
       <c r="B17" s="3">
         <f>MayRaw!B17</f>
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="C17" s="3">
         <f>MayRaw!C17</f>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="D17" s="3">
         <f>MayRaw!D17</f>
-        <v>0</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15822,15 +16558,15 @@
       </c>
       <c r="B18" s="2">
         <f>MayRaw!B18</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2">
         <f>MayRaw!C18</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2">
         <f>MayRaw!D18</f>
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15839,15 +16575,15 @@
       </c>
       <c r="B19" s="3">
         <f>MayRaw!B19</f>
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="C19" s="3">
         <f>MayRaw!C19</f>
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="D19" s="3">
         <f>MayRaw!D19</f>
-        <v>0</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15856,15 +16592,15 @@
       </c>
       <c r="B20" s="2">
         <f>MayRaw!B20</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <f>MayRaw!C20</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <f>MayRaw!D20</f>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15873,15 +16609,15 @@
       </c>
       <c r="B21" s="3">
         <f>MayRaw!B21</f>
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="C21" s="3">
         <f>MayRaw!C21</f>
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="D21" s="3">
         <f>MayRaw!D21</f>
-        <v>0</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15890,15 +16626,15 @@
       </c>
       <c r="B22" s="2">
         <f>MayRaw!B22</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2">
         <f>MayRaw!C22</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
         <f>MayRaw!D22</f>
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15907,15 +16643,15 @@
       </c>
       <c r="B23" s="3">
         <f>MayRaw!B23</f>
-        <v>0</v>
+        <v>2004</v>
       </c>
       <c r="C23" s="3">
         <f>MayRaw!C23</f>
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="D23" s="3">
         <f>MayRaw!D23</f>
-        <v>0</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15924,15 +16660,15 @@
       </c>
       <c r="B24" s="2">
         <f>MayRaw!B24</f>
-        <v>0</v>
+        <v>8467</v>
       </c>
       <c r="C24" s="2">
         <f>MayRaw!C24</f>
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="D24" s="2">
         <f>MayRaw!D24</f>
-        <v>0</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15941,15 +16677,15 @@
       </c>
       <c r="B25" s="3">
         <f>MayRaw!B25</f>
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="C25" s="3">
         <f>MayRaw!C25</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D25" s="3">
         <f>MayRaw!D25</f>
-        <v>0</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15975,15 +16711,15 @@
       </c>
       <c r="B27" s="3">
         <f>MayRaw!B27</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C27" s="3">
         <f>MayRaw!C27</f>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D27" s="3">
         <f>MayRaw!D27</f>
-        <v>0</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15992,15 +16728,15 @@
       </c>
       <c r="B28" s="2">
         <f>MayRaw!B28</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2">
         <f>MayRaw!C28</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2">
         <f>MayRaw!D28</f>
-        <v>0</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16009,15 +16745,15 @@
       </c>
       <c r="B29" s="3">
         <f>MayRaw!B29</f>
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="C29" s="3">
         <f>MayRaw!C29</f>
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="D29" s="3">
         <f>MayRaw!D29</f>
-        <v>0</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16026,15 +16762,15 @@
       </c>
       <c r="B30" s="2">
         <f>MayRaw!B30</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
         <f>MayRaw!C30</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <f>MayRaw!D30</f>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16043,15 +16779,15 @@
       </c>
       <c r="B31" s="3">
         <f>MayRaw!B31</f>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="C31" s="3">
         <f>MayRaw!C31</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3">
         <f>MayRaw!D31</f>
-        <v>0</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16060,15 +16796,15 @@
       </c>
       <c r="B32" s="2">
         <f>MayRaw!B32</f>
-        <v>0</v>
+        <v>1277</v>
       </c>
       <c r="C32" s="2">
         <f>MayRaw!C32</f>
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D32" s="2">
         <f>MayRaw!D32</f>
-        <v>0</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16077,15 +16813,15 @@
       </c>
       <c r="B33" s="3">
         <f>MayRaw!B33</f>
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="C33" s="3">
         <f>MayRaw!C33</f>
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="D33" s="3">
         <f>MayRaw!D33</f>
-        <v>0</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16094,15 +16830,15 @@
       </c>
       <c r="B34" s="2">
         <f>MayRaw!B34</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="C34" s="2">
         <f>MayRaw!C34</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D34" s="2">
         <f>MayRaw!D34</f>
-        <v>0</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16111,15 +16847,15 @@
       </c>
       <c r="B35" s="3">
         <f>MayRaw!B35</f>
-        <v>0</v>
+        <v>5769</v>
       </c>
       <c r="C35" s="3">
         <f>MayRaw!C35</f>
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="D35" s="3">
         <f>MayRaw!D35</f>
-        <v>0</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16128,15 +16864,15 @@
       </c>
       <c r="B36" s="2">
         <f>MayRaw!B36</f>
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="C36" s="2">
         <f>MayRaw!C36</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2">
         <f>MayRaw!D36</f>
-        <v>0</v>
+        <v>857</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16145,15 +16881,15 @@
       </c>
       <c r="B37" s="3">
         <f>MayRaw!B37</f>
-        <v>0</v>
+        <v>3134</v>
       </c>
       <c r="C37" s="3">
         <f>MayRaw!C37</f>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="D37" s="3">
         <f>MayRaw!D37</f>
-        <v>0</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16162,15 +16898,15 @@
       </c>
       <c r="B38" s="2">
         <f>MayRaw!B38</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C38" s="2">
         <f>MayRaw!C38</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
         <f>MayRaw!D38</f>
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16179,15 +16915,15 @@
       </c>
       <c r="B39" s="3">
         <f>MayRaw!B39</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C39" s="3">
         <f>MayRaw!C39</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3">
         <f>MayRaw!D39</f>
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16196,15 +16932,15 @@
       </c>
       <c r="B40" s="6">
         <f>MayRaw!B40</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="C40" s="6">
         <f>MayRaw!C40</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D40" s="6">
         <f>MayRaw!D40</f>
-        <v>0</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16213,15 +16949,15 @@
       </c>
       <c r="B41" s="7">
         <f>MayRaw!B41</f>
-        <v>0</v>
+        <v>2224</v>
       </c>
       <c r="C41" s="7">
         <f>MayRaw!C41</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D41" s="7">
         <f>MayRaw!D41</f>
-        <v>0</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16230,15 +16966,15 @@
       </c>
       <c r="B42" s="6">
         <f>MayRaw!B42</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C42" s="6">
         <f>MayRaw!C42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42" s="6">
         <f>MayRaw!D42</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16247,15 +16983,15 @@
       </c>
       <c r="B43" s="7">
         <f>MayRaw!B43</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C43" s="7">
         <f>MayRaw!C43</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D43" s="7">
         <f>MayRaw!D43</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16264,15 +17000,15 @@
       </c>
       <c r="B44" s="2">
         <f>MayRaw!B44</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2">
         <f>MayRaw!C44</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2">
         <f>MayRaw!D44</f>
-        <v>0</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16281,15 +17017,15 @@
       </c>
       <c r="B45" s="3">
         <f>MayRaw!B45</f>
-        <v>0</v>
+        <v>1364</v>
       </c>
       <c r="C45" s="3">
         <f>MayRaw!C45</f>
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="D45" s="3">
         <f>MayRaw!D45</f>
-        <v>0</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16298,15 +17034,15 @@
       </c>
       <c r="B46" s="2">
         <f>MayRaw!B46</f>
-        <v>0</v>
+        <v>2435</v>
       </c>
       <c r="C46" s="2">
         <f>MayRaw!C46</f>
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="D46" s="2">
         <f>MayRaw!D46</f>
-        <v>0</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16315,15 +17051,15 @@
       </c>
       <c r="B47" s="3">
         <f>MayRaw!B47</f>
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="C47" s="3">
         <f>MayRaw!C47</f>
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D47" s="3">
         <f>MayRaw!D47</f>
-        <v>0</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16332,15 +17068,15 @@
       </c>
       <c r="B48" s="2">
         <f>MayRaw!B48</f>
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="C48" s="2">
         <f>MayRaw!C48</f>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="D48" s="2">
         <f>MayRaw!D48</f>
-        <v>0</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16349,15 +17085,15 @@
       </c>
       <c r="B49" s="3">
         <f>MayRaw!B49</f>
-        <v>0</v>
+        <v>2627</v>
       </c>
       <c r="C49" s="3">
         <f>MayRaw!C49</f>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="D49" s="3">
         <f>MayRaw!D49</f>
-        <v>0</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16366,15 +17102,15 @@
       </c>
       <c r="B50" s="2">
         <f>MayRaw!B50</f>
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="C50" s="2">
         <f>MayRaw!C50</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D50" s="2">
         <f>MayRaw!D50</f>
-        <v>0</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16383,15 +17119,15 @@
       </c>
       <c r="B51" s="3">
         <f>MayRaw!B51</f>
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="C51" s="3">
         <f>MayRaw!C51</f>
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D51" s="3">
         <f>MayRaw!D51</f>
-        <v>0</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16400,15 +17136,15 @@
       </c>
       <c r="B52" s="2">
         <f>MayRaw!B52</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C52" s="2">
         <f>MayRaw!C52</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D52" s="2">
         <f>MayRaw!D52</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16417,15 +17153,15 @@
       </c>
       <c r="B53" s="3">
         <f>MayRaw!B53</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C53" s="3">
         <f>MayRaw!C53</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3">
         <f>MayRaw!D53</f>
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16434,15 +17170,15 @@
       </c>
       <c r="B54" s="2">
         <f>MayRaw!B54</f>
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2">
         <f>MayRaw!C54</f>
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="D54" s="2">
         <f>MayRaw!D54</f>
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16451,15 +17187,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16468,15 +17204,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>0</v>
+        <v>2781</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>0</v>
+        <v>2886</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202EB81-132F-4783-86F6-44274C870B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A134E-06BE-4F3A-BB8B-0B8E1678CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" activeTab="8" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -717,7 +717,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight" activeCell="A19" sqref="A19"/>
@@ -2473,15 +2473,15 @@
       </c>
       <c r="B2" s="2">
         <f>JuneRaw!B2</f>
-        <v>0</v>
+        <v>4858</v>
       </c>
       <c r="C2" s="2">
         <f>JuneRaw!C2</f>
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="D2" s="2">
         <f>JuneRaw!D2</f>
-        <v>0</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,15 +2490,15 @@
       </c>
       <c r="B3" s="3">
         <f>JuneRaw!B3</f>
-        <v>0</v>
+        <v>3272</v>
       </c>
       <c r="C3" s="3">
         <f>JuneRaw!C3</f>
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="D3" s="3">
         <f>JuneRaw!D3</f>
-        <v>0</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B4" s="2">
         <f>JuneRaw!B4</f>
-        <v>0</v>
+        <v>10130</v>
       </c>
       <c r="C4" s="2">
         <f>JuneRaw!C4</f>
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="D4" s="2">
         <f>JuneRaw!D4</f>
-        <v>0</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2524,15 +2524,15 @@
       </c>
       <c r="B5" s="3">
         <f>JuneRaw!B5</f>
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="C5" s="3">
         <f>JuneRaw!C5</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3">
         <f>JuneRaw!D5</f>
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2541,15 +2541,15 @@
       </c>
       <c r="B6" s="2">
         <f>JuneRaw!B6</f>
-        <v>0</v>
+        <v>6170</v>
       </c>
       <c r="C6" s="2">
         <f>JuneRaw!C6</f>
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="2">
         <f>JuneRaw!D6</f>
-        <v>0</v>
+        <v>7172</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2558,15 +2558,15 @@
       </c>
       <c r="B7" s="3">
         <f>JuneRaw!B7</f>
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="C7" s="3">
         <f>JuneRaw!C7</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="D7" s="3">
         <f>JuneRaw!D7</f>
-        <v>0</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2575,15 +2575,15 @@
       </c>
       <c r="B8" s="2">
         <f>JuneRaw!B8</f>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="C8" s="2">
         <f>JuneRaw!C8</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2">
         <f>JuneRaw!D8</f>
-        <v>0</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2592,15 +2592,15 @@
       </c>
       <c r="B9" s="3">
         <f>JuneRaw!B9</f>
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="C9" s="3">
         <f>JuneRaw!C9</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3">
         <f>JuneRaw!D9</f>
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B10" s="2">
         <f>JuneRaw!B10</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2">
         <f>JuneRaw!C10</f>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="D10" s="2">
         <f>JuneRaw!D10</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,15 +2643,15 @@
       </c>
       <c r="B12" s="5">
         <f>JuneRaw!B12</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5">
         <f>JuneRaw!C12</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5">
         <f>JuneRaw!D12</f>
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2660,15 +2660,15 @@
       </c>
       <c r="B13" s="4">
         <f>JuneRaw!B13</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C13" s="4">
         <f>JuneRaw!C13</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4">
         <f>JuneRaw!D13</f>
-        <v>0</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2677,15 +2677,15 @@
       </c>
       <c r="B14" s="5">
         <f>JuneRaw!B14</f>
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="C14" s="5">
         <f>JuneRaw!C14</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D14" s="5">
         <f>JuneRaw!D14</f>
-        <v>0</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2694,15 +2694,15 @@
       </c>
       <c r="B15" s="4">
         <f>JuneRaw!B15</f>
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="C15" s="4">
         <f>JuneRaw!C15</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4">
         <f>JuneRaw!D15</f>
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,15 +2711,15 @@
       </c>
       <c r="B16" s="2">
         <f>JuneRaw!B16</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C16" s="2">
         <f>JuneRaw!C16</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2">
         <f>JuneRaw!D16</f>
-        <v>0</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2728,15 +2728,15 @@
       </c>
       <c r="B17" s="3">
         <f>JuneRaw!B17</f>
-        <v>0</v>
+        <v>1999</v>
       </c>
       <c r="C17" s="3">
         <f>JuneRaw!C17</f>
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="D17" s="3">
         <f>JuneRaw!D17</f>
-        <v>0</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,15 +2745,15 @@
       </c>
       <c r="B18" s="2">
         <f>JuneRaw!B18</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2">
         <f>JuneRaw!C18</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <f>JuneRaw!D18</f>
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2762,15 +2762,15 @@
       </c>
       <c r="B19" s="3">
         <f>JuneRaw!B19</f>
-        <v>0</v>
+        <v>2056</v>
       </c>
       <c r="C19" s="3">
         <f>JuneRaw!C19</f>
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="D19" s="3">
         <f>JuneRaw!D19</f>
-        <v>0</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,15 +2779,15 @@
       </c>
       <c r="B20" s="2">
         <f>JuneRaw!B20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <f>JuneRaw!C20</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <f>JuneRaw!D20</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,15 +2796,15 @@
       </c>
       <c r="B21" s="3">
         <f>JuneRaw!B21</f>
-        <v>0</v>
+        <v>1997</v>
       </c>
       <c r="C21" s="3">
         <f>JuneRaw!C21</f>
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="D21" s="3">
         <f>JuneRaw!D21</f>
-        <v>0</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B22" s="2">
         <f>JuneRaw!B22</f>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="C22" s="2">
         <f>JuneRaw!C22</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2">
         <f>JuneRaw!D22</f>
-        <v>0</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,15 +2830,15 @@
       </c>
       <c r="B23" s="3">
         <f>JuneRaw!B23</f>
-        <v>0</v>
+        <v>2373</v>
       </c>
       <c r="C23" s="3">
         <f>JuneRaw!C23</f>
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="D23" s="3">
         <f>JuneRaw!D23</f>
-        <v>0</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2847,15 +2847,15 @@
       </c>
       <c r="B24" s="2">
         <f>JuneRaw!B24</f>
-        <v>0</v>
+        <v>9625</v>
       </c>
       <c r="C24" s="2">
         <f>JuneRaw!C24</f>
-        <v>0</v>
+        <v>1363</v>
       </c>
       <c r="D24" s="2">
         <f>JuneRaw!D24</f>
-        <v>0</v>
+        <v>10988</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,15 +2864,15 @@
       </c>
       <c r="B25" s="3">
         <f>JuneRaw!B25</f>
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="C25" s="3">
         <f>JuneRaw!C25</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D25" s="3">
         <f>JuneRaw!D25</f>
-        <v>0</v>
+        <v>910</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,15 +2898,15 @@
       </c>
       <c r="B27" s="3">
         <f>JuneRaw!B27</f>
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="C27" s="3">
         <f>JuneRaw!C27</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D27" s="3">
         <f>JuneRaw!D27</f>
-        <v>0</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,15 +2915,15 @@
       </c>
       <c r="B28" s="2">
         <f>JuneRaw!B28</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C28" s="2">
         <f>JuneRaw!C28</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D28" s="2">
         <f>JuneRaw!D28</f>
-        <v>0</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2932,15 +2932,15 @@
       </c>
       <c r="B29" s="3">
         <f>JuneRaw!B29</f>
-        <v>0</v>
+        <v>2616</v>
       </c>
       <c r="C29" s="3">
         <f>JuneRaw!C29</f>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="D29" s="3">
         <f>JuneRaw!D29</f>
-        <v>0</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2949,15 +2949,15 @@
       </c>
       <c r="B30" s="2">
         <f>JuneRaw!B30</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2">
         <f>JuneRaw!C30</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
         <f>JuneRaw!D30</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2966,15 +2966,15 @@
       </c>
       <c r="B31" s="3">
         <f>JuneRaw!B31</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="C31" s="3">
         <f>JuneRaw!C31</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D31" s="3">
         <f>JuneRaw!D31</f>
-        <v>0</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="B32" s="2">
         <f>JuneRaw!B32</f>
-        <v>0</v>
+        <v>1668</v>
       </c>
       <c r="C32" s="2">
         <f>JuneRaw!C32</f>
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="D32" s="2">
         <f>JuneRaw!D32</f>
-        <v>0</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,15 +3000,15 @@
       </c>
       <c r="B33" s="3">
         <f>JuneRaw!B33</f>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="C33" s="3">
         <f>JuneRaw!C33</f>
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="D33" s="3">
         <f>JuneRaw!D33</f>
-        <v>0</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3017,15 +3017,15 @@
       </c>
       <c r="B34" s="2">
         <f>JuneRaw!B34</f>
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="C34" s="2">
         <f>JuneRaw!C34</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D34" s="2">
         <f>JuneRaw!D34</f>
-        <v>0</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3034,15 +3034,15 @@
       </c>
       <c r="B35" s="3">
         <f>JuneRaw!B35</f>
-        <v>0</v>
+        <v>8778</v>
       </c>
       <c r="C35" s="3">
         <f>JuneRaw!C35</f>
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="D35" s="3">
         <f>JuneRaw!D35</f>
-        <v>0</v>
+        <v>9673</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,15 +3051,15 @@
       </c>
       <c r="B36" s="2">
         <f>JuneRaw!B36</f>
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="C36" s="2">
         <f>JuneRaw!C36</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D36" s="2">
         <f>JuneRaw!D36</f>
-        <v>0</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,15 +3068,15 @@
       </c>
       <c r="B37" s="3">
         <f>JuneRaw!B37</f>
-        <v>0</v>
+        <v>4122</v>
       </c>
       <c r="C37" s="3">
         <f>JuneRaw!C37</f>
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="D37" s="3">
         <f>JuneRaw!D37</f>
-        <v>0</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3085,15 +3085,15 @@
       </c>
       <c r="B38" s="2">
         <f>JuneRaw!B38</f>
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2">
         <f>JuneRaw!C38</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <f>JuneRaw!D38</f>
-        <v>0</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3102,15 +3102,15 @@
       </c>
       <c r="B39" s="3">
         <f>JuneRaw!B39</f>
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="C39" s="3">
         <f>JuneRaw!C39</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3">
         <f>JuneRaw!D39</f>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3187,15 +3187,15 @@
       </c>
       <c r="B44" s="2">
         <f>JuneRaw!B44</f>
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="C44" s="2">
         <f>JuneRaw!C44</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2">
         <f>JuneRaw!D44</f>
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3204,15 +3204,15 @@
       </c>
       <c r="B45" s="3">
         <f>JuneRaw!B45</f>
-        <v>0</v>
+        <v>1698</v>
       </c>
       <c r="C45" s="3">
         <f>JuneRaw!C45</f>
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="D45" s="3">
         <f>JuneRaw!D45</f>
-        <v>0</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3221,15 +3221,15 @@
       </c>
       <c r="B46" s="2">
         <f>JuneRaw!B46</f>
-        <v>0</v>
+        <v>4322</v>
       </c>
       <c r="C46" s="2">
         <f>JuneRaw!C46</f>
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="D46" s="2">
         <f>JuneRaw!D46</f>
-        <v>0</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3238,15 +3238,15 @@
       </c>
       <c r="B47" s="3">
         <f>JuneRaw!B47</f>
-        <v>0</v>
+        <v>2440</v>
       </c>
       <c r="C47" s="3">
         <f>JuneRaw!C47</f>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D47" s="3">
         <f>JuneRaw!D47</f>
-        <v>0</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,15 +3255,15 @@
       </c>
       <c r="B48" s="2">
         <f>JuneRaw!B48</f>
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="C48" s="2">
         <f>JuneRaw!C48</f>
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="D48" s="2">
         <f>JuneRaw!D48</f>
-        <v>0</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,15 +3272,15 @@
       </c>
       <c r="B49" s="3">
         <f>JuneRaw!B49</f>
-        <v>0</v>
+        <v>4201</v>
       </c>
       <c r="C49" s="3">
         <f>JuneRaw!C49</f>
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="D49" s="3">
         <f>JuneRaw!D49</f>
-        <v>0</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,15 +3289,15 @@
       </c>
       <c r="B50" s="2">
         <f>JuneRaw!B50</f>
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="C50" s="2">
         <f>JuneRaw!C50</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D50" s="2">
         <f>JuneRaw!D50</f>
-        <v>0</v>
+        <v>897</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3306,15 +3306,15 @@
       </c>
       <c r="B51" s="3">
         <f>JuneRaw!B51</f>
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="C51" s="3">
         <f>JuneRaw!C51</f>
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="D51" s="3">
         <f>JuneRaw!D51</f>
-        <v>0</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,15 +3323,15 @@
       </c>
       <c r="B52" s="2">
         <f>JuneRaw!B52</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C52" s="2">
         <f>JuneRaw!C52</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2">
         <f>JuneRaw!D52</f>
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3340,15 +3340,15 @@
       </c>
       <c r="B53" s="3">
         <f>JuneRaw!B53</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C53" s="3">
         <f>JuneRaw!C53</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D53" s="3">
         <f>JuneRaw!D53</f>
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3357,15 +3357,15 @@
       </c>
       <c r="B54" s="2">
         <f>JuneRaw!B54</f>
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="C54" s="2">
         <f>JuneRaw!C54</f>
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="D54" s="2">
         <f>JuneRaw!D54</f>
-        <v>0</v>
+        <v>839</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,15 +3374,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3411,12 +3411,712 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCCA3B6-BCDB-4F08-B4A5-E8BE75D95F50}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4858</v>
+      </c>
+      <c r="C2">
+        <v>1446</v>
+      </c>
+      <c r="D2">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3272</v>
+      </c>
+      <c r="C3">
+        <v>676</v>
+      </c>
+      <c r="D3">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10130</v>
+      </c>
+      <c r="C4">
+        <v>1258</v>
+      </c>
+      <c r="D4">
+        <v>11388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>378</v>
+      </c>
+      <c r="C5">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6170</v>
+      </c>
+      <c r="C6">
+        <v>1002</v>
+      </c>
+      <c r="D6">
+        <v>7172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>424</v>
+      </c>
+      <c r="C7">
+        <v>254</v>
+      </c>
+      <c r="D7">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>689</v>
+      </c>
+      <c r="C8">
+        <v>128</v>
+      </c>
+      <c r="D8">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>363</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>210</v>
+      </c>
+      <c r="C13">
+        <v>107</v>
+      </c>
+      <c r="D13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>469</v>
+      </c>
+      <c r="C14">
+        <v>160</v>
+      </c>
+      <c r="D14">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>341</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1999</v>
+      </c>
+      <c r="C17">
+        <v>591</v>
+      </c>
+      <c r="D17">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>158</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2056</v>
+      </c>
+      <c r="C19">
+        <v>341</v>
+      </c>
+      <c r="D19">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1997</v>
+      </c>
+      <c r="C21">
+        <v>531</v>
+      </c>
+      <c r="D21">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>485</v>
+      </c>
+      <c r="C22">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2373</v>
+      </c>
+      <c r="C23">
+        <v>536</v>
+      </c>
+      <c r="D23">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>9625</v>
+      </c>
+      <c r="C24">
+        <v>1363</v>
+      </c>
+      <c r="D24">
+        <v>10988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>766</v>
+      </c>
+      <c r="C25">
+        <v>144</v>
+      </c>
+      <c r="D25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>445</v>
+      </c>
+      <c r="C27">
+        <v>203</v>
+      </c>
+      <c r="D27">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>360</v>
+      </c>
+      <c r="C28">
+        <v>192</v>
+      </c>
+      <c r="D28">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2616</v>
+      </c>
+      <c r="C29">
+        <v>565</v>
+      </c>
+      <c r="D29">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>364</v>
+      </c>
+      <c r="C31">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1668</v>
+      </c>
+      <c r="C32">
+        <v>424</v>
+      </c>
+      <c r="D32">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1392</v>
+      </c>
+      <c r="C33">
+        <v>414</v>
+      </c>
+      <c r="D33">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>656</v>
+      </c>
+      <c r="C34">
+        <v>180</v>
+      </c>
+      <c r="D34">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8778</v>
+      </c>
+      <c r="C35">
+        <v>895</v>
+      </c>
+      <c r="D35">
+        <v>9673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>895</v>
+      </c>
+      <c r="C36">
+        <v>155</v>
+      </c>
+      <c r="D36">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4122</v>
+      </c>
+      <c r="C37">
+        <v>596</v>
+      </c>
+      <c r="D37">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>344</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>281</v>
+      </c>
+      <c r="C39">
+        <v>104</v>
+      </c>
+      <c r="D39">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>657</v>
+      </c>
+      <c r="C44">
+        <v>89</v>
+      </c>
+      <c r="D44">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1698</v>
+      </c>
+      <c r="C45">
+        <v>478</v>
+      </c>
+      <c r="D45">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4322</v>
+      </c>
+      <c r="C46">
+        <v>1073</v>
+      </c>
+      <c r="D46">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2440</v>
+      </c>
+      <c r="C47">
+        <v>179</v>
+      </c>
+      <c r="D47">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>918</v>
+      </c>
+      <c r="C48">
+        <v>557</v>
+      </c>
+      <c r="D48">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>4201</v>
+      </c>
+      <c r="C49">
+        <v>887</v>
+      </c>
+      <c r="D49">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>707</v>
+      </c>
+      <c r="C50">
+        <v>190</v>
+      </c>
+      <c r="D50">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>976</v>
+      </c>
+      <c r="C51">
+        <v>297</v>
+      </c>
+      <c r="D51">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>165</v>
+      </c>
+      <c r="C52">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>194</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>436</v>
+      </c>
+      <c r="C54">
+        <v>403</v>
+      </c>
+      <c r="D54">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10119,15 +10819,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>19917</v>
+        <v>24775</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>7497</v>
+        <v>8943</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>27414</v>
+        <v>33718</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10136,15 +10836,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>12928</v>
+        <v>16200</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>2825</v>
+        <v>3501</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>15753</v>
+        <v>19701</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10153,15 +10853,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>36388</v>
+        <v>46518</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>5509</v>
+        <v>6767</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>41897</v>
+        <v>53285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10170,15 +10870,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>438</v>
+        <v>816</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>577</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10187,15 +10887,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>22990</v>
+        <v>29160</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>5334</v>
+        <v>6336</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>28324</v>
+        <v>35496</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10204,15 +10904,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2282</v>
+        <v>2706</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1055</v>
+        <v>1309</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>3337</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10221,15 +10921,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>2484</v>
+        <v>3173</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>767</v>
+        <v>895</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>3251</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10238,15 +10938,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>1134</v>
+        <v>1497</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>1352</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10255,7 +10955,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>270</v>
+        <v>388</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -10263,7 +10963,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10289,15 +10989,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>621</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10306,15 +11006,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>884</v>
+        <v>1094</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>361</v>
+        <v>468</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>1245</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10323,15 +11023,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>2343</v>
+        <v>2812</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>988</v>
+        <v>1148</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>3331</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10340,15 +11040,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1306</v>
+        <v>1647</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>1567</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10357,15 +11057,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>1142</v>
+        <v>1542</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>1434</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10374,15 +11074,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>7047</v>
+        <v>9046</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>3061</v>
+        <v>3652</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>10108</v>
+        <v>12698</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10391,15 +11091,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>341</v>
+        <v>499</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>635</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10408,15 +11108,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>7664</v>
+        <v>9720</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>2363</v>
+        <v>2704</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>10027</v>
+        <v>12424</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10425,15 +11125,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10442,15 +11142,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>8144</v>
+        <v>10141</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>2463</v>
+        <v>2994</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>10607</v>
+        <v>13135</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10459,15 +11159,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>1008</v>
+        <v>1493</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>1337</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10476,15 +11176,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>9848</v>
+        <v>12221</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>3125</v>
+        <v>3661</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>12973</v>
+        <v>15882</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10493,15 +11193,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>42003</v>
+        <v>51628</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>7820</v>
+        <v>9183</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>49823</v>
+        <v>60811</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,15 +11210,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>2645</v>
+        <v>3411</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>857</v>
+        <v>1001</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>3502</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10544,15 +11244,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1303</v>
+        <v>1748</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>949</v>
+        <v>1152</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>2252</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10561,15 +11261,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>1162</v>
+        <v>1522</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>556</v>
+        <v>748</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>1718</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10578,15 +11278,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>7508</v>
+        <v>10124</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>3501</v>
+        <v>4066</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>11009</v>
+        <v>14190</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10595,15 +11295,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10612,15 +11312,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>1365</v>
+        <v>1729</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>1668</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10629,15 +11329,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>6057</v>
+        <v>7725</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>1898</v>
+        <v>2322</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>7955</v>
+        <v>10047</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10646,15 +11346,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>4531</v>
+        <v>5923</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>2113</v>
+        <v>2527</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>6644</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10663,15 +11363,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>2537</v>
+        <v>3193</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>954</v>
+        <v>1134</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>3491</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10680,15 +11380,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>29509</v>
+        <v>38287</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>4122</v>
+        <v>5017</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>33631</v>
+        <v>43304</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10697,15 +11397,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>3687</v>
+        <v>4582</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>815</v>
+        <v>970</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>4502</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10714,15 +11414,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>14586</v>
+        <v>18708</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>2478</v>
+        <v>3074</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>17064</v>
+        <v>21782</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10731,15 +11431,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>715</v>
+        <v>1059</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>805</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10748,15 +11448,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>317</v>
+        <v>598</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>305</v>
+        <v>409</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>622</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10833,15 +11533,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>1620</v>
+        <v>2277</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>1897</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10850,15 +11550,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>6363</v>
+        <v>8061</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>2902</v>
+        <v>3380</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>9265</v>
+        <v>11441</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10867,15 +11567,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>12268</v>
+        <v>16590</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>5408</v>
+        <v>6481</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>17676</v>
+        <v>23071</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10884,15 +11584,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>7065</v>
+        <v>9505</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>1125</v>
+        <v>1304</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>8190</v>
+        <v>10809</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10901,15 +11601,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>4904</v>
+        <v>5822</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>3451</v>
+        <v>4008</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>8355</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10918,15 +11618,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>13764</v>
+        <v>17965</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>3713</v>
+        <v>4600</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>17477</v>
+        <v>22565</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10935,15 +11635,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>2149</v>
+        <v>2856</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>962</v>
+        <v>1152</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>3111</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10952,15 +11652,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>4759</v>
+        <v>5735</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1921</v>
+        <v>2218</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>6680</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10969,15 +11669,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>509</v>
+        <v>674</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>898</v>
+        <v>962</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>1407</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10986,15 +11686,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>858</v>
+        <v>1052</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>1043</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11003,15 +11703,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>1460</v>
+        <v>1896</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>1812</v>
+        <v>2215</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>3272</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11020,15 +11720,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>5003</v>
+        <v>6092</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>1761</v>
+        <v>2129</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>6764</v>
+        <v>8221</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16253,7 +16953,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A134E-06BE-4F3A-BB8B-0B8E1678CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC82CC0-6E71-4DBD-8209-757E7A14ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -4159,15 +4159,15 @@
       </c>
       <c r="B2" s="2">
         <f>JulyRaw!B2</f>
-        <v>0</v>
+        <v>4953</v>
       </c>
       <c r="C2" s="2">
         <f>JulyRaw!C2</f>
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="D2" s="2">
         <f>JulyRaw!D2</f>
-        <v>0</v>
+        <v>6493</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4176,15 +4176,15 @@
       </c>
       <c r="B3" s="3">
         <f>JulyRaw!B3</f>
-        <v>0</v>
+        <v>3420</v>
       </c>
       <c r="C3" s="3">
         <f>JulyRaw!C3</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="D3" s="3">
         <f>JulyRaw!D3</f>
-        <v>0</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,15 +4193,15 @@
       </c>
       <c r="B4" s="2">
         <f>JulyRaw!B4</f>
-        <v>0</v>
+        <v>9941</v>
       </c>
       <c r="C4" s="2">
         <f>JulyRaw!C4</f>
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="D4" s="2">
         <f>JulyRaw!D4</f>
-        <v>0</v>
+        <v>11171</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4210,15 +4210,15 @@
       </c>
       <c r="B5" s="3">
         <f>JulyRaw!B5</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3">
         <f>JulyRaw!C5</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3">
         <f>JulyRaw!D5</f>
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4227,15 +4227,15 @@
       </c>
       <c r="B6" s="2">
         <f>JulyRaw!B6</f>
-        <v>0</v>
+        <v>6398</v>
       </c>
       <c r="C6" s="2">
         <f>JulyRaw!C6</f>
-        <v>0</v>
+        <v>1074</v>
       </c>
       <c r="D6" s="2">
         <f>JulyRaw!D6</f>
-        <v>0</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4244,15 +4244,15 @@
       </c>
       <c r="B7" s="3">
         <f>JulyRaw!B7</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="C7" s="3">
         <f>JulyRaw!C7</f>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="D7" s="3">
         <f>JulyRaw!D7</f>
-        <v>0</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4261,15 +4261,15 @@
       </c>
       <c r="B8" s="2">
         <f>JulyRaw!B8</f>
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="C8" s="2">
         <f>JulyRaw!C8</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2">
         <f>JulyRaw!D8</f>
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,15 +4278,15 @@
       </c>
       <c r="B9" s="3">
         <f>JulyRaw!B9</f>
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C9" s="3">
         <f>JulyRaw!C9</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3">
         <f>JulyRaw!D9</f>
-        <v>0</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B10" s="2">
         <f>JulyRaw!B10</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2">
         <f>JulyRaw!C10</f>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D10" s="2">
         <f>JulyRaw!D10</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4329,15 +4329,15 @@
       </c>
       <c r="B12" s="5">
         <f>JulyRaw!B12</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C12" s="5">
         <f>JulyRaw!C12</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5">
         <f>JulyRaw!D12</f>
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4346,15 +4346,15 @@
       </c>
       <c r="B13" s="4">
         <f>JulyRaw!B13</f>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C13" s="4">
         <f>JulyRaw!C13</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4">
         <f>JulyRaw!D13</f>
-        <v>0</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4363,15 +4363,15 @@
       </c>
       <c r="B14" s="5">
         <f>JulyRaw!B14</f>
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="C14" s="5">
         <f>JulyRaw!C14</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D14" s="5">
         <f>JulyRaw!D14</f>
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4380,15 +4380,15 @@
       </c>
       <c r="B15" s="4">
         <f>JulyRaw!B15</f>
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="C15" s="4">
         <f>JulyRaw!C15</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4">
         <f>JulyRaw!D15</f>
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4397,15 +4397,15 @@
       </c>
       <c r="B16" s="2">
         <f>JulyRaw!B16</f>
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="C16" s="2">
         <f>JulyRaw!C16</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2">
         <f>JulyRaw!D16</f>
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4414,15 +4414,15 @@
       </c>
       <c r="B17" s="3">
         <f>JulyRaw!B17</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="C17" s="3">
         <f>JulyRaw!C17</f>
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="D17" s="3">
         <f>JulyRaw!D17</f>
-        <v>0</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4431,15 +4431,15 @@
       </c>
       <c r="B18" s="2">
         <f>JulyRaw!B18</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2">
         <f>JulyRaw!C18</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
         <f>JulyRaw!D18</f>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4448,15 +4448,15 @@
       </c>
       <c r="B19" s="3">
         <f>JulyRaw!B19</f>
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="C19" s="3">
         <f>JulyRaw!C19</f>
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="D19" s="3">
         <f>JulyRaw!D19</f>
-        <v>0</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,15 +4465,15 @@
       </c>
       <c r="B20" s="2">
         <f>JulyRaw!B20</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <f>JulyRaw!C20</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <f>JulyRaw!D20</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4482,15 +4482,15 @@
       </c>
       <c r="B21" s="3">
         <f>JulyRaw!B21</f>
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="C21" s="3">
         <f>JulyRaw!C21</f>
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="D21" s="3">
         <f>JulyRaw!D21</f>
-        <v>0</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4499,15 +4499,15 @@
       </c>
       <c r="B22" s="2">
         <f>JulyRaw!B22</f>
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="C22" s="2">
         <f>JulyRaw!C22</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2">
         <f>JulyRaw!D22</f>
-        <v>0</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4516,15 +4516,15 @@
       </c>
       <c r="B23" s="3">
         <f>JulyRaw!B23</f>
-        <v>0</v>
+        <v>2533</v>
       </c>
       <c r="C23" s="3">
         <f>JulyRaw!C23</f>
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="D23" s="3">
         <f>JulyRaw!D23</f>
-        <v>0</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4533,15 +4533,15 @@
       </c>
       <c r="B24" s="2">
         <f>JulyRaw!B24</f>
-        <v>0</v>
+        <v>11143</v>
       </c>
       <c r="C24" s="2">
         <f>JulyRaw!C24</f>
-        <v>0</v>
+        <v>1709</v>
       </c>
       <c r="D24" s="2">
         <f>JulyRaw!D24</f>
-        <v>0</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4550,15 +4550,15 @@
       </c>
       <c r="B25" s="3">
         <f>JulyRaw!B25</f>
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="C25" s="3">
         <f>JulyRaw!C25</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D25" s="3">
         <f>JulyRaw!D25</f>
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4584,15 +4584,15 @@
       </c>
       <c r="B27" s="3">
         <f>JulyRaw!B27</f>
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="C27" s="3">
         <f>JulyRaw!C27</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D27" s="3">
         <f>JulyRaw!D27</f>
-        <v>0</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4601,15 +4601,15 @@
       </c>
       <c r="B28" s="2">
         <f>JulyRaw!B28</f>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2">
         <f>JulyRaw!C28</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2">
         <f>JulyRaw!D28</f>
-        <v>0</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4618,15 +4618,15 @@
       </c>
       <c r="B29" s="3">
         <f>JulyRaw!B29</f>
-        <v>0</v>
+        <v>2342</v>
       </c>
       <c r="C29" s="3">
         <f>JulyRaw!C29</f>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D29" s="3">
         <f>JulyRaw!D29</f>
-        <v>0</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4635,15 +4635,15 @@
       </c>
       <c r="B30" s="2">
         <f>JulyRaw!B30</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
         <f>JulyRaw!C30</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <f>JulyRaw!D30</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4652,15 +4652,15 @@
       </c>
       <c r="B31" s="3">
         <f>JulyRaw!B31</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="C31" s="3">
         <f>JulyRaw!C31</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D31" s="3">
         <f>JulyRaw!D31</f>
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4669,15 +4669,15 @@
       </c>
       <c r="B32" s="2">
         <f>JulyRaw!B32</f>
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="C32" s="2">
         <f>JulyRaw!C32</f>
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="D32" s="2">
         <f>JulyRaw!D32</f>
-        <v>0</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4686,15 +4686,15 @@
       </c>
       <c r="B33" s="3">
         <f>JulyRaw!B33</f>
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="C33" s="3">
         <f>JulyRaw!C33</f>
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="D33" s="3">
         <f>JulyRaw!D33</f>
-        <v>0</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4703,15 +4703,15 @@
       </c>
       <c r="B34" s="2">
         <f>JulyRaw!B34</f>
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="C34" s="2">
         <f>JulyRaw!C34</f>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D34" s="2">
         <f>JulyRaw!D34</f>
-        <v>0</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4720,15 +4720,15 @@
       </c>
       <c r="B35" s="3">
         <f>JulyRaw!B35</f>
-        <v>0</v>
+        <v>8579</v>
       </c>
       <c r="C35" s="3">
         <f>JulyRaw!C35</f>
-        <v>0</v>
+        <v>1121</v>
       </c>
       <c r="D35" s="3">
         <f>JulyRaw!D35</f>
-        <v>0</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4737,15 +4737,15 @@
       </c>
       <c r="B36" s="2">
         <f>JulyRaw!B36</f>
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="C36" s="2">
         <f>JulyRaw!C36</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D36" s="2">
         <f>JulyRaw!D36</f>
-        <v>0</v>
+        <v>994</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4754,15 +4754,15 @@
       </c>
       <c r="B37" s="3">
         <f>JulyRaw!B37</f>
-        <v>0</v>
+        <v>3895</v>
       </c>
       <c r="C37" s="3">
         <f>JulyRaw!C37</f>
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="D37" s="3">
         <f>JulyRaw!D37</f>
-        <v>0</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,15 +4771,15 @@
       </c>
       <c r="B38" s="2">
         <f>JulyRaw!B38</f>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2">
         <f>JulyRaw!C38</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <f>JulyRaw!D38</f>
-        <v>0</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4788,15 +4788,15 @@
       </c>
       <c r="B39" s="3">
         <f>JulyRaw!B39</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C39" s="3">
         <f>JulyRaw!C39</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3">
         <f>JulyRaw!D39</f>
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4873,15 +4873,15 @@
       </c>
       <c r="B44" s="2">
         <f>JulyRaw!B44</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="C44" s="2">
         <f>JulyRaw!C44</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D44" s="2">
         <f>JulyRaw!D44</f>
-        <v>0</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4890,15 +4890,15 @@
       </c>
       <c r="B45" s="3">
         <f>JulyRaw!B45</f>
-        <v>0</v>
+        <v>1687</v>
       </c>
       <c r="C45" s="3">
         <f>JulyRaw!C45</f>
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="D45" s="3">
         <f>JulyRaw!D45</f>
-        <v>0</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4907,15 +4907,15 @@
       </c>
       <c r="B46" s="2">
         <f>JulyRaw!B46</f>
-        <v>0</v>
+        <v>3881</v>
       </c>
       <c r="C46" s="2">
         <f>JulyRaw!C46</f>
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="D46" s="2">
         <f>JulyRaw!D46</f>
-        <v>0</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,15 +4924,15 @@
       </c>
       <c r="B47" s="3">
         <f>JulyRaw!B47</f>
-        <v>0</v>
+        <v>1958</v>
       </c>
       <c r="C47" s="3">
         <f>JulyRaw!C47</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="D47" s="3">
         <f>JulyRaw!D47</f>
-        <v>0</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4941,15 +4941,15 @@
       </c>
       <c r="B48" s="2">
         <f>JulyRaw!B48</f>
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="C48" s="2">
         <f>JulyRaw!C48</f>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D48" s="2">
         <f>JulyRaw!D48</f>
-        <v>0</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4958,15 +4958,15 @@
       </c>
       <c r="B49" s="3">
         <f>JulyRaw!B49</f>
-        <v>0</v>
+        <v>3777</v>
       </c>
       <c r="C49" s="3">
         <f>JulyRaw!C49</f>
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="D49" s="3">
         <f>JulyRaw!D49</f>
-        <v>0</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4975,15 +4975,15 @@
       </c>
       <c r="B50" s="2">
         <f>JulyRaw!B50</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2">
         <f>JulyRaw!C50</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D50" s="2">
         <f>JulyRaw!D50</f>
-        <v>0</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,15 +4992,15 @@
       </c>
       <c r="B51" s="3">
         <f>JulyRaw!B51</f>
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="C51" s="3">
         <f>JulyRaw!C51</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D51" s="3">
         <f>JulyRaw!D51</f>
-        <v>0</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,15 +5009,15 @@
       </c>
       <c r="B52" s="2">
         <f>JulyRaw!B52</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="C52" s="2">
         <f>JulyRaw!C52</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D52" s="2">
         <f>JulyRaw!D52</f>
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5026,15 +5026,15 @@
       </c>
       <c r="B53" s="3">
         <f>JulyRaw!B53</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="C53" s="3">
         <f>JulyRaw!C53</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D53" s="3">
         <f>JulyRaw!D53</f>
-        <v>0</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5043,15 +5043,15 @@
       </c>
       <c r="B54" s="2">
         <f>JulyRaw!B54</f>
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="C54" s="2">
         <f>JulyRaw!C54</f>
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="D54" s="2">
         <f>JulyRaw!D54</f>
-        <v>0</v>
+        <v>727</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5060,15 +5060,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1162</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5097,12 +5097,712 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A79BFB6-AEEF-403D-9ED1-62F772905CD7}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4953</v>
+      </c>
+      <c r="C2">
+        <v>1540</v>
+      </c>
+      <c r="D2">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3420</v>
+      </c>
+      <c r="C3">
+        <v>750</v>
+      </c>
+      <c r="D3">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9941</v>
+      </c>
+      <c r="C4">
+        <v>1230</v>
+      </c>
+      <c r="D4">
+        <v>11171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6398</v>
+      </c>
+      <c r="C6">
+        <v>1074</v>
+      </c>
+      <c r="D6">
+        <v>7472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>356</v>
+      </c>
+      <c r="C7">
+        <v>331</v>
+      </c>
+      <c r="D7">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>677</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>295</v>
+      </c>
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>217</v>
+      </c>
+      <c r="C13">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>535</v>
+      </c>
+      <c r="C14">
+        <v>191</v>
+      </c>
+      <c r="D14">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>303</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>563</v>
+      </c>
+      <c r="C16">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1685</v>
+      </c>
+      <c r="C17">
+        <v>653</v>
+      </c>
+      <c r="D17">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2009</v>
+      </c>
+      <c r="C19">
+        <v>465</v>
+      </c>
+      <c r="D19">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1965</v>
+      </c>
+      <c r="C21">
+        <v>498</v>
+      </c>
+      <c r="D21">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>406</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2533</v>
+      </c>
+      <c r="C23">
+        <v>634</v>
+      </c>
+      <c r="D23">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>11143</v>
+      </c>
+      <c r="C24">
+        <v>1709</v>
+      </c>
+      <c r="D24">
+        <v>12852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>631</v>
+      </c>
+      <c r="C25">
+        <v>169</v>
+      </c>
+      <c r="D25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>544</v>
+      </c>
+      <c r="C27">
+        <v>219</v>
+      </c>
+      <c r="D27">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>304</v>
+      </c>
+      <c r="C28">
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2342</v>
+      </c>
+      <c r="C29">
+        <v>524</v>
+      </c>
+      <c r="D29">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>343</v>
+      </c>
+      <c r="C31">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1512</v>
+      </c>
+      <c r="C32">
+        <v>466</v>
+      </c>
+      <c r="D32">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1169</v>
+      </c>
+      <c r="C33">
+        <v>477</v>
+      </c>
+      <c r="D33">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>683</v>
+      </c>
+      <c r="C34">
+        <v>232</v>
+      </c>
+      <c r="D34">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8579</v>
+      </c>
+      <c r="C35">
+        <v>1121</v>
+      </c>
+      <c r="D35">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>812</v>
+      </c>
+      <c r="C36">
+        <v>182</v>
+      </c>
+      <c r="D36">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3895</v>
+      </c>
+      <c r="C37">
+        <v>557</v>
+      </c>
+      <c r="D37">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>347</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>127</v>
+      </c>
+      <c r="C39">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>576</v>
+      </c>
+      <c r="C44">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1687</v>
+      </c>
+      <c r="C45">
+        <v>449</v>
+      </c>
+      <c r="D45">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>3881</v>
+      </c>
+      <c r="C46">
+        <v>1010</v>
+      </c>
+      <c r="D46">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1958</v>
+      </c>
+      <c r="C47">
+        <v>194</v>
+      </c>
+      <c r="D47">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>948</v>
+      </c>
+      <c r="C48">
+        <v>510</v>
+      </c>
+      <c r="D48">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3777</v>
+      </c>
+      <c r="C49">
+        <v>982</v>
+      </c>
+      <c r="D49">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>336</v>
+      </c>
+      <c r="C50">
+        <v>130</v>
+      </c>
+      <c r="D50">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>939</v>
+      </c>
+      <c r="C51">
+        <v>360</v>
+      </c>
+      <c r="D51">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>129</v>
+      </c>
+      <c r="C52">
+        <v>96</v>
+      </c>
+      <c r="D52">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>182</v>
+      </c>
+      <c r="C53">
+        <v>37</v>
+      </c>
+      <c r="D53">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>334</v>
+      </c>
+      <c r="C54">
+        <v>393</v>
+      </c>
+      <c r="D54">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10819,15 +11519,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>24775</v>
+        <v>29728</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>8943</v>
+        <v>10483</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>33718</v>
+        <v>40211</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10836,15 +11536,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>16200</v>
+        <v>19620</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>3501</v>
+        <v>4251</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>19701</v>
+        <v>23871</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10853,15 +11553,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>46518</v>
+        <v>56459</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>6767</v>
+        <v>7997</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>53285</v>
+        <v>64456</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10870,15 +11570,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>816</v>
+        <v>991</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1017</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10887,15 +11587,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>29160</v>
+        <v>35558</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>6336</v>
+        <v>7410</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>35496</v>
+        <v>42968</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10904,15 +11604,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2706</v>
+        <v>3062</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1309</v>
+        <v>1640</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>4015</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10921,15 +11621,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>3173</v>
+        <v>3850</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>895</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>4068</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10938,15 +11638,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>1497</v>
+        <v>1792</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>1765</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10955,7 +11655,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -10963,7 +11663,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>391</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10989,15 +11689,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>539</v>
+        <v>646</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>727</v>
+        <v>862</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11006,15 +11706,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1094</v>
+        <v>1311</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>1562</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11023,15 +11723,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>2812</v>
+        <v>3347</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1148</v>
+        <v>1339</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>3960</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11040,15 +11740,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1647</v>
+        <v>1950</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>1972</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11057,15 +11757,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>1542</v>
+        <v>2105</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>375</v>
+        <v>456</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>1917</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11074,15 +11774,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>9046</v>
+        <v>10731</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>3652</v>
+        <v>4305</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>12698</v>
+        <v>15036</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11091,15 +11791,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>823</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11108,15 +11808,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>9720</v>
+        <v>11729</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>2704</v>
+        <v>3169</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>12424</v>
+        <v>14898</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11125,15 +11825,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11142,15 +11842,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>10141</v>
+        <v>12106</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>2994</v>
+        <v>3492</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>13135</v>
+        <v>15598</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11159,15 +11859,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>1493</v>
+        <v>1899</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>1886</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11176,15 +11876,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>12221</v>
+        <v>14754</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>3661</v>
+        <v>4295</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>15882</v>
+        <v>19049</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11193,15 +11893,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>51628</v>
+        <v>62771</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>9183</v>
+        <v>10892</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>60811</v>
+        <v>73663</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11210,15 +11910,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>3411</v>
+        <v>4042</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1001</v>
+        <v>1170</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>4412</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11244,15 +11944,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1748</v>
+        <v>2292</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1152</v>
+        <v>1371</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>2900</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11261,15 +11961,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>1522</v>
+        <v>1826</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>748</v>
+        <v>867</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>2270</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11278,15 +11978,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>10124</v>
+        <v>12466</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>4066</v>
+        <v>4590</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>14190</v>
+        <v>17056</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11295,15 +11995,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>286</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11312,15 +12012,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>1729</v>
+        <v>2072</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>2097</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11329,15 +12029,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>7725</v>
+        <v>9237</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>2322</v>
+        <v>2788</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>10047</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11346,15 +12046,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>5923</v>
+        <v>7092</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>2527</v>
+        <v>3004</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>8450</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11363,15 +12063,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>3193</v>
+        <v>3876</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1134</v>
+        <v>1366</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>4327</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11380,15 +12080,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>38287</v>
+        <v>46866</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>5017</v>
+        <v>6138</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>43304</v>
+        <v>53004</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11397,15 +12097,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>4582</v>
+        <v>5394</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>970</v>
+        <v>1152</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>5552</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11414,15 +12114,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>18708</v>
+        <v>22603</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>3074</v>
+        <v>3631</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>21782</v>
+        <v>26234</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11431,15 +12131,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>1059</v>
+        <v>1406</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>1178</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11448,15 +12148,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>598</v>
+        <v>725</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>1007</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11533,15 +12233,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>2277</v>
+        <v>2853</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>366</v>
+        <v>450</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>2643</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11550,15 +12250,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>8061</v>
+        <v>9748</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>3380</v>
+        <v>3829</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>11441</v>
+        <v>13577</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11567,15 +12267,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>16590</v>
+        <v>20471</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>6481</v>
+        <v>7491</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>23071</v>
+        <v>27962</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11584,15 +12284,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>9505</v>
+        <v>11463</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>1304</v>
+        <v>1498</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>10809</v>
+        <v>12961</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11601,15 +12301,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>5822</v>
+        <v>6770</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>4008</v>
+        <v>4518</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>9830</v>
+        <v>11288</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11618,15 +12318,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>17965</v>
+        <v>21742</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>4600</v>
+        <v>5582</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>22565</v>
+        <v>27324</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11635,15 +12335,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>2856</v>
+        <v>3192</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>1152</v>
+        <v>1282</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>4008</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11652,15 +12352,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>5735</v>
+        <v>6674</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>2218</v>
+        <v>2578</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>7953</v>
+        <v>9252</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11669,15 +12369,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>674</v>
+        <v>803</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>962</v>
+        <v>1058</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>1636</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11686,15 +12386,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1052</v>
+        <v>1234</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>1263</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11703,15 +12403,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>1896</v>
+        <v>2230</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>2215</v>
+        <v>2608</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>4111</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11720,15 +12420,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>6092</v>
+        <v>7254</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>2129</v>
+        <v>2517</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>8221</v>
+        <v>9771</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC82CC0-6E71-4DBD-8209-757E7A14ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127B11B3-CBFC-4A7D-B804-73F79C30DC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" activeTab="14" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -70,12 +70,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -717,7 +720,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight" activeCell="A19" sqref="A19"/>
@@ -5812,7 +5815,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5845,15 +5848,15 @@
       </c>
       <c r="B2" s="2">
         <f>AugustRaw!B2</f>
-        <v>0</v>
+        <v>4306</v>
       </c>
       <c r="C2" s="2">
         <f>AugustRaw!C2</f>
-        <v>0</v>
+        <v>1547</v>
       </c>
       <c r="D2" s="2">
         <f>AugustRaw!D2</f>
-        <v>0</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5862,15 +5865,15 @@
       </c>
       <c r="B3" s="3">
         <f>AugustRaw!B3</f>
-        <v>0</v>
+        <v>2728</v>
       </c>
       <c r="C3" s="3">
         <f>AugustRaw!C3</f>
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="D3" s="3">
         <f>AugustRaw!D3</f>
-        <v>0</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5879,15 +5882,15 @@
       </c>
       <c r="B4" s="2">
         <f>AugustRaw!B4</f>
-        <v>0</v>
+        <v>8442</v>
       </c>
       <c r="C4" s="2">
         <f>AugustRaw!C4</f>
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="D4" s="2">
         <f>AugustRaw!D4</f>
-        <v>0</v>
+        <v>9594</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,15 +5899,15 @@
       </c>
       <c r="B5" s="3">
         <f>AugustRaw!B5</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3">
         <f>AugustRaw!C5</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3">
         <f>AugustRaw!D5</f>
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5913,15 +5916,15 @@
       </c>
       <c r="B6" s="2">
         <f>AugustRaw!B6</f>
-        <v>0</v>
+        <v>4696</v>
       </c>
       <c r="C6" s="2">
         <f>AugustRaw!C6</f>
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="D6" s="2">
         <f>AugustRaw!D6</f>
-        <v>0</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5930,15 +5933,15 @@
       </c>
       <c r="B7" s="3">
         <f>AugustRaw!B7</f>
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="C7" s="3">
         <f>AugustRaw!C7</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D7" s="3">
         <f>AugustRaw!D7</f>
-        <v>0</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5947,15 +5950,15 @@
       </c>
       <c r="B8" s="2">
         <f>AugustRaw!B8</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C8" s="2">
         <f>AugustRaw!C8</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2">
         <f>AugustRaw!D8</f>
-        <v>0</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5964,15 +5967,15 @@
       </c>
       <c r="B9" s="3">
         <f>AugustRaw!B9</f>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="C9" s="3">
         <f>AugustRaw!C9</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D9" s="3">
         <f>AugustRaw!D9</f>
-        <v>0</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5981,7 +5984,7 @@
       </c>
       <c r="B10" s="2">
         <f>AugustRaw!B10</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <f>AugustRaw!C10</f>
@@ -5989,7 +5992,7 @@
       </c>
       <c r="D10" s="2">
         <f>AugustRaw!D10</f>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,15 +6018,15 @@
       </c>
       <c r="B12" s="5">
         <f>AugustRaw!B12</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5">
         <f>AugustRaw!C12</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5">
         <f>AugustRaw!D12</f>
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,15 +6035,15 @@
       </c>
       <c r="B13" s="4">
         <f>AugustRaw!B13</f>
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="C13" s="4">
         <f>AugustRaw!C13</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D13" s="4">
         <f>AugustRaw!D13</f>
-        <v>0</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6049,15 +6052,15 @@
       </c>
       <c r="B14" s="5">
         <f>AugustRaw!B14</f>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="C14" s="5">
         <f>AugustRaw!C14</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D14" s="5">
         <f>AugustRaw!D14</f>
-        <v>0</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6066,15 +6069,15 @@
       </c>
       <c r="B15" s="4">
         <f>AugustRaw!B15</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C15" s="4">
         <f>AugustRaw!C15</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4">
         <f>AugustRaw!D15</f>
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6083,15 +6086,15 @@
       </c>
       <c r="B16" s="2">
         <f>AugustRaw!B16</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="C16" s="2">
         <f>AugustRaw!C16</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2">
         <f>AugustRaw!D16</f>
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6100,15 +6103,15 @@
       </c>
       <c r="B17" s="3">
         <f>AugustRaw!B17</f>
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="C17" s="3">
         <f>AugustRaw!C17</f>
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="D17" s="3">
         <f>AugustRaw!D17</f>
-        <v>0</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6117,15 +6120,15 @@
       </c>
       <c r="B18" s="2">
         <f>AugustRaw!B18</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2">
         <f>AugustRaw!C18</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <f>AugustRaw!D18</f>
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6134,15 +6137,15 @@
       </c>
       <c r="B19" s="3">
         <f>AugustRaw!B19</f>
-        <v>0</v>
+        <v>1544</v>
       </c>
       <c r="C19" s="3">
         <f>AugustRaw!C19</f>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="D19" s="3">
         <f>AugustRaw!D19</f>
-        <v>0</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6151,15 +6154,15 @@
       </c>
       <c r="B20" s="2">
         <f>AugustRaw!B20</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2">
         <f>AugustRaw!C20</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <f>AugustRaw!D20</f>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6168,15 +6171,15 @@
       </c>
       <c r="B21" s="3">
         <f>AugustRaw!B21</f>
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="C21" s="3">
         <f>AugustRaw!C21</f>
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="D21" s="3">
         <f>AugustRaw!D21</f>
-        <v>0</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6185,15 +6188,15 @@
       </c>
       <c r="B22" s="2">
         <f>AugustRaw!B22</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2">
         <f>AugustRaw!C22</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2">
         <f>AugustRaw!D22</f>
-        <v>0</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6202,15 +6205,15 @@
       </c>
       <c r="B23" s="3">
         <f>AugustRaw!B23</f>
-        <v>0</v>
+        <v>2370</v>
       </c>
       <c r="C23" s="3">
         <f>AugustRaw!C23</f>
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="D23" s="3">
         <f>AugustRaw!D23</f>
-        <v>0</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6219,15 +6222,15 @@
       </c>
       <c r="B24" s="2">
         <f>AugustRaw!B24</f>
-        <v>0</v>
+        <v>10091</v>
       </c>
       <c r="C24" s="2">
         <f>AugustRaw!C24</f>
-        <v>0</v>
+        <v>1671</v>
       </c>
       <c r="D24" s="2">
         <f>AugustRaw!D24</f>
-        <v>0</v>
+        <v>11762</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6236,15 +6239,15 @@
       </c>
       <c r="B25" s="3">
         <f>AugustRaw!B25</f>
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="C25" s="3">
         <f>AugustRaw!C25</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D25" s="3">
         <f>AugustRaw!D25</f>
-        <v>0</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6270,15 +6273,15 @@
       </c>
       <c r="B27" s="3">
         <f>AugustRaw!B27</f>
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="C27" s="3">
         <f>AugustRaw!C27</f>
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D27" s="3">
         <f>AugustRaw!D27</f>
-        <v>0</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6287,15 +6290,15 @@
       </c>
       <c r="B28" s="2">
         <f>AugustRaw!B28</f>
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2">
         <f>AugustRaw!C28</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2">
         <f>AugustRaw!D28</f>
-        <v>0</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,15 +6307,15 @@
       </c>
       <c r="B29" s="3">
         <f>AugustRaw!B29</f>
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="C29" s="3">
         <f>AugustRaw!C29</f>
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="D29" s="3">
         <f>AugustRaw!D29</f>
-        <v>0</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6321,15 +6324,15 @@
       </c>
       <c r="B30" s="2">
         <f>AugustRaw!B30</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
         <f>AugustRaw!C30</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2">
         <f>AugustRaw!D30</f>
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6338,15 +6341,15 @@
       </c>
       <c r="B31" s="3">
         <f>AugustRaw!B31</f>
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="C31" s="3">
         <f>AugustRaw!C31</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D31" s="3">
         <f>AugustRaw!D31</f>
-        <v>0</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6355,15 +6358,15 @@
       </c>
       <c r="B32" s="2">
         <f>AugustRaw!B32</f>
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="C32" s="2">
         <f>AugustRaw!C32</f>
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="D32" s="2">
         <f>AugustRaw!D32</f>
-        <v>0</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6372,15 +6375,15 @@
       </c>
       <c r="B33" s="3">
         <f>AugustRaw!B33</f>
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="C33" s="3">
         <f>AugustRaw!C33</f>
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="D33" s="3">
         <f>AugustRaw!D33</f>
-        <v>0</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6389,15 +6392,15 @@
       </c>
       <c r="B34" s="2">
         <f>AugustRaw!B34</f>
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="C34" s="2">
         <f>AugustRaw!C34</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D34" s="2">
         <f>AugustRaw!D34</f>
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,15 +6409,15 @@
       </c>
       <c r="B35" s="3">
         <f>AugustRaw!B35</f>
-        <v>0</v>
+        <v>6927</v>
       </c>
       <c r="C35" s="3">
         <f>AugustRaw!C35</f>
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="D35" s="3">
         <f>AugustRaw!D35</f>
-        <v>0</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6423,15 +6426,15 @@
       </c>
       <c r="B36" s="2">
         <f>AugustRaw!B36</f>
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="C36" s="2">
         <f>AugustRaw!C36</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2">
         <f>AugustRaw!D36</f>
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6440,15 +6443,15 @@
       </c>
       <c r="B37" s="3">
         <f>AugustRaw!B37</f>
-        <v>0</v>
+        <v>3267</v>
       </c>
       <c r="C37" s="3">
         <f>AugustRaw!C37</f>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D37" s="3">
         <f>AugustRaw!D37</f>
-        <v>0</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6457,15 +6460,15 @@
       </c>
       <c r="B38" s="2">
         <f>AugustRaw!B38</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="C38" s="2">
         <f>AugustRaw!C38</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2">
         <f>AugustRaw!D38</f>
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,15 +6477,15 @@
       </c>
       <c r="B39" s="3">
         <f>AugustRaw!B39</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3">
         <f>AugustRaw!C39</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D39" s="3">
         <f>AugustRaw!D39</f>
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6491,15 +6494,15 @@
       </c>
       <c r="B40" s="6">
         <f>AugustRaw!B40</f>
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="C40" s="6">
         <f>AugustRaw!C40</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D40" s="6">
         <f>AugustRaw!D40</f>
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6508,15 +6511,15 @@
       </c>
       <c r="B41" s="7">
         <f>AugustRaw!B41</f>
-        <v>0</v>
+        <v>1668</v>
       </c>
       <c r="C41" s="7">
         <f>AugustRaw!C41</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D41" s="7">
         <f>AugustRaw!D41</f>
-        <v>0</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6525,15 +6528,15 @@
       </c>
       <c r="B42" s="6">
         <f>AugustRaw!B42</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C42" s="6">
         <f>AugustRaw!C42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42" s="6">
         <f>AugustRaw!D42</f>
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6542,15 +6545,15 @@
       </c>
       <c r="B43" s="7">
         <f>AugustRaw!B43</f>
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="C43" s="7">
         <f>AugustRaw!C43</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D43" s="7">
         <f>AugustRaw!D43</f>
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6559,15 +6562,15 @@
       </c>
       <c r="B44" s="2">
         <f>AugustRaw!B44</f>
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="C44" s="2">
         <f>AugustRaw!C44</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <f>AugustRaw!D44</f>
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6576,15 +6579,15 @@
       </c>
       <c r="B45" s="3">
         <f>AugustRaw!B45</f>
-        <v>0</v>
+        <v>1277</v>
       </c>
       <c r="C45" s="3">
         <f>AugustRaw!C45</f>
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="D45" s="3">
         <f>AugustRaw!D45</f>
-        <v>0</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,15 +6596,15 @@
       </c>
       <c r="B46" s="2">
         <f>AugustRaw!B46</f>
-        <v>0</v>
+        <v>2451</v>
       </c>
       <c r="C46" s="2">
         <f>AugustRaw!C46</f>
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="D46" s="2">
         <f>AugustRaw!D46</f>
-        <v>0</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6610,15 +6613,15 @@
       </c>
       <c r="B47" s="3">
         <f>AugustRaw!B47</f>
-        <v>0</v>
+        <v>1570</v>
       </c>
       <c r="C47" s="3">
         <f>AugustRaw!C47</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D47" s="3">
         <f>AugustRaw!D47</f>
-        <v>0</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6627,15 +6630,15 @@
       </c>
       <c r="B48" s="2">
         <f>AugustRaw!B48</f>
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="C48" s="2">
         <f>AugustRaw!C48</f>
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="D48" s="2">
         <f>AugustRaw!D48</f>
-        <v>0</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6644,15 +6647,15 @@
       </c>
       <c r="B49" s="3">
         <f>AugustRaw!B49</f>
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="C49" s="3">
         <f>AugustRaw!C49</f>
-        <v>0</v>
+        <v>1238</v>
       </c>
       <c r="D49" s="3">
         <f>AugustRaw!D49</f>
-        <v>0</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6661,15 +6664,15 @@
       </c>
       <c r="B50" s="2">
         <f>AugustRaw!B50</f>
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="C50" s="2">
         <f>AugustRaw!C50</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2">
         <f>AugustRaw!D50</f>
-        <v>0</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,15 +6681,15 @@
       </c>
       <c r="B51" s="3">
         <f>AugustRaw!B51</f>
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="C51" s="3">
         <f>AugustRaw!C51</f>
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="D51" s="3">
         <f>AugustRaw!D51</f>
-        <v>0</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6695,15 +6698,15 @@
       </c>
       <c r="B52" s="2">
         <f>AugustRaw!B52</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C52" s="2">
         <f>AugustRaw!C52</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2">
         <f>AugustRaw!D52</f>
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6712,15 +6715,15 @@
       </c>
       <c r="B53" s="3">
         <f>AugustRaw!B53</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C53" s="3">
         <f>AugustRaw!C53</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D53" s="3">
         <f>AugustRaw!D53</f>
-        <v>0</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6729,15 +6732,15 @@
       </c>
       <c r="B54" s="2">
         <f>AugustRaw!B54</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="C54" s="2">
         <f>AugustRaw!C54</f>
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="D54" s="2">
         <f>AugustRaw!D54</f>
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6746,15 +6749,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6763,15 +6766,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>0</v>
+        <v>2422</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>0</v>
+        <v>2455</v>
       </c>
     </row>
   </sheetData>
@@ -6783,7 +6786,7 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968ED2F1-F23E-4A67-BB1A-EADC3CF6F211}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6792,7 +6795,743 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4306</v>
+      </c>
+      <c r="C2">
+        <v>1547</v>
+      </c>
+      <c r="D2">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2728</v>
+      </c>
+      <c r="C3">
+        <v>832</v>
+      </c>
+      <c r="D3">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8442</v>
+      </c>
+      <c r="C4">
+        <v>1152</v>
+      </c>
+      <c r="D4">
+        <v>9594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4696</v>
+      </c>
+      <c r="C6">
+        <v>1114</v>
+      </c>
+      <c r="D6">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>519</v>
+      </c>
+      <c r="C7">
+        <v>177</v>
+      </c>
+      <c r="D7">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>460</v>
+      </c>
+      <c r="C8">
+        <v>127</v>
+      </c>
+      <c r="D8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>263</v>
+      </c>
+      <c r="C9">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>205</v>
+      </c>
+      <c r="C13">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>487</v>
+      </c>
+      <c r="C14">
+        <v>176</v>
+      </c>
+      <c r="D14">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>253</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>214</v>
+      </c>
+      <c r="C16">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1382</v>
+      </c>
+      <c r="C17">
+        <v>701</v>
+      </c>
+      <c r="D17">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>153</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1544</v>
+      </c>
+      <c r="C19">
+        <v>488</v>
+      </c>
+      <c r="D19">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1450</v>
+      </c>
+      <c r="C21">
+        <v>493</v>
+      </c>
+      <c r="D21">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>194</v>
+      </c>
+      <c r="C22">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2370</v>
+      </c>
+      <c r="C23">
+        <v>637</v>
+      </c>
+      <c r="D23">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>10091</v>
+      </c>
+      <c r="C24">
+        <v>1671</v>
+      </c>
+      <c r="D24">
+        <v>11762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>579</v>
+      </c>
+      <c r="C25">
+        <v>142</v>
+      </c>
+      <c r="D25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>430</v>
+      </c>
+      <c r="C27">
+        <v>271</v>
+      </c>
+      <c r="D27">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>313</v>
+      </c>
+      <c r="C28">
+        <v>94</v>
+      </c>
+      <c r="D28">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1574</v>
+      </c>
+      <c r="C29">
+        <v>704</v>
+      </c>
+      <c r="D29">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>373</v>
+      </c>
+      <c r="C31">
+        <v>108</v>
+      </c>
+      <c r="D31">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1450</v>
+      </c>
+      <c r="C32">
+        <v>412</v>
+      </c>
+      <c r="D32">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>729</v>
+      </c>
+      <c r="C33">
+        <v>433</v>
+      </c>
+      <c r="D33">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>604</v>
+      </c>
+      <c r="C34">
+        <v>192</v>
+      </c>
+      <c r="D34">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6927</v>
+      </c>
+      <c r="C35">
+        <v>1280</v>
+      </c>
+      <c r="D35">
+        <v>8207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>682</v>
+      </c>
+      <c r="C36">
+        <v>143</v>
+      </c>
+      <c r="D36">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3267</v>
+      </c>
+      <c r="C37">
+        <v>524</v>
+      </c>
+      <c r="D37">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>182</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>103</v>
+      </c>
+      <c r="C39">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>404</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1668</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>283</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>237</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1277</v>
+      </c>
+      <c r="C45">
+        <v>613</v>
+      </c>
+      <c r="D45">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2451</v>
+      </c>
+      <c r="C46">
+        <v>837</v>
+      </c>
+      <c r="D46">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1570</v>
+      </c>
+      <c r="C47">
+        <v>203</v>
+      </c>
+      <c r="D47">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>873</v>
+      </c>
+      <c r="C48">
+        <v>598</v>
+      </c>
+      <c r="D48">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3270</v>
+      </c>
+      <c r="C49">
+        <v>1238</v>
+      </c>
+      <c r="D49">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>427</v>
+      </c>
+      <c r="C50">
+        <v>126</v>
+      </c>
+      <c r="D50">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>886</v>
+      </c>
+      <c r="C51">
+        <v>372</v>
+      </c>
+      <c r="D51">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>127</v>
+      </c>
+      <c r="C52">
+        <v>117</v>
+      </c>
+      <c r="D52">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>191</v>
+      </c>
+      <c r="C53">
+        <v>36</v>
+      </c>
+      <c r="D53">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>312</v>
+      </c>
+      <c r="C54">
+        <v>428</v>
+      </c>
+      <c r="D54">
+        <v>740</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11519,15 +12258,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>29728</v>
+        <v>34034</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>10483</v>
+        <v>12030</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>40211</v>
+        <v>46064</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11536,15 +12275,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>19620</v>
+        <v>22348</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>4251</v>
+        <v>5083</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>23871</v>
+        <v>27431</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11553,15 +12292,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>56459</v>
+        <v>64901</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>7997</v>
+        <v>9149</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>64456</v>
+        <v>74050</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11570,15 +12309,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>991</v>
+        <v>1083</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1238</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11587,15 +12326,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>35558</v>
+        <v>40254</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>7410</v>
+        <v>8524</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>42968</v>
+        <v>48778</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11604,15 +12343,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>3062</v>
+        <v>3581</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1640</v>
+        <v>1817</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>4702</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11621,15 +12360,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>3850</v>
+        <v>4310</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1000</v>
+        <v>1127</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>4850</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11638,15 +12377,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>1792</v>
+        <v>2055</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>350</v>
+        <v>434</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>2142</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11655,7 +12394,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -11663,7 +12402,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>466</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11689,15 +12428,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>646</v>
+        <v>731</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>862</v>
+        <v>981</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11706,15 +12445,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1311</v>
+        <v>1516</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>1868</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11723,15 +12462,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>3347</v>
+        <v>3834</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1339</v>
+        <v>1515</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>4686</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11740,15 +12479,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1950</v>
+        <v>2203</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>2355</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11757,15 +12496,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>2105</v>
+        <v>2319</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>456</v>
+        <v>549</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>2561</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11774,15 +12513,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>10731</v>
+        <v>12113</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>4305</v>
+        <v>5006</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>15036</v>
+        <v>17119</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11791,15 +12530,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>589</v>
+        <v>742</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>938</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11808,15 +12547,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>11729</v>
+        <v>13273</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>3169</v>
+        <v>3657</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>14898</v>
+        <v>16930</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11825,15 +12564,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>382</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11842,15 +12581,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>12106</v>
+        <v>13556</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>3492</v>
+        <v>3985</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>15598</v>
+        <v>17541</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11859,15 +12598,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>1899</v>
+        <v>2093</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>2367</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11876,15 +12615,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>14754</v>
+        <v>17124</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>4295</v>
+        <v>4932</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>19049</v>
+        <v>22056</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11893,15 +12632,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>62771</v>
+        <v>72862</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>10892</v>
+        <v>12563</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>73663</v>
+        <v>85425</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11910,15 +12649,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>4042</v>
+        <v>4621</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1170</v>
+        <v>1312</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>5212</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11944,15 +12683,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2292</v>
+        <v>2722</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1371</v>
+        <v>1642</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>3663</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11961,15 +12700,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>1826</v>
+        <v>2139</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>867</v>
+        <v>961</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>2693</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11978,15 +12717,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>12466</v>
+        <v>14040</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>4590</v>
+        <v>5294</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>17056</v>
+        <v>19334</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11995,15 +12734,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>341</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12012,15 +12751,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>2072</v>
+        <v>2445</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>442</v>
+        <v>550</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>2514</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12029,15 +12768,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>9237</v>
+        <v>10687</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>2788</v>
+        <v>3200</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>12025</v>
+        <v>13887</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12046,15 +12785,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>7092</v>
+        <v>7821</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>3004</v>
+        <v>3437</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>10096</v>
+        <v>11258</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12063,15 +12802,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>3876</v>
+        <v>4480</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1366</v>
+        <v>1558</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>5242</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12080,15 +12819,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>46866</v>
+        <v>53793</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>6138</v>
+        <v>7418</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>53004</v>
+        <v>61211</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12097,15 +12836,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>5394</v>
+        <v>6076</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1152</v>
+        <v>1295</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>6546</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12114,15 +12853,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>22603</v>
+        <v>25870</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>3631</v>
+        <v>4155</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>26234</v>
+        <v>30025</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12131,15 +12870,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>1406</v>
+        <v>1588</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>1560</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12148,15 +12887,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>725</v>
+        <v>828</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>1212</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12165,15 +12904,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>1616</v>
+        <v>2020</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>1744</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12182,15 +12921,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>10239</v>
+        <v>11907</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>10677</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12199,15 +12938,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>164</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12216,15 +12955,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>704</v>
+        <v>987</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>771</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12233,15 +12972,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>2853</v>
+        <v>3090</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>3303</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12250,15 +12989,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>9748</v>
+        <v>11025</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>3829</v>
+        <v>4442</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>13577</v>
+        <v>15467</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12267,15 +13006,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>20471</v>
+        <v>22922</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>7491</v>
+        <v>8328</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>27962</v>
+        <v>31250</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12284,15 +13023,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>11463</v>
+        <v>13033</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>1498</v>
+        <v>1701</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>12961</v>
+        <v>14734</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12301,15 +13040,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>6770</v>
+        <v>7643</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>4518</v>
+        <v>5116</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>11288</v>
+        <v>12759</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12318,15 +13057,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>21742</v>
+        <v>25012</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>5582</v>
+        <v>6820</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>27324</v>
+        <v>31832</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12335,15 +13074,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>3192</v>
+        <v>3619</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>1282</v>
+        <v>1408</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>4474</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12352,15 +13091,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>6674</v>
+        <v>7560</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>2578</v>
+        <v>2950</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>9252</v>
+        <v>10510</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12369,15 +13108,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>803</v>
+        <v>930</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1058</v>
+        <v>1175</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>1861</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12386,15 +13125,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1234</v>
+        <v>1425</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>1482</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12403,15 +13142,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>2230</v>
+        <v>2542</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>2608</v>
+        <v>3036</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>4838</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12420,15 +13159,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>7254</v>
+        <v>8284</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>2517</v>
+        <v>2871</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>9771</v>
+        <v>11155</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12437,15 +13176,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>12682</v>
+        <v>15104</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>674</v>
+        <v>707</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>13356</v>
+        <v>15811</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127B11B3-CBFC-4A7D-B804-73F79C30DC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0FBEA5-D92A-4BF7-A557-46DC04B2F775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" activeTab="14" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -61,15 +61,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -78,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -720,7 +711,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight" activeCell="A19" sqref="A19"/>
@@ -5815,7 +5806,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -7574,15 +7565,15 @@
       </c>
       <c r="B2" s="2">
         <f>SeptemberRaw!B2</f>
-        <v>0</v>
+        <v>4387</v>
       </c>
       <c r="C2" s="2">
         <f>SeptemberRaw!C2</f>
-        <v>0</v>
+        <v>1577</v>
       </c>
       <c r="D2" s="2">
         <f>SeptemberRaw!D2</f>
-        <v>0</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7591,15 +7582,15 @@
       </c>
       <c r="B3" s="3">
         <f>SeptemberRaw!B3</f>
-        <v>0</v>
+        <v>2549</v>
       </c>
       <c r="C3" s="3">
         <f>SeptemberRaw!C3</f>
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="D3" s="3">
         <f>SeptemberRaw!D3</f>
-        <v>0</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7608,15 +7599,15 @@
       </c>
       <c r="B4" s="2">
         <f>SeptemberRaw!B4</f>
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="C4" s="2">
         <f>SeptemberRaw!C4</f>
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="D4" s="2">
         <f>SeptemberRaw!D4</f>
-        <v>0</v>
+        <v>8574</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7625,15 +7616,15 @@
       </c>
       <c r="B5" s="3">
         <f>SeptemberRaw!B5</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3">
         <f>SeptemberRaw!C5</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
         <f>SeptemberRaw!D5</f>
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7642,15 +7633,15 @@
       </c>
       <c r="B6" s="2">
         <f>SeptemberRaw!B6</f>
-        <v>0</v>
+        <v>4983</v>
       </c>
       <c r="C6" s="2">
         <f>SeptemberRaw!C6</f>
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="D6" s="2">
         <f>SeptemberRaw!D6</f>
-        <v>0</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7659,15 +7650,15 @@
       </c>
       <c r="B7" s="3">
         <f>SeptemberRaw!B7</f>
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="C7" s="3">
         <f>SeptemberRaw!C7</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D7" s="3">
         <f>SeptemberRaw!D7</f>
-        <v>0</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7676,15 +7667,15 @@
       </c>
       <c r="B8" s="2">
         <f>SeptemberRaw!B8</f>
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="C8" s="2">
         <f>SeptemberRaw!C8</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2">
         <f>SeptemberRaw!D8</f>
-        <v>0</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7693,15 +7684,15 @@
       </c>
       <c r="B9" s="3">
         <f>SeptemberRaw!B9</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C9" s="3">
         <f>SeptemberRaw!C9</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3">
         <f>SeptemberRaw!D9</f>
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7710,15 +7701,15 @@
       </c>
       <c r="B10" s="2">
         <f>SeptemberRaw!B10</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <f>SeptemberRaw!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f>SeptemberRaw!D10</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7744,15 +7735,15 @@
       </c>
       <c r="B12" s="5">
         <f>SeptemberRaw!B12</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5">
         <f>SeptemberRaw!C12</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5">
         <f>SeptemberRaw!D12</f>
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7761,15 +7752,15 @@
       </c>
       <c r="B13" s="4">
         <f>SeptemberRaw!B13</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C13" s="4">
         <f>SeptemberRaw!C13</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D13" s="4">
         <f>SeptemberRaw!D13</f>
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7778,15 +7769,15 @@
       </c>
       <c r="B14" s="5">
         <f>SeptemberRaw!B14</f>
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="C14" s="5">
         <f>SeptemberRaw!C14</f>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D14" s="5">
         <f>SeptemberRaw!D14</f>
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7795,15 +7786,15 @@
       </c>
       <c r="B15" s="4">
         <f>SeptemberRaw!B15</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C15" s="4">
         <f>SeptemberRaw!C15</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4">
         <f>SeptemberRaw!D15</f>
-        <v>0</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7812,15 +7803,15 @@
       </c>
       <c r="B16" s="2">
         <f>SeptemberRaw!B16</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2">
         <f>SeptemberRaw!C16</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2">
         <f>SeptemberRaw!D16</f>
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7829,15 +7820,15 @@
       </c>
       <c r="B17" s="3">
         <f>SeptemberRaw!B17</f>
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="C17" s="3">
         <f>SeptemberRaw!C17</f>
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="D17" s="3">
         <f>SeptemberRaw!D17</f>
-        <v>0</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7846,15 +7837,15 @@
       </c>
       <c r="B18" s="2">
         <f>SeptemberRaw!B18</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2">
         <f>SeptemberRaw!C18</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2">
         <f>SeptemberRaw!D18</f>
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7863,15 +7854,15 @@
       </c>
       <c r="B19" s="3">
         <f>SeptemberRaw!B19</f>
-        <v>0</v>
+        <v>1449</v>
       </c>
       <c r="C19" s="3">
         <f>SeptemberRaw!C19</f>
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="D19" s="3">
         <f>SeptemberRaw!D19</f>
-        <v>0</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,15 +7871,15 @@
       </c>
       <c r="B20" s="2">
         <f>SeptemberRaw!B20</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
         <f>SeptemberRaw!C20</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <f>SeptemberRaw!D20</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7897,15 +7888,15 @@
       </c>
       <c r="B21" s="3">
         <f>SeptemberRaw!B21</f>
-        <v>0</v>
+        <v>1533</v>
       </c>
       <c r="C21" s="3">
         <f>SeptemberRaw!C21</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="D21" s="3">
         <f>SeptemberRaw!D21</f>
-        <v>0</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7914,15 +7905,15 @@
       </c>
       <c r="B22" s="2">
         <f>SeptemberRaw!B22</f>
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2">
         <f>SeptemberRaw!C22</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2">
         <f>SeptemberRaw!D22</f>
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7931,15 +7922,15 @@
       </c>
       <c r="B23" s="3">
         <f>SeptemberRaw!B23</f>
-        <v>0</v>
+        <v>2426</v>
       </c>
       <c r="C23" s="3">
         <f>SeptemberRaw!C23</f>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="D23" s="3">
         <f>SeptemberRaw!D23</f>
-        <v>0</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7948,15 +7939,15 @@
       </c>
       <c r="B24" s="2">
         <f>SeptemberRaw!B24</f>
-        <v>0</v>
+        <v>9354</v>
       </c>
       <c r="C24" s="2">
         <f>SeptemberRaw!C24</f>
-        <v>0</v>
+        <v>1706</v>
       </c>
       <c r="D24" s="2">
         <f>SeptemberRaw!D24</f>
-        <v>0</v>
+        <v>11060</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7965,15 +7956,15 @@
       </c>
       <c r="B25" s="3">
         <f>SeptemberRaw!B25</f>
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="C25" s="3">
         <f>SeptemberRaw!C25</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D25" s="3">
         <f>SeptemberRaw!D25</f>
-        <v>0</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7999,15 +7990,15 @@
       </c>
       <c r="B27" s="3">
         <f>SeptemberRaw!B27</f>
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="C27" s="3">
         <f>SeptemberRaw!C27</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="D27" s="3">
         <f>SeptemberRaw!D27</f>
-        <v>0</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8016,15 +8007,15 @@
       </c>
       <c r="B28" s="2">
         <f>SeptemberRaw!B28</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C28" s="2">
         <f>SeptemberRaw!C28</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2">
         <f>SeptemberRaw!D28</f>
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8033,15 +8024,15 @@
       </c>
       <c r="B29" s="3">
         <f>SeptemberRaw!B29</f>
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="C29" s="3">
         <f>SeptemberRaw!C29</f>
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="D29" s="3">
         <f>SeptemberRaw!D29</f>
-        <v>0</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8050,15 +8041,15 @@
       </c>
       <c r="B30" s="2">
         <f>SeptemberRaw!B30</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
         <f>SeptemberRaw!C30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2">
         <f>SeptemberRaw!D30</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8067,15 +8058,15 @@
       </c>
       <c r="B31" s="3">
         <f>SeptemberRaw!B31</f>
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="C31" s="3">
         <f>SeptemberRaw!C31</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D31" s="3">
         <f>SeptemberRaw!D31</f>
-        <v>0</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8084,15 +8075,15 @@
       </c>
       <c r="B32" s="2">
         <f>SeptemberRaw!B32</f>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="C32" s="2">
         <f>SeptemberRaw!C32</f>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="D32" s="2">
         <f>SeptemberRaw!D32</f>
-        <v>0</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8101,15 +8092,15 @@
       </c>
       <c r="B33" s="3">
         <f>SeptemberRaw!B33</f>
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="C33" s="3">
         <f>SeptemberRaw!C33</f>
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="D33" s="3">
         <f>SeptemberRaw!D33</f>
-        <v>0</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8118,15 +8109,15 @@
       </c>
       <c r="B34" s="2">
         <f>SeptemberRaw!B34</f>
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="C34" s="2">
         <f>SeptemberRaw!C34</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D34" s="2">
         <f>SeptemberRaw!D34</f>
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8135,15 +8126,15 @@
       </c>
       <c r="B35" s="3">
         <f>SeptemberRaw!B35</f>
-        <v>0</v>
+        <v>7209</v>
       </c>
       <c r="C35" s="3">
         <f>SeptemberRaw!C35</f>
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="D35" s="3">
         <f>SeptemberRaw!D35</f>
-        <v>0</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8152,15 +8143,15 @@
       </c>
       <c r="B36" s="2">
         <f>SeptemberRaw!B36</f>
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="C36" s="2">
         <f>SeptemberRaw!C36</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D36" s="2">
         <f>SeptemberRaw!D36</f>
-        <v>0</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8169,15 +8160,15 @@
       </c>
       <c r="B37" s="3">
         <f>SeptemberRaw!B37</f>
-        <v>0</v>
+        <v>3326</v>
       </c>
       <c r="C37" s="3">
         <f>SeptemberRaw!C37</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D37" s="3">
         <f>SeptemberRaw!D37</f>
-        <v>0</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8186,15 +8177,15 @@
       </c>
       <c r="B38" s="2">
         <f>SeptemberRaw!B38</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="C38" s="2">
         <f>SeptemberRaw!C38</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <f>SeptemberRaw!D38</f>
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8203,15 +8194,15 @@
       </c>
       <c r="B39" s="3">
         <f>SeptemberRaw!B39</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C39" s="3">
         <f>SeptemberRaw!C39</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D39" s="3">
         <f>SeptemberRaw!D39</f>
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8220,15 +8211,15 @@
       </c>
       <c r="B40" s="6">
         <f>SeptemberRaw!B40</f>
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="C40" s="6">
         <f>SeptemberRaw!C40</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D40" s="6">
         <f>SeptemberRaw!D40</f>
-        <v>0</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8237,15 +8228,15 @@
       </c>
       <c r="B41" s="7">
         <f>SeptemberRaw!B41</f>
-        <v>0</v>
+        <v>2229</v>
       </c>
       <c r="C41" s="7">
         <f>SeptemberRaw!C41</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D41" s="7">
         <f>SeptemberRaw!D41</f>
-        <v>0</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8254,15 +8245,15 @@
       </c>
       <c r="B42" s="6">
         <f>SeptemberRaw!B42</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C42" s="6">
         <f>SeptemberRaw!C42</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D42" s="6">
         <f>SeptemberRaw!D42</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8271,15 +8262,15 @@
       </c>
       <c r="B43" s="7">
         <f>SeptemberRaw!B43</f>
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="C43" s="7">
         <f>SeptemberRaw!C43</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D43" s="7">
         <f>SeptemberRaw!D43</f>
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8288,15 +8279,15 @@
       </c>
       <c r="B44" s="2">
         <f>SeptemberRaw!B44</f>
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2">
         <f>SeptemberRaw!C44</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2">
         <f>SeptemberRaw!D44</f>
-        <v>0</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8305,15 +8296,15 @@
       </c>
       <c r="B45" s="3">
         <f>SeptemberRaw!B45</f>
-        <v>0</v>
+        <v>1453</v>
       </c>
       <c r="C45" s="3">
         <f>SeptemberRaw!C45</f>
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="D45" s="3">
         <f>SeptemberRaw!D45</f>
-        <v>0</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8322,15 +8313,15 @@
       </c>
       <c r="B46" s="2">
         <f>SeptemberRaw!B46</f>
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="C46" s="2">
         <f>SeptemberRaw!C46</f>
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="D46" s="2">
         <f>SeptemberRaw!D46</f>
-        <v>0</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8339,15 +8330,15 @@
       </c>
       <c r="B47" s="3">
         <f>SeptemberRaw!B47</f>
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="C47" s="3">
         <f>SeptemberRaw!C47</f>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D47" s="3">
         <f>SeptemberRaw!D47</f>
-        <v>0</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8356,15 +8347,15 @@
       </c>
       <c r="B48" s="2">
         <f>SeptemberRaw!B48</f>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="C48" s="2">
         <f>SeptemberRaw!C48</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D48" s="2">
         <f>SeptemberRaw!D48</f>
-        <v>0</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8373,15 +8364,15 @@
       </c>
       <c r="B49" s="3">
         <f>SeptemberRaw!B49</f>
-        <v>0</v>
+        <v>2930</v>
       </c>
       <c r="C49" s="3">
         <f>SeptemberRaw!C49</f>
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="D49" s="3">
         <f>SeptemberRaw!D49</f>
-        <v>0</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8390,15 +8381,15 @@
       </c>
       <c r="B50" s="2">
         <f>SeptemberRaw!B50</f>
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2">
         <f>SeptemberRaw!C50</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2">
         <f>SeptemberRaw!D50</f>
-        <v>0</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8407,15 +8398,15 @@
       </c>
       <c r="B51" s="3">
         <f>SeptemberRaw!B51</f>
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="C51" s="3">
         <f>SeptemberRaw!C51</f>
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="D51" s="3">
         <f>SeptemberRaw!D51</f>
-        <v>0</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8424,15 +8415,15 @@
       </c>
       <c r="B52" s="2">
         <f>SeptemberRaw!B52</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2">
         <f>SeptemberRaw!C52</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D52" s="2">
         <f>SeptemberRaw!D52</f>
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8441,15 +8432,15 @@
       </c>
       <c r="B53" s="3">
         <f>SeptemberRaw!B53</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C53" s="3">
         <f>SeptemberRaw!C53</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D53" s="3">
         <f>SeptemberRaw!D53</f>
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8458,15 +8449,15 @@
       </c>
       <c r="B54" s="2">
         <f>SeptemberRaw!B54</f>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="C54" s="2">
         <f>SeptemberRaw!C54</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="D54" s="2">
         <f>SeptemberRaw!D54</f>
-        <v>0</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8475,15 +8466,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8492,15 +8483,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>0</v>
+        <v>3263</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>0</v>
+        <v>3420</v>
       </c>
     </row>
   </sheetData>
@@ -8512,12 +8503,751 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA334AD-2ADE-48B8-8564-C073D8851F0D}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4387</v>
+      </c>
+      <c r="C2">
+        <v>1577</v>
+      </c>
+      <c r="D2">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2549</v>
+      </c>
+      <c r="C3">
+        <v>670</v>
+      </c>
+      <c r="D3">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7400</v>
+      </c>
+      <c r="C4">
+        <v>1174</v>
+      </c>
+      <c r="D4">
+        <v>8574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4983</v>
+      </c>
+      <c r="C6">
+        <v>1190</v>
+      </c>
+      <c r="D6">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>509</v>
+      </c>
+      <c r="C7">
+        <v>224</v>
+      </c>
+      <c r="D7">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>574</v>
+      </c>
+      <c r="C8">
+        <v>177</v>
+      </c>
+      <c r="D8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>240</v>
+      </c>
+      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>91</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>199</v>
+      </c>
+      <c r="C13">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>441</v>
+      </c>
+      <c r="C14">
+        <v>217</v>
+      </c>
+      <c r="D14">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>163</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1204</v>
+      </c>
+      <c r="C17">
+        <v>617</v>
+      </c>
+      <c r="D17">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>81</v>
+      </c>
+      <c r="D18">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1449</v>
+      </c>
+      <c r="C19">
+        <v>619</v>
+      </c>
+      <c r="D19">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1533</v>
+      </c>
+      <c r="C21">
+        <v>525</v>
+      </c>
+      <c r="D21">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>249</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2426</v>
+      </c>
+      <c r="C23">
+        <v>770</v>
+      </c>
+      <c r="D23">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>9354</v>
+      </c>
+      <c r="C24">
+        <v>1706</v>
+      </c>
+      <c r="D24">
+        <v>11060</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>445</v>
+      </c>
+      <c r="C25">
+        <v>145</v>
+      </c>
+      <c r="D25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>379</v>
+      </c>
+      <c r="C27">
+        <v>266</v>
+      </c>
+      <c r="D27">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>350</v>
+      </c>
+      <c r="C28">
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1344</v>
+      </c>
+      <c r="C29">
+        <v>570</v>
+      </c>
+      <c r="D29">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>339</v>
+      </c>
+      <c r="C31">
+        <v>94</v>
+      </c>
+      <c r="D31">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1320</v>
+      </c>
+      <c r="C32">
+        <v>408</v>
+      </c>
+      <c r="D32">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>687</v>
+      </c>
+      <c r="C33">
+        <v>442</v>
+      </c>
+      <c r="D33">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>482</v>
+      </c>
+      <c r="C34">
+        <v>172</v>
+      </c>
+      <c r="D34">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7209</v>
+      </c>
+      <c r="C35">
+        <v>1531</v>
+      </c>
+      <c r="D35">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>661</v>
+      </c>
+      <c r="C36">
+        <v>169</v>
+      </c>
+      <c r="D36">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3326</v>
+      </c>
+      <c r="C37">
+        <v>480</v>
+      </c>
+      <c r="D37">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>220</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+      <c r="C39">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>707</v>
+      </c>
+      <c r="C40">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2229</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>241</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>362</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1453</v>
+      </c>
+      <c r="C45">
+        <v>583</v>
+      </c>
+      <c r="D45">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2350</v>
+      </c>
+      <c r="C46">
+        <v>965</v>
+      </c>
+      <c r="D46">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1389</v>
+      </c>
+      <c r="C47">
+        <v>235</v>
+      </c>
+      <c r="D47">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>660</v>
+      </c>
+      <c r="C48">
+        <v>450</v>
+      </c>
+      <c r="D48">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2930</v>
+      </c>
+      <c r="C49">
+        <v>869</v>
+      </c>
+      <c r="D49">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>403</v>
+      </c>
+      <c r="C50">
+        <v>95</v>
+      </c>
+      <c r="D50">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>949</v>
+      </c>
+      <c r="C51">
+        <v>317</v>
+      </c>
+      <c r="D51">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>96</v>
+      </c>
+      <c r="C52">
+        <v>260</v>
+      </c>
+      <c r="D52">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>267</v>
+      </c>
+      <c r="C53">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>304</v>
+      </c>
+      <c r="C54">
+        <v>343</v>
+      </c>
+      <c r="D54">
+        <v>647</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12258,15 +12988,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>34034</v>
+        <v>38421</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>12030</v>
+        <v>13607</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>46064</v>
+        <v>52028</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12275,15 +13005,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>22348</v>
+        <v>24897</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>5083</v>
+        <v>5753</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>27431</v>
+        <v>30650</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12292,15 +13022,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>64901</v>
+        <v>72301</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>9149</v>
+        <v>10323</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>74050</v>
+        <v>82624</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12309,15 +13039,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>1083</v>
+        <v>1146</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1364</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12326,15 +13056,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>40254</v>
+        <v>45237</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>8524</v>
+        <v>9714</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>48778</v>
+        <v>54951</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12343,15 +13073,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>3581</v>
+        <v>4090</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1817</v>
+        <v>2041</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>5398</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12360,15 +13090,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>4310</v>
+        <v>4884</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1127</v>
+        <v>1304</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>5437</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12377,15 +13107,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>2055</v>
+        <v>2295</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>434</v>
+        <v>522</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>2489</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12394,15 +13124,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>524</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12428,15 +13158,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>731</v>
+        <v>822</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>981</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12445,15 +13175,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1516</v>
+        <v>1715</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>641</v>
+        <v>735</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>2157</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12462,15 +13192,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>3834</v>
+        <v>4275</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1515</v>
+        <v>1732</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>5349</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12479,15 +13209,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>2203</v>
+        <v>2523</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>2668</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12496,15 +13226,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>2319</v>
+        <v>2482</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>2868</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12513,15 +13243,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>12113</v>
+        <v>13317</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>5006</v>
+        <v>5623</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>17119</v>
+        <v>18940</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12530,15 +13260,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>742</v>
+        <v>827</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>367</v>
+        <v>448</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>1109</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12547,15 +13277,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>13273</v>
+        <v>14722</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>3657</v>
+        <v>4276</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>16930</v>
+        <v>18998</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12564,15 +13294,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>429</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12581,15 +13311,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>13556</v>
+        <v>15089</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>3985</v>
+        <v>4510</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>17541</v>
+        <v>19599</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12598,15 +13328,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>2093</v>
+        <v>2342</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>2625</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12615,15 +13345,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>17124</v>
+        <v>19550</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>4932</v>
+        <v>5702</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>22056</v>
+        <v>25252</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12632,15 +13362,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>72862</v>
+        <v>82216</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>12563</v>
+        <v>14269</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>85425</v>
+        <v>96485</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12649,15 +13379,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>4621</v>
+        <v>5066</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1312</v>
+        <v>1457</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>5933</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12683,15 +13413,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2722</v>
+        <v>3101</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1642</v>
+        <v>1908</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>4364</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12700,15 +13430,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>2139</v>
+        <v>2489</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>961</v>
+        <v>1080</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>3100</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12717,15 +13447,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>14040</v>
+        <v>15384</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>5294</v>
+        <v>5864</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>19334</v>
+        <v>21248</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12734,15 +13464,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>420</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12751,15 +13481,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>2445</v>
+        <v>2784</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>2995</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12768,15 +13498,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>10687</v>
+        <v>12007</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>3200</v>
+        <v>3608</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>13887</v>
+        <v>15615</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12785,15 +13515,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>7821</v>
+        <v>8508</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>3437</v>
+        <v>3879</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>11258</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12802,15 +13532,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>4480</v>
+        <v>4962</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1558</v>
+        <v>1730</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>6038</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12819,15 +13549,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>53793</v>
+        <v>61002</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>7418</v>
+        <v>8949</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>61211</v>
+        <v>69951</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12836,15 +13566,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>6076</v>
+        <v>6737</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1295</v>
+        <v>1464</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>7371</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12853,15 +13583,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>25870</v>
+        <v>29196</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>4155</v>
+        <v>4635</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>30025</v>
+        <v>33831</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12870,15 +13600,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>1588</v>
+        <v>1808</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>1767</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12887,15 +13617,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>828</v>
+        <v>958</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>555</v>
+        <v>646</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>1383</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12904,15 +13634,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>2020</v>
+        <v>2727</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>2164</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12921,15 +13651,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>11907</v>
+        <v>14136</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>12350</v>
+        <v>14620</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12938,15 +13668,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>238</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12955,15 +13685,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>987</v>
+        <v>1228</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>1059</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12972,15 +13702,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>3090</v>
+        <v>3452</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>481</v>
+        <v>581</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>3571</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12989,15 +13719,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>11025</v>
+        <v>12478</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>4442</v>
+        <v>5025</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>15467</v>
+        <v>17503</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13006,15 +13736,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>22922</v>
+        <v>25272</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>8328</v>
+        <v>9293</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>31250</v>
+        <v>34565</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13023,15 +13753,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>13033</v>
+        <v>14422</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>1701</v>
+        <v>1936</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>14734</v>
+        <v>16358</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13040,15 +13770,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>7643</v>
+        <v>8303</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>5116</v>
+        <v>5566</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>12759</v>
+        <v>13869</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13057,15 +13787,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>25012</v>
+        <v>27942</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>6820</v>
+        <v>7689</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>31832</v>
+        <v>35631</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13074,15 +13804,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>3619</v>
+        <v>4022</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>1408</v>
+        <v>1503</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>5027</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13091,15 +13821,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>7560</v>
+        <v>8509</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>2950</v>
+        <v>3267</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>10510</v>
+        <v>11776</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13108,15 +13838,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>930</v>
+        <v>1026</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1175</v>
+        <v>1435</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>2105</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13125,15 +13855,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1425</v>
+        <v>1692</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>1709</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13142,15 +13872,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>2542</v>
+        <v>2846</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>3036</v>
+        <v>3379</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>5578</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13159,15 +13889,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>8284</v>
+        <v>9335</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>2871</v>
+        <v>3263</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>11155</v>
+        <v>12598</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13176,15 +13906,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>15104</v>
+        <v>18367</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>707</v>
+        <v>864</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>15811</v>
+        <v>19231</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0FBEA5-D92A-4BF7-A557-46DC04B2F775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B474D7-1EF9-4F8E-9B72-800BC555818E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -9290,15 +9290,15 @@
       </c>
       <c r="B2" s="2">
         <f>OctoberRaw!B2</f>
-        <v>0</v>
+        <v>4143</v>
       </c>
       <c r="C2" s="2">
         <f>OctoberRaw!C2</f>
-        <v>0</v>
+        <v>1655</v>
       </c>
       <c r="D2" s="2">
         <f>OctoberRaw!D2</f>
-        <v>0</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9307,15 +9307,15 @@
       </c>
       <c r="B3" s="3">
         <f>OctoberRaw!B3</f>
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="C3" s="3">
         <f>OctoberRaw!C3</f>
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="D3" s="3">
         <f>OctoberRaw!D3</f>
-        <v>0</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9324,15 +9324,15 @@
       </c>
       <c r="B4" s="2">
         <f>OctoberRaw!B4</f>
-        <v>0</v>
+        <v>7249</v>
       </c>
       <c r="C4" s="2">
         <f>OctoberRaw!C4</f>
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="D4" s="2">
         <f>OctoberRaw!D4</f>
-        <v>0</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9341,15 +9341,15 @@
       </c>
       <c r="B5" s="3">
         <f>OctoberRaw!B5</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3">
         <f>OctoberRaw!C5</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <f>OctoberRaw!D5</f>
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9358,15 +9358,15 @@
       </c>
       <c r="B6" s="2">
         <f>OctoberRaw!B6</f>
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="C6" s="2">
         <f>OctoberRaw!C6</f>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="D6" s="2">
         <f>OctoberRaw!D6</f>
-        <v>0</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9375,15 +9375,15 @@
       </c>
       <c r="B7" s="3">
         <f>OctoberRaw!B7</f>
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="C7" s="3">
         <f>OctoberRaw!C7</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D7" s="3">
         <f>OctoberRaw!D7</f>
-        <v>0</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9392,15 +9392,15 @@
       </c>
       <c r="B8" s="2">
         <f>OctoberRaw!B8</f>
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="C8" s="2">
         <f>OctoberRaw!C8</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D8" s="2">
         <f>OctoberRaw!D8</f>
-        <v>0</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9409,15 +9409,15 @@
       </c>
       <c r="B9" s="3">
         <f>OctoberRaw!B9</f>
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="C9" s="3">
         <f>OctoberRaw!C9</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D9" s="3">
         <f>OctoberRaw!D9</f>
-        <v>0</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9426,15 +9426,15 @@
       </c>
       <c r="B10" s="2">
         <f>OctoberRaw!B10</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <f>OctoberRaw!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f>OctoberRaw!D10</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9460,15 +9460,15 @@
       </c>
       <c r="B12" s="5">
         <f>OctoberRaw!B12</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5">
         <f>OctoberRaw!C12</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5">
         <f>OctoberRaw!D12</f>
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9477,15 +9477,15 @@
       </c>
       <c r="B13" s="4">
         <f>OctoberRaw!B13</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4">
         <f>OctoberRaw!C13</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4">
         <f>OctoberRaw!D13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9494,15 +9494,15 @@
       </c>
       <c r="B14" s="5">
         <f>OctoberRaw!B14</f>
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="C14" s="5">
         <f>OctoberRaw!C14</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D14" s="5">
         <f>OctoberRaw!D14</f>
-        <v>0</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9511,15 +9511,15 @@
       </c>
       <c r="B15" s="4">
         <f>OctoberRaw!B15</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="C15" s="4">
         <f>OctoberRaw!C15</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D15" s="4">
         <f>OctoberRaw!D15</f>
-        <v>0</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9528,15 +9528,15 @@
       </c>
       <c r="B16" s="2">
         <f>OctoberRaw!B16</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2">
         <f>OctoberRaw!C16</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2">
         <f>OctoberRaw!D16</f>
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9545,15 +9545,15 @@
       </c>
       <c r="B17" s="3">
         <f>OctoberRaw!B17</f>
-        <v>0</v>
+        <v>1317</v>
       </c>
       <c r="C17" s="3">
         <f>OctoberRaw!C17</f>
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="D17" s="3">
         <f>OctoberRaw!D17</f>
-        <v>0</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9562,15 +9562,15 @@
       </c>
       <c r="B18" s="2">
         <f>OctoberRaw!B18</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2">
         <f>OctoberRaw!C18</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2">
         <f>OctoberRaw!D18</f>
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9579,15 +9579,15 @@
       </c>
       <c r="B19" s="3">
         <f>OctoberRaw!B19</f>
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="C19" s="3">
         <f>OctoberRaw!C19</f>
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="D19" s="3">
         <f>OctoberRaw!D19</f>
-        <v>0</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9596,15 +9596,15 @@
       </c>
       <c r="B20" s="2">
         <f>OctoberRaw!B20</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <f>OctoberRaw!C20</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2">
         <f>OctoberRaw!D20</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9613,15 +9613,15 @@
       </c>
       <c r="B21" s="3">
         <f>OctoberRaw!B21</f>
-        <v>0</v>
+        <v>1661</v>
       </c>
       <c r="C21" s="3">
         <f>OctoberRaw!C21</f>
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="D21" s="3">
         <f>OctoberRaw!D21</f>
-        <v>0</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9630,15 +9630,15 @@
       </c>
       <c r="B22" s="2">
         <f>OctoberRaw!B22</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2">
         <f>OctoberRaw!C22</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2">
         <f>OctoberRaw!D22</f>
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9647,15 +9647,15 @@
       </c>
       <c r="B23" s="3">
         <f>OctoberRaw!B23</f>
-        <v>0</v>
+        <v>2279</v>
       </c>
       <c r="C23" s="3">
         <f>OctoberRaw!C23</f>
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="D23" s="3">
         <f>OctoberRaw!D23</f>
-        <v>0</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9664,15 +9664,15 @@
       </c>
       <c r="B24" s="2">
         <f>OctoberRaw!B24</f>
-        <v>0</v>
+        <v>10628</v>
       </c>
       <c r="C24" s="2">
         <f>OctoberRaw!C24</f>
-        <v>0</v>
+        <v>2075</v>
       </c>
       <c r="D24" s="2">
         <f>OctoberRaw!D24</f>
-        <v>0</v>
+        <v>12703</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9681,15 +9681,15 @@
       </c>
       <c r="B25" s="3">
         <f>OctoberRaw!B25</f>
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="C25" s="3">
         <f>OctoberRaw!C25</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D25" s="3">
         <f>OctoberRaw!D25</f>
-        <v>0</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9715,15 +9715,15 @@
       </c>
       <c r="B27" s="3">
         <f>OctoberRaw!B27</f>
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="C27" s="3">
         <f>OctoberRaw!C27</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D27" s="3">
         <f>OctoberRaw!D27</f>
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9732,15 +9732,15 @@
       </c>
       <c r="B28" s="2">
         <f>OctoberRaw!B28</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="C28" s="2">
         <f>OctoberRaw!C28</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D28" s="2">
         <f>OctoberRaw!D28</f>
-        <v>0</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9749,15 +9749,15 @@
       </c>
       <c r="B29" s="3">
         <f>OctoberRaw!B29</f>
-        <v>0</v>
+        <v>1831</v>
       </c>
       <c r="C29" s="3">
         <f>OctoberRaw!C29</f>
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="D29" s="3">
         <f>OctoberRaw!D29</f>
-        <v>0</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9766,15 +9766,15 @@
       </c>
       <c r="B30" s="2">
         <f>OctoberRaw!B30</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
         <f>OctoberRaw!C30</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2">
         <f>OctoberRaw!D30</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9783,15 +9783,15 @@
       </c>
       <c r="B31" s="3">
         <f>OctoberRaw!B31</f>
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="C31" s="3">
         <f>OctoberRaw!C31</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D31" s="3">
         <f>OctoberRaw!D31</f>
-        <v>0</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9800,15 +9800,15 @@
       </c>
       <c r="B32" s="2">
         <f>OctoberRaw!B32</f>
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="C32" s="2">
         <f>OctoberRaw!C32</f>
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="D32" s="2">
         <f>OctoberRaw!D32</f>
-        <v>0</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9817,15 +9817,15 @@
       </c>
       <c r="B33" s="3">
         <f>OctoberRaw!B33</f>
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="C33" s="3">
         <f>OctoberRaw!C33</f>
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="D33" s="3">
         <f>OctoberRaw!D33</f>
-        <v>0</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9834,15 +9834,15 @@
       </c>
       <c r="B34" s="2">
         <f>OctoberRaw!B34</f>
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="C34" s="2">
         <f>OctoberRaw!C34</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D34" s="2">
         <f>OctoberRaw!D34</f>
-        <v>0</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9851,15 +9851,15 @@
       </c>
       <c r="B35" s="3">
         <f>OctoberRaw!B35</f>
-        <v>0</v>
+        <v>6024</v>
       </c>
       <c r="C35" s="3">
         <f>OctoberRaw!C35</f>
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="D35" s="3">
         <f>OctoberRaw!D35</f>
-        <v>0</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9868,15 +9868,15 @@
       </c>
       <c r="B36" s="2">
         <f>OctoberRaw!B36</f>
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="C36" s="2">
         <f>OctoberRaw!C36</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2">
         <f>OctoberRaw!D36</f>
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9885,15 +9885,15 @@
       </c>
       <c r="B37" s="3">
         <f>OctoberRaw!B37</f>
-        <v>0</v>
+        <v>3196</v>
       </c>
       <c r="C37" s="3">
         <f>OctoberRaw!C37</f>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="D37" s="3">
         <f>OctoberRaw!D37</f>
-        <v>0</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9902,15 +9902,15 @@
       </c>
       <c r="B38" s="2">
         <f>OctoberRaw!B38</f>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2">
         <f>OctoberRaw!C38</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2">
         <f>OctoberRaw!D38</f>
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9919,15 +9919,15 @@
       </c>
       <c r="B39" s="3">
         <f>OctoberRaw!B39</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C39" s="3">
         <f>OctoberRaw!C39</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3">
         <f>OctoberRaw!D39</f>
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9936,15 +9936,15 @@
       </c>
       <c r="B40" s="6">
         <f>OctoberRaw!B40</f>
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="C40" s="6">
         <f>OctoberRaw!C40</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D40" s="6">
         <f>OctoberRaw!D40</f>
-        <v>0</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9953,15 +9953,15 @@
       </c>
       <c r="B41" s="7">
         <f>OctoberRaw!B41</f>
-        <v>0</v>
+        <v>2560</v>
       </c>
       <c r="C41" s="7">
         <f>OctoberRaw!C41</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D41" s="7">
         <f>OctoberRaw!D41</f>
-        <v>0</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9970,15 +9970,15 @@
       </c>
       <c r="B42" s="6">
         <f>OctoberRaw!B42</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C42" s="6">
         <f>OctoberRaw!C42</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D42" s="6">
         <f>OctoberRaw!D42</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9987,15 +9987,15 @@
       </c>
       <c r="B43" s="7">
         <f>OctoberRaw!B43</f>
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C43" s="7">
         <f>OctoberRaw!C43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D43" s="7">
         <f>OctoberRaw!D43</f>
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10004,15 +10004,15 @@
       </c>
       <c r="B44" s="2">
         <f>OctoberRaw!B44</f>
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="C44" s="2">
         <f>OctoberRaw!C44</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2">
         <f>OctoberRaw!D44</f>
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10021,15 +10021,15 @@
       </c>
       <c r="B45" s="3">
         <f>OctoberRaw!B45</f>
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="C45" s="3">
         <f>OctoberRaw!C45</f>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="D45" s="3">
         <f>OctoberRaw!D45</f>
-        <v>0</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10038,15 +10038,15 @@
       </c>
       <c r="B46" s="2">
         <f>OctoberRaw!B46</f>
-        <v>0</v>
+        <v>2713</v>
       </c>
       <c r="C46" s="2">
         <f>OctoberRaw!C46</f>
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="D46" s="2">
         <f>OctoberRaw!D46</f>
-        <v>0</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10055,15 +10055,15 @@
       </c>
       <c r="B47" s="3">
         <f>OctoberRaw!B47</f>
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="C47" s="3">
         <f>OctoberRaw!C47</f>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="D47" s="3">
         <f>OctoberRaw!D47</f>
-        <v>0</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10072,15 +10072,15 @@
       </c>
       <c r="B48" s="2">
         <f>OctoberRaw!B48</f>
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="C48" s="2">
         <f>OctoberRaw!C48</f>
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="D48" s="2">
         <f>OctoberRaw!D48</f>
-        <v>0</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10089,15 +10089,15 @@
       </c>
       <c r="B49" s="3">
         <f>OctoberRaw!B49</f>
-        <v>0</v>
+        <v>3080</v>
       </c>
       <c r="C49" s="3">
         <f>OctoberRaw!C49</f>
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="D49" s="3">
         <f>OctoberRaw!D49</f>
-        <v>0</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10106,15 +10106,15 @@
       </c>
       <c r="B50" s="2">
         <f>OctoberRaw!B50</f>
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="C50" s="2">
         <f>OctoberRaw!C50</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D50" s="2">
         <f>OctoberRaw!D50</f>
-        <v>0</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10123,15 +10123,15 @@
       </c>
       <c r="B51" s="3">
         <f>OctoberRaw!B51</f>
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="C51" s="3">
         <f>OctoberRaw!C51</f>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="D51" s="3">
         <f>OctoberRaw!D51</f>
-        <v>0</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10140,15 +10140,15 @@
       </c>
       <c r="B52" s="2">
         <f>OctoberRaw!B52</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2">
         <f>OctoberRaw!C52</f>
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="D52" s="2">
         <f>OctoberRaw!D52</f>
-        <v>0</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10157,15 +10157,15 @@
       </c>
       <c r="B53" s="3">
         <f>OctoberRaw!B53</f>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C53" s="3">
         <f>OctoberRaw!C53</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D53" s="3">
         <f>OctoberRaw!D53</f>
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10174,15 +10174,15 @@
       </c>
       <c r="B54" s="2">
         <f>OctoberRaw!B54</f>
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2">
         <f>OctoberRaw!C54</f>
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="D54" s="2">
         <f>OctoberRaw!D54</f>
-        <v>0</v>
+        <v>911</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10191,15 +10191,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,15 +10208,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>0</v>
+        <v>3421</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>0</v>
+        <v>3555</v>
       </c>
     </row>
   </sheetData>
@@ -10980,12 +10980,751 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EDC6F-90A6-4086-B305-126909618543}">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4143</v>
+      </c>
+      <c r="C2">
+        <v>1655</v>
+      </c>
+      <c r="D2">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2526</v>
+      </c>
+      <c r="C3">
+        <v>570</v>
+      </c>
+      <c r="D3">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7249</v>
+      </c>
+      <c r="C4">
+        <v>1051</v>
+      </c>
+      <c r="D4">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5040</v>
+      </c>
+      <c r="C6">
+        <v>1320</v>
+      </c>
+      <c r="D6">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>497</v>
+      </c>
+      <c r="C7">
+        <v>214</v>
+      </c>
+      <c r="D7">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>445</v>
+      </c>
+      <c r="C8">
+        <v>182</v>
+      </c>
+      <c r="D8">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>287</v>
+      </c>
+      <c r="C9">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>413</v>
+      </c>
+      <c r="C14">
+        <v>219</v>
+      </c>
+      <c r="D14">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>364</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>166</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1317</v>
+      </c>
+      <c r="C17">
+        <v>638</v>
+      </c>
+      <c r="D17">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>109</v>
+      </c>
+      <c r="D18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1440</v>
+      </c>
+      <c r="C19">
+        <v>505</v>
+      </c>
+      <c r="D19">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1661</v>
+      </c>
+      <c r="C21">
+        <v>562</v>
+      </c>
+      <c r="D21">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>224</v>
+      </c>
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2279</v>
+      </c>
+      <c r="C23">
+        <v>725</v>
+      </c>
+      <c r="D23">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>10628</v>
+      </c>
+      <c r="C24">
+        <v>2075</v>
+      </c>
+      <c r="D24">
+        <v>12703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>472</v>
+      </c>
+      <c r="C25">
+        <v>119</v>
+      </c>
+      <c r="D25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>426</v>
+      </c>
+      <c r="C27">
+        <v>218</v>
+      </c>
+      <c r="D27">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>342</v>
+      </c>
+      <c r="C28">
+        <v>180</v>
+      </c>
+      <c r="D28">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1831</v>
+      </c>
+      <c r="C29">
+        <v>646</v>
+      </c>
+      <c r="D29">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>359</v>
+      </c>
+      <c r="C31">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1334</v>
+      </c>
+      <c r="C32">
+        <v>547</v>
+      </c>
+      <c r="D32">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>832</v>
+      </c>
+      <c r="C33">
+        <v>394</v>
+      </c>
+      <c r="D33">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>477</v>
+      </c>
+      <c r="C34">
+        <v>190</v>
+      </c>
+      <c r="D34">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6024</v>
+      </c>
+      <c r="C35">
+        <v>1106</v>
+      </c>
+      <c r="D35">
+        <v>7130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>683</v>
+      </c>
+      <c r="C36">
+        <v>142</v>
+      </c>
+      <c r="D36">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3196</v>
+      </c>
+      <c r="C37">
+        <v>565</v>
+      </c>
+      <c r="D37">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>147</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>106</v>
+      </c>
+      <c r="D39">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>547</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2560</v>
+      </c>
+      <c r="C41">
+        <v>72</v>
+      </c>
+      <c r="D41">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>272</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>395</v>
+      </c>
+      <c r="C44">
+        <v>74</v>
+      </c>
+      <c r="D44">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1330</v>
+      </c>
+      <c r="C45">
+        <v>652</v>
+      </c>
+      <c r="D45">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2713</v>
+      </c>
+      <c r="C46">
+        <v>973</v>
+      </c>
+      <c r="D46">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1502</v>
+      </c>
+      <c r="C47">
+        <v>278</v>
+      </c>
+      <c r="D47">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>703</v>
+      </c>
+      <c r="C48">
+        <v>452</v>
+      </c>
+      <c r="D48">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3080</v>
+      </c>
+      <c r="C49">
+        <v>1011</v>
+      </c>
+      <c r="D49">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>538</v>
+      </c>
+      <c r="C50">
+        <v>150</v>
+      </c>
+      <c r="D50">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>898</v>
+      </c>
+      <c r="C51">
+        <v>318</v>
+      </c>
+      <c r="D51">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>84</v>
+      </c>
+      <c r="C52">
+        <v>327</v>
+      </c>
+      <c r="D52">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>232</v>
+      </c>
+      <c r="C53">
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>376</v>
+      </c>
+      <c r="C54">
+        <v>535</v>
+      </c>
+      <c r="D54">
+        <v>911</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,15 +13727,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>38421</v>
+        <v>42564</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>13607</v>
+        <v>15262</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>52028</v>
+        <v>57826</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13005,15 +13744,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>24897</v>
+        <v>27423</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>5753</v>
+        <v>6323</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>30650</v>
+        <v>33746</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13022,15 +13761,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>72301</v>
+        <v>79550</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>10323</v>
+        <v>11374</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>82624</v>
+        <v>90924</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13039,15 +13778,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>1146</v>
+        <v>1223</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1451</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13056,15 +13795,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>45237</v>
+        <v>50277</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>9714</v>
+        <v>11034</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>54951</v>
+        <v>61311</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13073,15 +13812,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>4090</v>
+        <v>4587</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>2041</v>
+        <v>2255</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>6131</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13090,15 +13829,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>4884</v>
+        <v>5329</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1304</v>
+        <v>1486</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>6188</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13107,15 +13846,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>2295</v>
+        <v>2582</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>2817</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13124,15 +13863,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>569</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13158,15 +13897,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>822</v>
+        <v>899</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>1094</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13175,15 +13914,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1715</v>
+        <v>1847</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>735</v>
+        <v>803</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>2450</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13192,15 +13931,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>4275</v>
+        <v>4688</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1732</v>
+        <v>1951</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>6007</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13209,15 +13948,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>2523</v>
+        <v>2887</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>524</v>
+        <v>609</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>3047</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13226,15 +13965,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>2482</v>
+        <v>2648</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>631</v>
+        <v>687</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>3113</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13243,15 +13982,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>13317</v>
+        <v>14634</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>5623</v>
+        <v>6261</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>18940</v>
+        <v>20895</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13260,15 +13999,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>827</v>
+        <v>922</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>448</v>
+        <v>557</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>1275</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13277,15 +14016,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>14722</v>
+        <v>16162</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>4276</v>
+        <v>4781</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>18998</v>
+        <v>20943</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13294,15 +14033,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>494</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13311,15 +14050,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>15089</v>
+        <v>16750</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>4510</v>
+        <v>5072</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>19599</v>
+        <v>21822</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13328,15 +14067,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>2342</v>
+        <v>2566</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>594</v>
+        <v>668</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>2936</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13345,15 +14084,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>19550</v>
+        <v>21829</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>5702</v>
+        <v>6427</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>25252</v>
+        <v>28256</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13362,15 +14101,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>82216</v>
+        <v>92844</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>14269</v>
+        <v>16344</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>96485</v>
+        <v>109188</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13379,15 +14118,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>5066</v>
+        <v>5538</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1457</v>
+        <v>1576</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>6523</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13413,15 +14152,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>3101</v>
+        <v>3527</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1908</v>
+        <v>2126</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>5009</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13430,15 +14169,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>2489</v>
+        <v>2831</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>1080</v>
+        <v>1260</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>3569</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13447,15 +14186,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>15384</v>
+        <v>17215</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>5864</v>
+        <v>6510</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>21248</v>
+        <v>23725</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13464,15 +14203,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>461</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13481,15 +14220,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>2784</v>
+        <v>3143</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>644</v>
+        <v>710</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>3428</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13498,15 +14237,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>12007</v>
+        <v>13341</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>3608</v>
+        <v>4155</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>15615</v>
+        <v>17496</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13515,15 +14254,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>8508</v>
+        <v>9340</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>3879</v>
+        <v>4273</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>12387</v>
+        <v>13613</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13532,15 +14271,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>4962</v>
+        <v>5439</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1730</v>
+        <v>1920</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>6692</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13549,15 +14288,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>61002</v>
+        <v>67026</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>8949</v>
+        <v>10055</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>69951</v>
+        <v>77081</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13566,15 +14305,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>6737</v>
+        <v>7420</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1464</v>
+        <v>1606</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>8201</v>
+        <v>9026</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13583,15 +14322,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>29196</v>
+        <v>32392</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>4635</v>
+        <v>5200</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>33831</v>
+        <v>37592</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13600,15 +14339,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>1808</v>
+        <v>1955</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>2016</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13617,15 +14356,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>958</v>
+        <v>1078</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>646</v>
+        <v>752</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>1604</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13634,15 +14373,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>2727</v>
+        <v>3274</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>2962</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13651,15 +14390,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>14136</v>
+        <v>16696</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>14620</v>
+        <v>17252</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13668,15 +14407,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>338</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13685,15 +14424,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>1228</v>
+        <v>1500</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>1311</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13702,15 +14441,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>3452</v>
+        <v>3847</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>4033</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13719,15 +14458,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>12478</v>
+        <v>13808</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>5025</v>
+        <v>5677</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>17503</v>
+        <v>19485</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13736,15 +14475,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>25272</v>
+        <v>27985</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>9293</v>
+        <v>10266</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>34565</v>
+        <v>38251</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13753,15 +14492,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>14422</v>
+        <v>15924</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>1936</v>
+        <v>2214</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>16358</v>
+        <v>18138</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13770,15 +14509,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>8303</v>
+        <v>9006</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>5566</v>
+        <v>6018</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>13869</v>
+        <v>15024</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13787,15 +14526,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>27942</v>
+        <v>31022</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>7689</v>
+        <v>8700</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>35631</v>
+        <v>39722</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13804,15 +14543,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>4022</v>
+        <v>4560</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>1503</v>
+        <v>1653</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>5525</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,15 +14560,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>8509</v>
+        <v>9407</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>3267</v>
+        <v>3585</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>11776</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13838,15 +14577,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1026</v>
+        <v>1110</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1435</v>
+        <v>1762</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>2461</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13855,15 +14594,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1692</v>
+        <v>1924</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>1995</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13872,15 +14611,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>2846</v>
+        <v>3222</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>3379</v>
+        <v>3914</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>6225</v>
+        <v>7136</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13889,15 +14628,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>9335</v>
+        <v>10321</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>3263</v>
+        <v>3661</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>12598</v>
+        <v>13982</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13906,15 +14645,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>18367</v>
+        <v>21788</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>864</v>
+        <v>998</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>19231</v>
+        <v>22786</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B474D7-1EF9-4F8E-9B72-800BC555818E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4717D55D-DE0A-4ECD-A67E-E53FCC4ABEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" activeTab="20" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -61,6 +61,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -69,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -711,7 +720,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight" activeCell="A19" sqref="A19"/>
@@ -11734,11 +11743,11 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11767,15 +11776,15 @@
       </c>
       <c r="B2" s="2">
         <f>NovemberRaw!B2</f>
-        <v>0</v>
+        <v>3366</v>
       </c>
       <c r="C2" s="2">
         <f>NovemberRaw!C2</f>
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="D2" s="2">
         <f>NovemberRaw!D2</f>
-        <v>0</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11784,15 +11793,15 @@
       </c>
       <c r="B3" s="3">
         <f>NovemberRaw!B3</f>
-        <v>0</v>
+        <v>2081</v>
       </c>
       <c r="C3" s="3">
         <f>NovemberRaw!C3</f>
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="D3" s="3">
         <f>NovemberRaw!D3</f>
-        <v>0</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11801,15 +11810,15 @@
       </c>
       <c r="B4" s="2">
         <f>NovemberRaw!B4</f>
-        <v>0</v>
+        <v>6588</v>
       </c>
       <c r="C4" s="2">
         <f>NovemberRaw!C4</f>
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="D4" s="2">
         <f>NovemberRaw!D4</f>
-        <v>0</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11818,15 +11827,15 @@
       </c>
       <c r="B5" s="3">
         <f>NovemberRaw!B5</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3">
         <f>NovemberRaw!C5</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3">
         <f>NovemberRaw!D5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11835,15 +11844,15 @@
       </c>
       <c r="B6" s="2">
         <f>NovemberRaw!B6</f>
-        <v>0</v>
+        <v>4424</v>
       </c>
       <c r="C6" s="2">
         <f>NovemberRaw!C6</f>
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="D6" s="2">
         <f>NovemberRaw!D6</f>
-        <v>0</v>
+        <v>5405</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11852,15 +11861,15 @@
       </c>
       <c r="B7" s="3">
         <f>NovemberRaw!B7</f>
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="C7" s="3">
         <f>NovemberRaw!C7</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="D7" s="3">
         <f>NovemberRaw!D7</f>
-        <v>0</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11869,15 +11878,15 @@
       </c>
       <c r="B8" s="2">
         <f>NovemberRaw!B8</f>
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="C8" s="2">
         <f>NovemberRaw!C8</f>
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2">
         <f>NovemberRaw!D8</f>
-        <v>0</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11886,15 +11895,15 @@
       </c>
       <c r="B9" s="3">
         <f>NovemberRaw!B9</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C9" s="3">
         <f>NovemberRaw!C9</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3">
         <f>NovemberRaw!D9</f>
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11903,7 +11912,7 @@
       </c>
       <c r="B10" s="2">
         <f>NovemberRaw!B10</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <f>NovemberRaw!C10</f>
@@ -11911,7 +11920,7 @@
       </c>
       <c r="D10" s="2">
         <f>NovemberRaw!D10</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11937,15 +11946,15 @@
       </c>
       <c r="B12" s="5">
         <f>NovemberRaw!B12</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5">
         <f>NovemberRaw!C12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5">
         <f>NovemberRaw!D12</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11954,15 +11963,15 @@
       </c>
       <c r="B13" s="4">
         <f>NovemberRaw!B13</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4">
         <f>NovemberRaw!C13</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4">
         <f>NovemberRaw!D13</f>
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11971,15 +11980,15 @@
       </c>
       <c r="B14" s="5">
         <f>NovemberRaw!B14</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="C14" s="5">
         <f>NovemberRaw!C14</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D14" s="5">
         <f>NovemberRaw!D14</f>
-        <v>0</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11988,15 +11997,15 @@
       </c>
       <c r="B15" s="4">
         <f>NovemberRaw!B15</f>
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="C15" s="4">
         <f>NovemberRaw!C15</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4">
         <f>NovemberRaw!D15</f>
-        <v>0</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12005,15 +12014,15 @@
       </c>
       <c r="B16" s="2">
         <f>NovemberRaw!B16</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2">
         <f>NovemberRaw!C16</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2">
         <f>NovemberRaw!D16</f>
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12022,15 +12031,15 @@
       </c>
       <c r="B17" s="3">
         <f>NovemberRaw!B17</f>
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="C17" s="3">
         <f>NovemberRaw!C17</f>
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="D17" s="3">
         <f>NovemberRaw!D17</f>
-        <v>0</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12039,15 +12048,15 @@
       </c>
       <c r="B18" s="2">
         <f>NovemberRaw!B18</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <f>NovemberRaw!C18</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D18" s="2">
         <f>NovemberRaw!D18</f>
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12056,15 +12065,15 @@
       </c>
       <c r="B19" s="3">
         <f>NovemberRaw!B19</f>
-        <v>0</v>
+        <v>1349</v>
       </c>
       <c r="C19" s="3">
         <f>NovemberRaw!C19</f>
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="D19" s="3">
         <f>NovemberRaw!D19</f>
-        <v>0</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12073,15 +12082,15 @@
       </c>
       <c r="B20" s="2">
         <f>NovemberRaw!B20</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <f>NovemberRaw!C20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
         <f>NovemberRaw!D20</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12090,15 +12099,15 @@
       </c>
       <c r="B21" s="3">
         <f>NovemberRaw!B21</f>
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="C21" s="3">
         <f>NovemberRaw!C21</f>
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="D21" s="3">
         <f>NovemberRaw!D21</f>
-        <v>0</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12107,15 +12116,15 @@
       </c>
       <c r="B22" s="2">
         <f>NovemberRaw!B22</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2">
         <f>NovemberRaw!C22</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2">
         <f>NovemberRaw!D22</f>
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12124,15 +12133,15 @@
       </c>
       <c r="B23" s="3">
         <f>NovemberRaw!B23</f>
-        <v>0</v>
+        <v>1823</v>
       </c>
       <c r="C23" s="3">
         <f>NovemberRaw!C23</f>
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="D23" s="3">
         <f>NovemberRaw!D23</f>
-        <v>0</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12141,15 +12150,15 @@
       </c>
       <c r="B24" s="2">
         <f>NovemberRaw!B24</f>
-        <v>0</v>
+        <v>8480</v>
       </c>
       <c r="C24" s="2">
         <f>NovemberRaw!C24</f>
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="D24" s="2">
         <f>NovemberRaw!D24</f>
-        <v>0</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12158,15 +12167,15 @@
       </c>
       <c r="B25" s="3">
         <f>NovemberRaw!B25</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="C25" s="3">
         <f>NovemberRaw!C25</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D25" s="3">
         <f>NovemberRaw!D25</f>
-        <v>0</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12192,15 +12201,15 @@
       </c>
       <c r="B27" s="3">
         <f>NovemberRaw!B27</f>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="C27" s="3">
         <f>NovemberRaw!C27</f>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D27" s="3">
         <f>NovemberRaw!D27</f>
-        <v>0</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12209,15 +12218,15 @@
       </c>
       <c r="B28" s="2">
         <f>NovemberRaw!B28</f>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2">
         <f>NovemberRaw!C28</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2">
         <f>NovemberRaw!D28</f>
-        <v>0</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12226,15 +12235,15 @@
       </c>
       <c r="B29" s="3">
         <f>NovemberRaw!B29</f>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="C29" s="3">
         <f>NovemberRaw!C29</f>
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="D29" s="3">
         <f>NovemberRaw!D29</f>
-        <v>0</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12243,15 +12252,15 @@
       </c>
       <c r="B30" s="2">
         <f>NovemberRaw!B30</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
         <f>NovemberRaw!C30</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
         <f>NovemberRaw!D30</f>
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12260,15 +12269,15 @@
       </c>
       <c r="B31" s="3">
         <f>NovemberRaw!B31</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="C31" s="3">
         <f>NovemberRaw!C31</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3">
         <f>NovemberRaw!D31</f>
-        <v>0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12277,15 +12286,15 @@
       </c>
       <c r="B32" s="2">
         <f>NovemberRaw!B32</f>
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="C32" s="2">
         <f>NovemberRaw!C32</f>
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="D32" s="2">
         <f>NovemberRaw!D32</f>
-        <v>0</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12294,15 +12303,15 @@
       </c>
       <c r="B33" s="3">
         <f>NovemberRaw!B33</f>
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="C33" s="3">
         <f>NovemberRaw!C33</f>
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="D33" s="3">
         <f>NovemberRaw!D33</f>
-        <v>0</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12311,15 +12320,15 @@
       </c>
       <c r="B34" s="2">
         <f>NovemberRaw!B34</f>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2">
         <f>NovemberRaw!C34</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D34" s="2">
         <f>NovemberRaw!D34</f>
-        <v>0</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12328,15 +12337,15 @@
       </c>
       <c r="B35" s="3">
         <f>NovemberRaw!B35</f>
-        <v>0</v>
+        <v>5351</v>
       </c>
       <c r="C35" s="3">
         <f>NovemberRaw!C35</f>
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="D35" s="3">
         <f>NovemberRaw!D35</f>
-        <v>0</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12345,15 +12354,15 @@
       </c>
       <c r="B36" s="2">
         <f>NovemberRaw!B36</f>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="C36" s="2">
         <f>NovemberRaw!C36</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2">
         <f>NovemberRaw!D36</f>
-        <v>0</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12362,15 +12371,15 @@
       </c>
       <c r="B37" s="3">
         <f>NovemberRaw!B37</f>
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="C37" s="3">
         <f>NovemberRaw!C37</f>
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="D37" s="3">
         <f>NovemberRaw!D37</f>
-        <v>0</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12379,15 +12388,15 @@
       </c>
       <c r="B38" s="2">
         <f>NovemberRaw!B38</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2">
         <f>NovemberRaw!C38</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2">
         <f>NovemberRaw!D38</f>
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12396,15 +12405,15 @@
       </c>
       <c r="B39" s="3">
         <f>NovemberRaw!B39</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3">
         <f>NovemberRaw!C39</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D39" s="3">
         <f>NovemberRaw!D39</f>
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12413,15 +12422,15 @@
       </c>
       <c r="B40" s="6">
         <f>NovemberRaw!B40</f>
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="C40" s="6">
         <f>NovemberRaw!C40</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D40" s="6">
         <f>NovemberRaw!D40</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12430,15 +12439,15 @@
       </c>
       <c r="B41" s="7">
         <f>NovemberRaw!B41</f>
-        <v>0</v>
+        <v>2076</v>
       </c>
       <c r="C41" s="7">
         <f>NovemberRaw!C41</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D41" s="7">
         <f>NovemberRaw!D41</f>
-        <v>0</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12447,15 +12456,15 @@
       </c>
       <c r="B42" s="6">
         <f>NovemberRaw!B42</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C42" s="6">
         <f>NovemberRaw!C42</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D42" s="6">
         <f>NovemberRaw!D42</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12464,15 +12473,15 @@
       </c>
       <c r="B43" s="7">
         <f>NovemberRaw!B43</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="C43" s="7">
         <f>NovemberRaw!C43</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D43" s="7">
         <f>NovemberRaw!D43</f>
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12481,15 +12490,15 @@
       </c>
       <c r="B44" s="2">
         <f>NovemberRaw!B44</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C44" s="2">
         <f>NovemberRaw!C44</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2">
         <f>NovemberRaw!D44</f>
-        <v>0</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12498,15 +12507,15 @@
       </c>
       <c r="B45" s="3">
         <f>NovemberRaw!B45</f>
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="C45" s="3">
         <f>NovemberRaw!C45</f>
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="D45" s="3">
         <f>NovemberRaw!D45</f>
-        <v>0</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12515,15 +12524,15 @@
       </c>
       <c r="B46" s="2">
         <f>NovemberRaw!B46</f>
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="C46" s="2">
         <f>NovemberRaw!C46</f>
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="D46" s="2">
         <f>NovemberRaw!D46</f>
-        <v>0</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12532,15 +12541,15 @@
       </c>
       <c r="B47" s="3">
         <f>NovemberRaw!B47</f>
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="C47" s="3">
         <f>NovemberRaw!C47</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D47" s="3">
         <f>NovemberRaw!D47</f>
-        <v>0</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12549,15 +12558,15 @@
       </c>
       <c r="B48" s="2">
         <f>NovemberRaw!B48</f>
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="C48" s="2">
         <f>NovemberRaw!C48</f>
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="D48" s="2">
         <f>NovemberRaw!D48</f>
-        <v>0</v>
+        <v>939</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12566,15 +12575,15 @@
       </c>
       <c r="B49" s="3">
         <f>NovemberRaw!B49</f>
-        <v>0</v>
+        <v>2517</v>
       </c>
       <c r="C49" s="3">
         <f>NovemberRaw!C49</f>
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="D49" s="3">
         <f>NovemberRaw!D49</f>
-        <v>0</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12583,15 +12592,15 @@
       </c>
       <c r="B50" s="2">
         <f>NovemberRaw!B50</f>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="C50" s="2">
         <f>NovemberRaw!C50</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D50" s="2">
         <f>NovemberRaw!D50</f>
-        <v>0</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12600,15 +12609,15 @@
       </c>
       <c r="B51" s="3">
         <f>NovemberRaw!B51</f>
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="C51" s="3">
         <f>NovemberRaw!C51</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="D51" s="3">
         <f>NovemberRaw!D51</f>
-        <v>0</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12617,15 +12626,15 @@
       </c>
       <c r="B52" s="2">
         <f>NovemberRaw!B52</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2">
         <f>NovemberRaw!C52</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D52" s="2">
         <f>NovemberRaw!D52</f>
-        <v>0</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12634,15 +12643,15 @@
       </c>
       <c r="B53" s="3">
         <f>NovemberRaw!B53</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C53" s="3">
         <f>NovemberRaw!C53</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D53" s="3">
         <f>NovemberRaw!D53</f>
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12651,15 +12660,15 @@
       </c>
       <c r="B54" s="2">
         <f>NovemberRaw!B54</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="C54" s="2">
         <f>NovemberRaw!C54</f>
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="D54" s="2">
         <f>NovemberRaw!D54</f>
-        <v>0</v>
+        <v>659</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12668,15 +12677,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12685,15 +12694,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>0</v>
+        <v>2930</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>0</v>
+        <v>3065</v>
       </c>
     </row>
   </sheetData>
@@ -12705,12 +12714,748 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3368A3-76CA-4C7F-BBF6-FE5579FAD35B}">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3366</v>
+      </c>
+      <c r="C2">
+        <v>1176</v>
+      </c>
+      <c r="D2">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2081</v>
+      </c>
+      <c r="C3">
+        <v>567</v>
+      </c>
+      <c r="D3">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6588</v>
+      </c>
+      <c r="C4">
+        <v>917</v>
+      </c>
+      <c r="D4">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4424</v>
+      </c>
+      <c r="C6">
+        <v>981</v>
+      </c>
+      <c r="D6">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>497</v>
+      </c>
+      <c r="C7">
+        <v>159</v>
+      </c>
+      <c r="D7">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>446</v>
+      </c>
+      <c r="C8">
+        <v>151</v>
+      </c>
+      <c r="D8">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>194</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>136</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>388</v>
+      </c>
+      <c r="C14">
+        <v>204</v>
+      </c>
+      <c r="D14">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+      <c r="C16">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1130</v>
+      </c>
+      <c r="C17">
+        <v>532</v>
+      </c>
+      <c r="D17">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>119</v>
+      </c>
+      <c r="D18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1349</v>
+      </c>
+      <c r="C19">
+        <v>478</v>
+      </c>
+      <c r="D19">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1193</v>
+      </c>
+      <c r="C21">
+        <v>436</v>
+      </c>
+      <c r="D21">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1823</v>
+      </c>
+      <c r="C23">
+        <v>519</v>
+      </c>
+      <c r="D23">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8480</v>
+      </c>
+      <c r="C24">
+        <v>1745</v>
+      </c>
+      <c r="D24">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>460</v>
+      </c>
+      <c r="C25">
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>374</v>
+      </c>
+      <c r="C27">
+        <v>173</v>
+      </c>
+      <c r="D27">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>245</v>
+      </c>
+      <c r="C28">
+        <v>112</v>
+      </c>
+      <c r="D28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1700</v>
+      </c>
+      <c r="C29">
+        <v>710</v>
+      </c>
+      <c r="D29">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>259</v>
+      </c>
+      <c r="C31">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>976</v>
+      </c>
+      <c r="C32">
+        <v>423</v>
+      </c>
+      <c r="D32">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>740</v>
+      </c>
+      <c r="C33">
+        <v>319</v>
+      </c>
+      <c r="D33">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>294</v>
+      </c>
+      <c r="C34">
+        <v>107</v>
+      </c>
+      <c r="D34">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5351</v>
+      </c>
+      <c r="C35">
+        <v>825</v>
+      </c>
+      <c r="D35">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>647</v>
+      </c>
+      <c r="C36">
+        <v>121</v>
+      </c>
+      <c r="D36">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2667</v>
+      </c>
+      <c r="C37">
+        <v>451</v>
+      </c>
+      <c r="D37">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>124</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>122</v>
+      </c>
+      <c r="D39">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>543</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2076</v>
+      </c>
+      <c r="C41">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>290</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>300</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1243</v>
+      </c>
+      <c r="C45">
+        <v>521</v>
+      </c>
+      <c r="D45">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1979</v>
+      </c>
+      <c r="C46">
+        <v>751</v>
+      </c>
+      <c r="D46">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1081</v>
+      </c>
+      <c r="C47">
+        <v>174</v>
+      </c>
+      <c r="D47">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>581</v>
+      </c>
+      <c r="C48">
+        <v>358</v>
+      </c>
+      <c r="D48">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2517</v>
+      </c>
+      <c r="C49">
+        <v>897</v>
+      </c>
+      <c r="D49">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>322</v>
+      </c>
+      <c r="C50">
+        <v>84</v>
+      </c>
+      <c r="D50">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>910</v>
+      </c>
+      <c r="C51">
+        <v>343</v>
+      </c>
+      <c r="D51">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>106</v>
+      </c>
+      <c r="C52">
+        <v>137</v>
+      </c>
+      <c r="D52">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>236</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>226</v>
+      </c>
+      <c r="C54">
+        <v>433</v>
+      </c>
+      <c r="D54">
+        <v>659</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13727,15 +14472,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>42564</v>
+        <v>45930</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>15262</v>
+        <v>16438</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>57826</v>
+        <v>62368</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13744,15 +14489,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>27423</v>
+        <v>29504</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>6323</v>
+        <v>6890</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>33746</v>
+        <v>36394</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13761,15 +14506,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>79550</v>
+        <v>86138</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>11374</v>
+        <v>12291</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>90924</v>
+        <v>98429</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13778,15 +14523,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>1223</v>
+        <v>1288</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1559</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13795,15 +14540,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>50277</v>
+        <v>54701</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>11034</v>
+        <v>12015</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>61311</v>
+        <v>66716</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13812,15 +14557,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>4587</v>
+        <v>5084</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>2255</v>
+        <v>2414</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>6842</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13829,15 +14574,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>5329</v>
+        <v>5775</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1486</v>
+        <v>1637</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>6815</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13846,15 +14591,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>2582</v>
+        <v>2776</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>606</v>
+        <v>691</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>3188</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13863,7 +14608,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -13871,7 +14616,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>605</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13897,15 +14642,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>1197</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13914,15 +14659,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1847</v>
+        <v>1983</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>803</v>
+        <v>851</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>2650</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13931,15 +14676,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>4688</v>
+        <v>5076</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1951</v>
+        <v>2155</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>6639</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13948,15 +14693,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>2887</v>
+        <v>3186</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>3496</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13965,15 +14710,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>2648</v>
+        <v>2771</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>687</v>
+        <v>745</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>3335</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13982,15 +14727,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>14634</v>
+        <v>15764</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>6261</v>
+        <v>6793</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>20895</v>
+        <v>22557</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13999,15 +14744,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>922</v>
+        <v>982</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>557</v>
+        <v>676</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>1479</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14016,15 +14761,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>16162</v>
+        <v>17511</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>4781</v>
+        <v>5259</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>20943</v>
+        <v>22770</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14033,15 +14778,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>523</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14050,15 +14795,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>16750</v>
+        <v>17943</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>5072</v>
+        <v>5508</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>21822</v>
+        <v>23451</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14067,15 +14812,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>2566</v>
+        <v>2686</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>3234</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14084,15 +14829,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>21829</v>
+        <v>23652</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>6427</v>
+        <v>6946</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>28256</v>
+        <v>30598</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14101,15 +14846,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>92844</v>
+        <v>101324</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>16344</v>
+        <v>18089</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>109188</v>
+        <v>119413</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14118,15 +14863,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>5538</v>
+        <v>5998</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1576</v>
+        <v>1697</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>7114</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14152,15 +14897,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>3527</v>
+        <v>3901</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>2126</v>
+        <v>2299</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>5653</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14169,15 +14914,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>2831</v>
+        <v>3076</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>1260</v>
+        <v>1372</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>4091</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14186,15 +14931,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>17215</v>
+        <v>18915</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>6510</v>
+        <v>7220</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>23725</v>
+        <v>26135</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14203,15 +14948,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>499</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14220,15 +14965,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>3143</v>
+        <v>3402</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>710</v>
+        <v>785</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>3853</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14237,15 +14982,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>13341</v>
+        <v>14317</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>4155</v>
+        <v>4578</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>17496</v>
+        <v>18895</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14254,15 +14999,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>9340</v>
+        <v>10080</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>4273</v>
+        <v>4592</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>13613</v>
+        <v>14672</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14271,15 +15016,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>5439</v>
+        <v>5733</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1920</v>
+        <v>2027</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>7359</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14288,15 +15033,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>67026</v>
+        <v>72377</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>10055</v>
+        <v>10880</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>77081</v>
+        <v>83257</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14305,15 +15050,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>7420</v>
+        <v>8067</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1606</v>
+        <v>1727</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>9026</v>
+        <v>9794</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14322,15 +15067,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>32392</v>
+        <v>35059</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>5200</v>
+        <v>5651</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>37592</v>
+        <v>40710</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14339,15 +15084,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>1955</v>
+        <v>2079</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>2184</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14356,15 +15101,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>1078</v>
+        <v>1178</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>752</v>
+        <v>874</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>1830</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14373,15 +15118,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>3274</v>
+        <v>3817</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>3539</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14390,15 +15135,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>16696</v>
+        <v>18772</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>556</v>
+        <v>636</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>17252</v>
+        <v>19408</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14407,15 +15152,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14424,15 +15169,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>1500</v>
+        <v>1790</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>1593</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14441,15 +15186,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>3847</v>
+        <v>4147</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>4502</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14458,15 +15203,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>13808</v>
+        <v>15051</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>5677</v>
+        <v>6198</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>19485</v>
+        <v>21249</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14475,15 +15220,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>27985</v>
+        <v>29964</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>10266</v>
+        <v>11017</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>38251</v>
+        <v>40981</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14492,15 +15237,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>15924</v>
+        <v>17005</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>2214</v>
+        <v>2388</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>18138</v>
+        <v>19393</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14509,15 +15254,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>9006</v>
+        <v>9587</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>6018</v>
+        <v>6376</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>15024</v>
+        <v>15963</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14526,15 +15271,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>31022</v>
+        <v>33539</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>8700</v>
+        <v>9597</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>39722</v>
+        <v>43136</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14543,15 +15288,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>4560</v>
+        <v>4882</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>1653</v>
+        <v>1737</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>6213</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14560,15 +15305,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>9407</v>
+        <v>10317</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>3585</v>
+        <v>3928</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>12992</v>
+        <v>14245</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14577,15 +15322,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1110</v>
+        <v>1216</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1762</v>
+        <v>1899</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>2872</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14594,15 +15339,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1924</v>
+        <v>2160</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>2261</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14611,15 +15356,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>3222</v>
+        <v>3448</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>3914</v>
+        <v>4347</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>7136</v>
+        <v>7795</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14628,15 +15373,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>10321</v>
+        <v>11177</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>3661</v>
+        <v>3959</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>13982</v>
+        <v>15136</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14645,15 +15390,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>21788</v>
+        <v>24718</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>998</v>
+        <v>1133</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>22786</v>
+        <v>25851</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_files/2025/2025_99_g_sharing.xlsx
+++ b/statistics_files/2025/2025_99_g_sharing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4717D55D-DE0A-4ECD-A67E-E53FCC4ABEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA36564D-DE69-46C7-BD23-D4658F12D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" activeTab="20" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" activeTab="2" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="62">
   <si>
     <t>Library</t>
   </si>
@@ -11743,11 +11743,11 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13498,15 +13498,15 @@
       </c>
       <c r="B2" s="2">
         <f>DecemberRaw!B2</f>
-        <v>0</v>
+        <v>3513</v>
       </c>
       <c r="C2" s="2">
         <f>DecemberRaw!C2</f>
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="D2" s="2">
         <f>DecemberRaw!D2</f>
-        <v>0</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13515,15 +13515,15 @@
       </c>
       <c r="B3" s="3">
         <f>DecemberRaw!B3</f>
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="C3" s="3">
         <f>DecemberRaw!C3</f>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="D3" s="3">
         <f>DecemberRaw!D3</f>
-        <v>0</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13532,15 +13532,15 @@
       </c>
       <c r="B4" s="2">
         <f>DecemberRaw!B4</f>
-        <v>0</v>
+        <v>6186</v>
       </c>
       <c r="C4" s="2">
         <f>DecemberRaw!C4</f>
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="D4" s="2">
         <f>DecemberRaw!D4</f>
-        <v>0</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13549,15 +13549,15 @@
       </c>
       <c r="B5" s="3">
         <f>DecemberRaw!B5</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <f>DecemberRaw!C5</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3">
         <f>DecemberRaw!D5</f>
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13566,15 +13566,15 @@
       </c>
       <c r="B6" s="2">
         <f>DecemberRaw!B6</f>
-        <v>0</v>
+        <v>4655</v>
       </c>
       <c r="C6" s="2">
         <f>DecemberRaw!C6</f>
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="D6" s="2">
         <f>DecemberRaw!D6</f>
-        <v>0</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13583,15 +13583,15 @@
       </c>
       <c r="B7" s="3">
         <f>DecemberRaw!B7</f>
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="C7" s="3">
         <f>DecemberRaw!C7</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D7" s="3">
         <f>DecemberRaw!D7</f>
-        <v>0</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13600,15 +13600,15 @@
       </c>
       <c r="B8" s="2">
         <f>DecemberRaw!B8</f>
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="C8" s="2">
         <f>DecemberRaw!C8</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2">
         <f>DecemberRaw!D8</f>
-        <v>0</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13617,15 +13617,15 @@
       </c>
       <c r="B9" s="3">
         <f>DecemberRaw!B9</f>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="C9" s="3">
         <f>DecemberRaw!C9</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3">
         <f>DecemberRaw!D9</f>
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="B10" s="2">
         <f>DecemberRaw!B10</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <f>DecemberRaw!C10</f>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="D10" s="2">
         <f>DecemberRaw!D10</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13668,15 +13668,15 @@
       </c>
       <c r="B12" s="5">
         <f>DecemberRaw!B12</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5">
         <f>DecemberRaw!C12</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="5">
         <f>DecemberRaw!D12</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13685,15 +13685,15 @@
       </c>
       <c r="B13" s="4">
         <f>DecemberRaw!B13</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4">
         <f>DecemberRaw!C13</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4">
         <f>DecemberRaw!D13</f>
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13702,15 +13702,15 @@
       </c>
       <c r="B14" s="5">
         <f>DecemberRaw!B14</f>
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="C14" s="5">
         <f>DecemberRaw!C14</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D14" s="5">
         <f>DecemberRaw!D14</f>
-        <v>0</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13719,15 +13719,15 @@
       </c>
       <c r="B15" s="4">
         <f>DecemberRaw!B15</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="C15" s="4">
         <f>DecemberRaw!C15</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4">
         <f>DecemberRaw!D15</f>
-        <v>0</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13736,15 +13736,15 @@
       </c>
       <c r="B16" s="2">
         <f>DecemberRaw!B16</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2">
         <f>DecemberRaw!C16</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2">
         <f>DecemberRaw!D16</f>
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13753,15 +13753,15 @@
       </c>
       <c r="B17" s="3">
         <f>DecemberRaw!B17</f>
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="C17" s="3">
         <f>DecemberRaw!C17</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="D17" s="3">
         <f>DecemberRaw!D17</f>
-        <v>0</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13770,15 +13770,15 @@
       </c>
       <c r="B18" s="2">
         <f>DecemberRaw!B18</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2">
         <f>DecemberRaw!C18</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2">
         <f>DecemberRaw!D18</f>
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13787,15 +13787,15 @@
       </c>
       <c r="B19" s="3">
         <f>DecemberRaw!B19</f>
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="C19" s="3">
         <f>DecemberRaw!C19</f>
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="D19" s="3">
         <f>DecemberRaw!D19</f>
-        <v>0</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13804,15 +13804,15 @@
       </c>
       <c r="B20" s="2">
         <f>DecemberRaw!B20</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <f>DecemberRaw!C20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
         <f>DecemberRaw!D20</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,15 +13821,15 @@
       </c>
       <c r="B21" s="3">
         <f>DecemberRaw!B21</f>
-        <v>0</v>
+        <v>1372</v>
       </c>
       <c r="C21" s="3">
         <f>DecemberRaw!C21</f>
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="D21" s="3">
         <f>DecemberRaw!D21</f>
-        <v>0</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13838,15 +13838,15 @@
       </c>
       <c r="B22" s="2">
         <f>DecemberRaw!B22</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2">
         <f>DecemberRaw!C22</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2">
         <f>DecemberRaw!D22</f>
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13855,15 +13855,15 @@
       </c>
       <c r="B23" s="3">
         <f>DecemberRaw!B23</f>
-        <v>0</v>
+        <v>1816</v>
       </c>
       <c r="C23" s="3">
         <f>DecemberRaw!C23</f>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="D23" s="3">
         <f>DecemberRaw!D23</f>
-        <v>0</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13872,15 +13872,15 @@
       </c>
       <c r="B24" s="2">
         <f>DecemberRaw!B24</f>
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="C24" s="2">
         <f>DecemberRaw!C24</f>
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="D24" s="2">
         <f>DecemberRaw!D24</f>
-        <v>0</v>
+        <v>9728</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13889,15 +13889,15 @@
       </c>
       <c r="B25" s="3">
         <f>DecemberRaw!B25</f>
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="C25" s="3">
         <f>DecemberRaw!C25</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D25" s="3">
         <f>DecemberRaw!D25</f>
-        <v>0</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13923,15 +13923,15 @@
       </c>
       <c r="B27" s="3">
         <f>DecemberRaw!B27</f>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="C27" s="3">
         <f>DecemberRaw!C27</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D27" s="3">
         <f>DecemberRaw!D27</f>
-        <v>0</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13940,15 +13940,15 @@
       </c>
       <c r="B28" s="2">
         <f>DecemberRaw!B28</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2">
         <f>DecemberRaw!C28</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2">
         <f>DecemberRaw!D28</f>
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13957,15 +13957,15 @@
       </c>
       <c r="B29" s="3">
         <f>DecemberRaw!B29</f>
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="C29" s="3">
         <f>DecemberRaw!C29</f>
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="D29" s="3">
         <f>DecemberRaw!D29</f>
-        <v>0</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13974,15 +13974,15 @@
       </c>
       <c r="B30" s="2">
         <f>DecemberRaw!B30</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2">
         <f>DecemberRaw!C30</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2">
         <f>DecemberRaw!D30</f>
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13991,15 +13991,15 @@
       </c>
       <c r="B31" s="3">
         <f>DecemberRaw!B31</f>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="C31" s="3">
         <f>DecemberRaw!C31</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3">
         <f>DecemberRaw!D31</f>
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14008,15 +14008,15 @@
       </c>
       <c r="B32" s="2">
         <f>DecemberRaw!B32</f>
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="C32" s="2">
         <f>DecemberRaw!C32</f>
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="D32" s="2">
         <f>DecemberRaw!D32</f>
-        <v>0</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14025,15 +14025,15 @@
       </c>
       <c r="B33" s="3">
         <f>DecemberRaw!B33</f>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="C33" s="3">
         <f>DecemberRaw!C33</f>
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D33" s="3">
         <f>DecemberRaw!D33</f>
-        <v>0</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14042,15 +14042,15 @@
       </c>
       <c r="B34" s="2">
         <f>DecemberRaw!B34</f>
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="C34" s="2">
         <f>DecemberRaw!C34</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D34" s="2">
         <f>DecemberRaw!D34</f>
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14059,15 +14059,15 @@
       </c>
       <c r="B35" s="3">
         <f>DecemberRaw!B35</f>
-        <v>0</v>
+        <v>5193</v>
       </c>
       <c r="C35" s="3">
         <f>DecemberRaw!C35</f>
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="D35" s="3">
         <f>DecemberRaw!D35</f>
-        <v>0</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14076,15 +14076,15 @@
       </c>
       <c r="B36" s="2">
         <f>DecemberRaw!B36</f>
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="C36" s="2">
         <f>DecemberRaw!C36</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2">
         <f>DecemberRaw!D36</f>
-        <v>0</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14093,15 +14093,15 @@
       </c>
       <c r="B37" s="3">
         <f>DecemberRaw!B37</f>
-        <v>0</v>
+        <v>2844</v>
       </c>
       <c r="C37" s="3">
         <f>DecemberRaw!C37</f>
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="D37" s="3">
         <f>DecemberRaw!D37</f>
-        <v>0</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14110,15 +14110,15 @@
       </c>
       <c r="B38" s="2">
         <f>DecemberRaw!B38</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="C38" s="2">
         <f>DecemberRaw!C38</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2">
         <f>DecemberRaw!D38</f>
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14127,15 +14127,15 @@
       </c>
       <c r="B39" s="3">
         <f>DecemberRaw!B39</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C39" s="3">
         <f>DecemberRaw!C39</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D39" s="3">
         <f>DecemberRaw!D39</f>
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14144,15 +14144,15 @@
       </c>
       <c r="B40" s="6">
         <f>DecemberRaw!B40</f>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="C40" s="6">
         <f>DecemberRaw!C40</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6">
         <f>DecemberRaw!D40</f>
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14161,15 +14161,15 @@
       </c>
       <c r="B41" s="7">
         <f>DecemberRaw!B41</f>
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="C41" s="7">
         <f>DecemberRaw!C41</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D41" s="7">
         <f>DecemberRaw!D41</f>
-        <v>0</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14178,15 +14178,15 @@
       </c>
       <c r="B42" s="6">
         <f>DecemberRaw!B42</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C42" s="6">
         <f>DecemberRaw!C42</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D42" s="6">
         <f>DecemberRaw!D42</f>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14195,15 +14195,15 @@
       </c>
       <c r="B43" s="7">
         <f>DecemberRaw!B43</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C43" s="7">
         <f>DecemberRaw!C43</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7">
         <f>DecemberRaw!D43</f>
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14212,15 +14212,15 @@
       </c>
       <c r="B44" s="2">
         <f>DecemberRaw!B44</f>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="C44" s="2">
         <f>DecemberRaw!C44</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2">
         <f>DecemberRaw!D44</f>
-        <v>0</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14229,15 +14229,15 @@
       </c>
       <c r="B45" s="3">
         <f>DecemberRaw!B45</f>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="C45" s="3">
         <f>DecemberRaw!C45</f>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="D45" s="3">
         <f>DecemberRaw!D45</f>
-        <v>0</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14246,15 +14246,15 @@
       </c>
       <c r="B46" s="2">
         <f>DecemberRaw!B46</f>
-        <v>0</v>
+        <v>2213</v>
       </c>
       <c r="C46" s="2">
         <f>DecemberRaw!C46</f>
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="D46" s="2">
         <f>DecemberRaw!D46</f>
-        <v>0</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14263,15 +14263,15 @@
       </c>
       <c r="B47" s="3">
         <f>DecemberRaw!B47</f>
-        <v>0</v>
+        <v>1195</v>
       </c>
       <c r="C47" s="3">
         <f>DecemberRaw!C47</f>
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="D47" s="3">
         <f>DecemberRaw!D47</f>
-        <v>0</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14280,15 +14280,15 @@
       </c>
       <c r="B48" s="2">
         <f>DecemberRaw!B48</f>
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="C48" s="2">
         <f>DecemberRaw!C48</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D48" s="2">
         <f>DecemberRaw!D48</f>
-        <v>0</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14297,15 +14297,15 @@
       </c>
       <c r="B49" s="3">
         <f>DecemberRaw!B49</f>
-        <v>0</v>
+        <v>2574</v>
       </c>
       <c r="C49" s="3">
         <f>DecemberRaw!C49</f>
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="D49" s="3">
         <f>DecemberRaw!D49</f>
-        <v>0</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14314,15 +14314,15 @@
       </c>
       <c r="B50" s="2">
         <f>DecemberRaw!B50</f>
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2">
         <f>DecemberRaw!C50</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D50" s="2">
         <f>DecemberRaw!D50</f>
-        <v>0</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14331,15 +14331,15 @@
       </c>
       <c r="B51" s="3">
         <f>DecemberRaw!B51</f>
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="C51" s="3">
         <f>DecemberRaw!C51</f>
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="D51" s="3">
         <f>DecemberRaw!D51</f>
-        <v>0</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14348,15 +14348,15 @@
       </c>
       <c r="B52" s="2">
         <f>DecemberRaw!B52</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2">
         <f>DecemberRaw!C52</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2">
         <f>DecemberRaw!D52</f>
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14365,15 +14365,15 @@
       </c>
       <c r="B53" s="3">
         <f>DecemberRaw!B53</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C53" s="3">
         <f>DecemberRaw!C53</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D53" s="3">
         <f>DecemberRaw!D53</f>
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14382,15 +14382,15 @@
       </c>
       <c r="B54" s="2">
         <f>DecemberRaw!B54</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C54" s="2">
         <f>DecemberRaw!C54</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="D54" s="2">
         <f>DecemberRaw!D54</f>
-        <v>0</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14399,15 +14399,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>0</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14416,15 +14416,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>0</v>
+        <v>2306</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>0</v>
+        <v>2403</v>
       </c>
     </row>
   </sheetData>
@@ -14472,15 +14472,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>45930</v>
+        <v>49443</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>16438</v>
+        <v>17647</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>62368</v>
+        <v>67090</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14489,15 +14489,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>29504</v>
+        <v>31832</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>6890</v>
+        <v>7396</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>36394</v>
+        <v>39228</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14506,15 +14506,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>86138</v>
+        <v>92324</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>12291</v>
+        <v>13356</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>98429</v>
+        <v>105680</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14523,15 +14523,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>1288</v>
+        <v>1372</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1658</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14540,15 +14540,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>54701</v>
+        <v>59356</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>12015</v>
+        <v>12922</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>66716</v>
+        <v>72278</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14557,15 +14557,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>5084</v>
+        <v>5641</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>2414</v>
+        <v>2604</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>7498</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14574,15 +14574,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>5775</v>
+        <v>6256</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1637</v>
+        <v>1713</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>7412</v>
+        <v>7969</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14591,15 +14591,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>2776</v>
+        <v>2955</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>3467</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>648</v>
+        <v>704</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>653</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14642,15 +14642,15 @@
       </c>
       <c r="B12" s="5">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="C12" s="5">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D12" s="5">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>1233</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14659,15 +14659,15 @@
       </c>
       <c r="B13" s="4">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1983</v>
+        <v>2118</v>
       </c>
       <c r="C13" s="4">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="D13" s="4">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>2834</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14676,15 +14676,15 @@
       </c>
       <c r="B14" s="5">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>5076</v>
+        <v>5613</v>
       </c>
       <c r="C14" s="5">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>2155</v>
+        <v>2275</v>
       </c>
       <c r="D14" s="5">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>7231</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14693,15 +14693,15 @@
       </c>
       <c r="B15" s="4">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>3186</v>
+        <v>3510</v>
       </c>
       <c r="C15" s="4">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="D15" s="4">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>3838</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14710,15 +14710,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>2771</v>
+        <v>2943</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>745</v>
+        <v>801</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>3516</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14727,15 +14727,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>15764</v>
+        <v>16778</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>6793</v>
+        <v>7423</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>22557</v>
+        <v>24201</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14744,15 +14744,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>982</v>
+        <v>1060</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>676</v>
+        <v>775</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>1658</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14761,15 +14761,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>17511</v>
+        <v>18957</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>5259</v>
+        <v>5666</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>22770</v>
+        <v>24623</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14778,15 +14778,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>540</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14795,15 +14795,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>17943</v>
+        <v>19315</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>5508</v>
+        <v>5924</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>23451</v>
+        <v>25239</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14812,15 +14812,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>2686</v>
+        <v>2840</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>744</v>
+        <v>826</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>3430</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14829,15 +14829,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>23652</v>
+        <v>25468</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>6946</v>
+        <v>7560</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>30598</v>
+        <v>33028</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14846,15 +14846,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>101324</v>
+        <v>109412</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>18089</v>
+        <v>19729</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>119413</v>
+        <v>129141</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14863,15 +14863,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>5998</v>
+        <v>6450</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1697</v>
+        <v>1835</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>7695</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14897,15 +14897,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>3901</v>
+        <v>4205</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>2299</v>
+        <v>2476</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>6200</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14914,15 +14914,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>3076</v>
+        <v>3275</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>1372</v>
+        <v>1463</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>4448</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14931,15 +14931,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>18915</v>
+        <v>20652</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>7220</v>
+        <v>7891</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>26135</v>
+        <v>28543</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14948,15 +14948,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14965,15 +14965,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>3402</v>
+        <v>3648</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>785</v>
+        <v>852</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>4187</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14982,15 +14982,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>14317</v>
+        <v>15541</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>4578</v>
+        <v>5049</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>18895</v>
+        <v>20590</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14999,15 +14999,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>10080</v>
+        <v>10850</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>4592</v>
+        <v>4906</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>14672</v>
+        <v>15756</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15016,15 +15016,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>5733</v>
+        <v>6142</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>2027</v>
+        <v>2181</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>7760</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15033,15 +15033,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>72377</v>
+        <v>77570</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>10880</v>
+        <v>11820</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>83257</v>
+        <v>89390</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15050,15 +15050,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>8067</v>
+        <v>8707</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1727</v>
+        <v>1863</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>9794</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15067,15 +15067,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>35059</v>
+        <v>37903</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>5651</v>
+        <v>6077</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>40710</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15084,15 +15084,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>2079</v>
+        <v>2228</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>2329</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15101,15 +15101,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>1178</v>
+        <v>1286</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>874</v>
+        <v>1013</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>2052</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15118,15 +15118,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>3817</v>
+        <v>4171</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>4099</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15135,15 +15135,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>18772</v>
+        <v>20532</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>636</v>
+        <v>704</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>19408</v>
+        <v>21236</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15152,15 +15152,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>438</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15169,15 +15169,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>1790</v>
+        <v>1955</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>1906</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15186,15 +15186,15 @@
       </c>
       <c r="B44" s="2">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>4147</v>
+        <v>4429</v>
       </c>
       <c r="C44" s="2">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>696</v>
+        <v>746</v>
       </c>
       <c r="D44" s="2">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>4843</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15203,15 +15203,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>15051</v>
+        <v>16351</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>6198</v>
+        <v>6656</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>21249</v>
+        <v>23007</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15220,15 +15220,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>29964</v>
+        <v>32177</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>11017</v>
+        <v>11952</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>40981</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15237,15 +15237,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>17005</v>
+        <v>18200</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>2388</v>
+        <v>2609</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>19393</v>
+        <v>20809</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15254,15 +15254,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>9587</v>
+        <v>10138</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>6376</v>
+        <v>6876</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>15963</v>
+        <v>17014</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15271,15 +15271,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>33539</v>
+        <v>36113</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>9597</v>
+        <v>10371</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>43136</v>
+        <v>46484</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15288,15 +15288,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>4882</v>
+        <v>5195</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>1737</v>
+        <v>1835</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>6619</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15305,15 +15305,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>10317</v>
+        <v>11360</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>3928</v>
+        <v>4662</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>14245</v>
+        <v>16022</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15322,15 +15322,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1216</v>
+        <v>1297</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1899</v>
+        <v>1991</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>3115</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15339,15 +15339,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>2160</v>
+        <v>2404</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>2512</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15356,15 +15356,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>3448</v>
+        <v>3702</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>4347</v>
+        <v>4711</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>7795</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15373,15 +15373,15 @@
       </c>
       <c r="B55" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>11177</v>
+        <v>12201</v>
       </c>
       <c r="C55" s="8">
         <f>SUM(C12,C13,C14,C15)</f>
-        <v>3959</v>
+        <v>4208</v>
       </c>
       <c r="D55" s="8">
         <f>SUM(D12,D13,D14,D15)</f>
-        <v>15136</v>
+        <v>16409</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15390,15 +15390,15 @@
       </c>
       <c r="B56" s="9">
         <f>SUM(B40,B41,B42,B43)</f>
-        <v>24718</v>
+        <v>27024</v>
       </c>
       <c r="C56" s="9">
         <f>SUM(C40,C41,C42,C43)</f>
-        <v>1133</v>
+        <v>1230</v>
       </c>
       <c r="D56" s="9">
         <f>SUM(D40,D41,D42,D43)</f>
-        <v>25851</v>
+        <v>28254</v>
       </c>
     </row>
   </sheetData>
@@ -15411,7 +15411,7 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F6AF87-07CC-4275-8147-8B4E740FF67D}">
   <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -15421,7 +15421,743 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3513</v>
+      </c>
+      <c r="C2">
+        <v>1209</v>
+      </c>
+      <c r="D2">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2328</v>
+      </c>
+      <c r="C3">
+        <v>506</v>
+      </c>
+      <c r="D3">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6186</v>
+      </c>
+      <c r="C4">
+        <v>1065</v>
+      </c>
+      <c r="D4">
+        <v>7251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4655</v>
+      </c>
+      <c r="C6">
+        <v>907</v>
+      </c>
+      <c r="D6">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>557</v>
+      </c>
+      <c r="C7">
+        <v>190</v>
+      </c>
+      <c r="D7">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>481</v>
+      </c>
+      <c r="C8">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>179</v>
+      </c>
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>135</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>537</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>324</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>172</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1014</v>
+      </c>
+      <c r="C17">
+        <v>630</v>
+      </c>
+      <c r="D17">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1446</v>
+      </c>
+      <c r="C19">
+        <v>407</v>
+      </c>
+      <c r="D19">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1372</v>
+      </c>
+      <c r="C21">
+        <v>416</v>
+      </c>
+      <c r="D21">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>154</v>
+      </c>
+      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="D22">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1816</v>
+      </c>
+      <c r="C23">
+        <v>614</v>
+      </c>
+      <c r="D23">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8088</v>
+      </c>
+      <c r="C24">
+        <v>1640</v>
+      </c>
+      <c r="D24">
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>452</v>
+      </c>
+      <c r="C25">
+        <v>138</v>
+      </c>
+      <c r="D25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>304</v>
+      </c>
+      <c r="C27">
+        <v>177</v>
+      </c>
+      <c r="D27">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>199</v>
+      </c>
+      <c r="C28">
+        <v>91</v>
+      </c>
+      <c r="D28">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1737</v>
+      </c>
+      <c r="C29">
+        <v>671</v>
+      </c>
+      <c r="D29">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>246</v>
+      </c>
+      <c r="C31">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1224</v>
+      </c>
+      <c r="C32">
+        <v>471</v>
+      </c>
+      <c r="D32">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>770</v>
+      </c>
+      <c r="C33">
+        <v>314</v>
+      </c>
+      <c r="D33">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>409</v>
+      </c>
+      <c r="C34">
+        <v>154</v>
+      </c>
+      <c r="D34">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5193</v>
+      </c>
+      <c r="C35">
+        <v>940</v>
+      </c>
+      <c r="D35">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>640</v>
+      </c>
+      <c r="C36">
+        <v>136</v>
+      </c>
+      <c r="D36">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2844</v>
+      </c>
+      <c r="C37">
+        <v>426</v>
+      </c>
+      <c r="D37">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>108</v>
+      </c>
+      <c r="C39">
+        <v>139</v>
+      </c>
+      <c r="D39">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>354</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1760</v>
+      </c>
+      <c r="C41">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>165</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>282</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1300</v>
+      </c>
+      <c r="C45">
+        <v>458</v>
+      </c>
+      <c r="D45">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2213</v>
+      </c>
+      <c r="C46">
+        <v>935</v>
+      </c>
+      <c r="D46">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1195</v>
+      </c>
+      <c r="C47">
+        <v>221</v>
+      </c>
+      <c r="D47">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>551</v>
+      </c>
+      <c r="C48">
+        <v>500</v>
+      </c>
+      <c r="D48">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2574</v>
+      </c>
+      <c r="C49">
+        <v>774</v>
+      </c>
+      <c r="D49">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>313</v>
+      </c>
+      <c r="C50">
+        <v>98</v>
+      </c>
+      <c r="D50">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1043</v>
+      </c>
+      <c r="C51">
+        <v>734</v>
+      </c>
+      <c r="D51">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>81</v>
+      </c>
+      <c r="C52">
+        <v>92</v>
+      </c>
+      <c r="D52">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>244</v>
+      </c>
+      <c r="C53">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>254</v>
+      </c>
+      <c r="C54">
+        <v>364</v>
+      </c>
+      <c r="D54">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15431,7 +16167,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
       <selection pane="topRight" activeCell="A19" sqref="A19"/>
@@ -20610,7 +21346,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
